--- a/Postdocs19.xlsx
+++ b/Postdocs19.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DJBruce/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DJBruce/Application-Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F912B65A-1D8F-A047-9954-FEB4A53AC25B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038F8069-594C-F544-AC84-8D5662198771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" activeTab="1" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Letters" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="168">
   <si>
     <t xml:space="preserve">Arizona State University </t>
   </si>
@@ -430,6 +431,111 @@
   </si>
   <si>
     <t>https://apply.interfolio.com/67247</t>
+  </si>
+  <si>
+    <t>University of Edinburgh</t>
+  </si>
+  <si>
+    <t>713-WRF</t>
+  </si>
+  <si>
+    <t>https://www.vacancies.ed.ac.uk/pls/corehrrecruit/erq_jobspec_version_4.jobspec?p_id=050154.</t>
+  </si>
+  <si>
+    <t>a file entitled YYY.pdf where YYY must equal one of ACM, AP, OORS, SS or MSE indicating to which theme (see above) the research is most closely related. This one page file should be anonymous, so not have reference to your name or your co-authors (references can be numbered, referring to your publication list). It must include a five word descriptor of your research area; indicate the number of years since you completed your PhD (excluding career breaks); and give a concise summary of your existing research achievements.</t>
+  </si>
+  <si>
+    <t>University of Oxford</t>
+  </si>
+  <si>
+    <t>473-TITCHMARSH2020</t>
+  </si>
+  <si>
+    <t> https://www.recruit.ox.ac.uk/pls/hrisliverecruit/erq_jobspec_version_4.jobspec?p_id=143481</t>
+  </si>
+  <si>
+    <t>You will be required to upload a supporting letter setting out how you meet the selection criteria, a curriculum vitae including full list of publications with top three papers starred</t>
+  </si>
+  <si>
+    <t>Syracuse University</t>
+  </si>
+  <si>
+    <t>SU-RPD</t>
+  </si>
+  <si>
+    <t>Step 1. Candidates must submit an online application with a CV on this website, http://www.sujobopps.com/postings/82133.</t>
+  </si>
+  <si>
+    <t>Cambridge University</t>
+  </si>
+  <si>
+    <t>CambUK-HSRF</t>
+  </si>
+  <si>
+    <t>http://www.dpmms.cam.ac.uk/job/23670</t>
+  </si>
+  <si>
+    <t>Yes, 2 pages</t>
+  </si>
+  <si>
+    <t>Yes, best 3</t>
+  </si>
+  <si>
+    <t>A one page summary of your proposed project, and project description.</t>
+  </si>
+  <si>
+    <t>UofT-PDF</t>
+  </si>
+  <si>
+    <t>Teaching Dossier (include teaching evaluations) </t>
+  </si>
+  <si>
+    <t>Daniel Erman</t>
+  </si>
+  <si>
+    <t>Christine Berkesch</t>
+  </si>
+  <si>
+    <t>Kiran Kedlaya</t>
+  </si>
+  <si>
+    <t>David Eisenbud</t>
+  </si>
+  <si>
+    <t>Shirin Malekpour</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Upload 9/30/19</t>
+  </si>
+  <si>
+    <t>Upload 10/14/19</t>
+  </si>
+  <si>
+    <t>Upload 9/24/19</t>
+  </si>
+  <si>
+    <t>Upload 10/22/19</t>
+  </si>
+  <si>
+    <t>Upload 10/21/19</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Requested 10/21/19</t>
+  </si>
+  <si>
+    <t>Re-Request 10/21/19</t>
+  </si>
+  <si>
+    <t>Request Need</t>
+  </si>
+  <si>
+    <t>Request Needed</t>
   </si>
 </sst>
 </file>
@@ -460,7 +566,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,8 +579,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5D6C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -605,12 +729,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -686,6 +819,52 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -694,6 +873,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5D6C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1002,11 +1186,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C862073-6331-234F-B2D0-82C360D0D85F}">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1361,56 +1545,58 @@
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="10">
-        <v>43773</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="A9" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="12">
+        <v>43770</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="11">
         <v>3</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="11">
         <v>1</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="7"/>
+      <c r="M9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="10">
-        <v>43784</v>
+        <v>43773</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>2</v>
@@ -1428,16 +1614,16 @@
         <v>20</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>27</v>
+      <c r="K10" s="7">
+        <v>3</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>23</v>
@@ -1446,10 +1632,10 @@
     </row>
     <row r="11" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C11" s="10">
         <v>43784</v>
@@ -1475,67 +1661,65 @@
       <c r="J11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="10">
+        <v>43784</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="7">
         <v>3</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L12" s="7">
         <v>1</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="12">
-        <v>43784</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="11">
-        <v>3</v>
-      </c>
-      <c r="L12" s="11">
-        <v>1</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="19" t="s">
-        <v>97</v>
-      </c>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C13" s="12">
         <v>43784</v>
@@ -1567,90 +1751,92 @@
       <c r="L13" s="11">
         <v>1</v>
       </c>
-      <c r="M13" s="24" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="12">
+        <v>43784</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="11">
+        <v>3</v>
+      </c>
+      <c r="L14" s="11">
+        <v>1</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+    <row r="15" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C15" s="10">
         <v>43787</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="7">
-        <v>2</v>
-      </c>
-      <c r="L14" s="7">
-        <v>1</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="12">
-        <v>43798</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" s="11">
+      <c r="D15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="7">
+        <v>2</v>
+      </c>
+      <c r="L15" s="7">
         <v>1</v>
       </c>
       <c r="M15" s="3" t="s">
@@ -1660,165 +1846,169 @@
     </row>
     <row r="16" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="12">
+        <v>43789</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="11">
+        <v>3</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="12">
+        <v>43789</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="11">
+        <v>2</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="12">
+        <v>43798</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" s="11">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C19" s="12">
         <v>43799</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D19" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="25">
+      <c r="E19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="25">
         <v>4</v>
       </c>
-      <c r="L16" s="25">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="10">
-        <v>43800</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="10">
-        <v>43800</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="L18" s="25">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="10">
-        <v>43800</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="7">
-        <v>3</v>
-      </c>
-      <c r="L19" s="7">
+      <c r="L19" s="25">
         <v>1</v>
       </c>
       <c r="M19" s="3" t="s">
@@ -1828,10 +2018,10 @@
     </row>
     <row r="20" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C20" s="10">
         <v>43800</v>
@@ -1843,191 +2033,193 @@
         <v>20</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="7">
-        <v>3</v>
-      </c>
-      <c r="L20" s="7">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N20" s="7"/>
+      <c r="N20" s="7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="21" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C21" s="10">
         <v>43800</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="25">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="10">
+        <v>43800</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="7">
+        <v>3</v>
+      </c>
+      <c r="L22" s="7">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="10">
+        <v>43800</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7">
+      <c r="J23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="7">
         <v>3</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L23" s="7">
         <v>1</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="12">
+      <c r="M23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="10">
         <v>43800</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="11" t="s">
+      <c r="D24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="11">
+      <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7">
         <v>3</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L24" s="7">
         <v>1</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22" s="7"/>
-    </row>
-    <row r="23" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="12">
-        <v>43800</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="25">
-        <v>3</v>
-      </c>
-      <c r="L23" s="25">
-        <v>1</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="12">
-        <v>43800</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25">
-        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>23</v>
@@ -2037,10 +2229,10 @@
     </row>
     <row r="25" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C25" s="12">
         <v>43800</v>
@@ -2061,18 +2253,18 @@
         <v>20</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="11" t="s">
         <v>23</v>
       </c>
       <c r="K25" s="11">
         <v>3</v>
       </c>
-      <c r="L25" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M25" s="24" t="s">
+      <c r="L25" s="11">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N25" s="7"/>
@@ -2080,16 +2272,16 @@
     </row>
     <row r="26" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C26" s="12">
         <v>43800</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>2</v>
+      <c r="D26" s="23" t="s">
+        <v>100</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>20</v>
@@ -2109,13 +2301,13 @@
       <c r="J26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="25">
         <v>3</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="25">
         <v>1</v>
       </c>
-      <c r="M26" s="24" t="s">
+      <c r="M26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N26" s="7"/>
@@ -2123,16 +2315,16 @@
     </row>
     <row r="27" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C27" s="12">
         <v>43800</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>2</v>
+      <c r="D27" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>20</v>
@@ -2152,13 +2344,11 @@
       <c r="J27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="11">
-        <v>3</v>
-      </c>
-      <c r="L27" s="11">
-        <v>1</v>
-      </c>
-      <c r="M27" s="24" t="s">
+      <c r="K27" s="25"/>
+      <c r="L27" s="25">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N27" s="7"/>
@@ -2166,10 +2356,10 @@
     </row>
     <row r="28" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C28" s="12">
         <v>43800</v>
@@ -2190,16 +2380,16 @@
         <v>20</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="15" t="s">
         <v>23</v>
       </c>
       <c r="K28" s="11">
         <v>3</v>
       </c>
-      <c r="L28" s="11">
-        <v>1</v>
+      <c r="L28" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="M28" s="24" t="s">
         <v>23</v>
@@ -2209,22 +2399,22 @@
     </row>
     <row r="29" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C29" s="12">
         <v>43800</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>132</v>
+      <c r="D29" s="13" t="s">
+        <v>2</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>20</v>
@@ -2233,16 +2423,16 @@
         <v>20</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="25">
+      <c r="K29" s="11">
         <v>3</v>
       </c>
-      <c r="L29" s="25">
-        <v>0</v>
+      <c r="L29" s="11">
+        <v>1</v>
       </c>
       <c r="M29" s="24" t="s">
         <v>23</v>
@@ -2252,15 +2442,15 @@
     </row>
     <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C30" s="12">
-        <v>43801</v>
-      </c>
-      <c r="D30" s="18" t="s">
+        <v>43800</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="14" t="s">
@@ -2284,10 +2474,10 @@
       <c r="K30" s="11">
         <v>3</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="11">
         <v>1</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="M30" s="24" t="s">
         <v>23</v>
       </c>
       <c r="N30" s="7"/>
@@ -2295,13 +2485,13 @@
     </row>
     <row r="31" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C31" s="12">
-        <v>43801</v>
+        <v>43800</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>2</v>
@@ -2319,7 +2509,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J31" s="11" t="s">
         <v>23</v>
@@ -2333,193 +2523,193 @@
       <c r="M31" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N31" s="19" t="s">
-        <v>119</v>
-      </c>
+      <c r="N31" s="7"/>
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="12">
+        <v>43800</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="25">
+        <v>3</v>
+      </c>
+      <c r="L32" s="25">
         <v>0</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="10">
-        <v>43805</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="7">
-        <v>3</v>
-      </c>
-      <c r="L32" s="7">
-        <v>1</v>
-      </c>
-      <c r="M32" s="3" t="s">
+      <c r="M32" s="24" t="s">
         <v>23</v>
       </c>
       <c r="N32" s="7"/>
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="12">
-        <v>43806</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="11">
+      <c r="A33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="10">
+        <v>43800</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="7">
+        <v>2</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="12">
+        <v>43801</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="11">
         <v>3</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L34" s="15">
         <v>1</v>
       </c>
-      <c r="M33" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N33" s="7"/>
-      <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="10">
-        <v>43814</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="7">
+      <c r="M34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="7"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="12">
+        <v>43801</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="11">
         <v>3</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L35" s="11">
         <v>1</v>
       </c>
-      <c r="M34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="O34" s="2"/>
-    </row>
-    <row r="35" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="10">
-        <v>43814</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="7">
-        <v>3</v>
-      </c>
-      <c r="L35" s="7">
-        <v>1</v>
-      </c>
-      <c r="M35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N35" s="7"/>
+      <c r="M35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="19" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="36" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C36" s="10">
-        <v>43815</v>
+        <v>43805</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>2</v>
@@ -2528,10 +2718,10 @@
         <v>20</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>20</v>
@@ -2540,7 +2730,7 @@
         <v>23</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K36" s="7">
         <v>3</v>
@@ -2554,58 +2744,58 @@
       <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="12">
+        <v>43806</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="11">
         <v>3</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="10">
-        <v>43834</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" s="7">
-        <v>3</v>
-      </c>
-      <c r="L37" s="7">
-        <v>0</v>
-      </c>
-      <c r="M37" s="7" t="s">
+      <c r="L37" s="11">
+        <v>1</v>
+      </c>
+      <c r="M37" s="11" t="s">
         <v>23</v>
       </c>
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="C38" s="12">
-        <v>43836</v>
-      </c>
-      <c r="D38" s="13" t="s">
+        <v>43806</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="14" t="s">
@@ -2635,59 +2825,63 @@
       <c r="M38" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N38" s="7"/>
+      <c r="N38" s="19" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="39" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="10">
-        <v>43847</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" s="7">
+      <c r="A39" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="12">
+        <v>43812</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="11">
         <v>3</v>
       </c>
-      <c r="L39" s="7">
-        <v>1</v>
-      </c>
-      <c r="M39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N39" s="7"/>
+      <c r="L39" s="11">
+        <v>0</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="19" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="40" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C40" s="10">
-        <v>44043</v>
+        <v>43814</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>2</v>
@@ -2719,35 +2913,37 @@
       <c r="M40" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N40" s="7"/>
+      <c r="N40" s="7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="41" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C41" s="10">
-        <v>44044</v>
+        <v>43814</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>23</v>
@@ -2755,8 +2951,8 @@
       <c r="K41" s="7">
         <v>3</v>
       </c>
-      <c r="L41" s="7" t="s">
-        <v>27</v>
+      <c r="L41" s="7">
+        <v>1</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>23</v>
@@ -2765,22 +2961,22 @@
     </row>
     <row r="42" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C42" s="10">
-        <v>44166</v>
+        <v>43815</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>20</v>
@@ -2789,117 +2985,662 @@
         <v>20</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K42" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N42" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="N42" s="7"/>
     </row>
     <row r="43" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="10">
+        <v>43834</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" s="7">
+        <v>3</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="7"/>
+    </row>
+    <row r="44" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="12">
+        <v>43836</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="11">
+        <v>3</v>
+      </c>
+      <c r="L44" s="11">
+        <v>1</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" s="7"/>
+    </row>
+    <row r="45" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="10">
+        <v>43847</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="7">
+        <v>3</v>
+      </c>
+      <c r="L45" s="7">
+        <v>1</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="7"/>
+    </row>
+    <row r="46" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="10">
+        <v>44043</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="7">
+        <v>3</v>
+      </c>
+      <c r="L46" s="7">
+        <v>1</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" s="7"/>
+    </row>
+    <row r="47" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="10">
+        <v>44044</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K47" s="7">
+        <v>3</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K43" s="7" t="s">
+      <c r="D48" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L48" s="7">
         <v>1</v>
       </c>
-      <c r="M43" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N43" s="7"/>
-    </row>
-    <row r="44" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+      <c r="M48" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B49" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="7">
+      <c r="C49" s="7"/>
+      <c r="D49" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="7">
         <v>3</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L49" s="7">
         <v>1</v>
       </c>
-      <c r="M44" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N44" s="7" t="s">
+      <c r="M49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="7" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N44">
-    <sortCondition ref="C2:C44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N49">
+    <sortCondition ref="C2:C49"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D16" r:id="rId1" display="https://recruit.ucdavis.edu/JPF02950" xr:uid="{83E02472-223D-514A-82F7-94F8C5C76C6F}"/>
-    <hyperlink ref="D24" r:id="rId2" xr:uid="{A94B9440-F8F2-1D40-B6F8-BDDE35FB8D62}"/>
-    <hyperlink ref="D29" r:id="rId3" xr:uid="{4B367342-2FC3-E140-A9EC-CB0227AE528A}"/>
+    <hyperlink ref="D19" r:id="rId1" display="https://recruit.ucdavis.edu/JPF02950" xr:uid="{83E02472-223D-514A-82F7-94F8C5C76C6F}"/>
+    <hyperlink ref="D27" r:id="rId2" xr:uid="{A94B9440-F8F2-1D40-B6F8-BDDE35FB8D62}"/>
+    <hyperlink ref="D32" r:id="rId3" xr:uid="{4B367342-2FC3-E140-A9EC-CB0227AE528A}"/>
+    <hyperlink ref="D16" r:id="rId4" display="https://www.vacancies.ed.ac.uk/pls/corehrrecruit/erq_jobspec_version_4.jobspec?p_id=050154" xr:uid="{200AE473-7A60-B148-BA2A-18A77C170360}"/>
+    <hyperlink ref="D17" r:id="rId5" display="https://www.recruit.ox.ac.uk/pls/hrisliverecruit/erq_jobspec_version_4.jobspec?p_id=143481" xr:uid="{07A2CD43-8F6C-854C-9BA5-EE4023673833}"/>
+    <hyperlink ref="D39" r:id="rId6" xr:uid="{155296AC-9F8B-B042-9832-B901625AED63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E1F877-7631-084F-B95D-E28DC512FF41}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="33"/>
+    <col min="4" max="8" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="30">
+        <v>43770</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="31">
+        <v>43770</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="32">
+        <v>43789</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="32">
+        <v>43789</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="32">
+        <v>43799</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="31">
+        <v>43800</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="32">
+        <v>43800</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="32">
+        <v>43800</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="32">
+        <v>43800</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="31">
+        <v>43800</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="32">
+        <v>43812</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Postdocs19.xlsx
+++ b/Postdocs19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DJBruce/Application-Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038F8069-594C-F544-AC84-8D5662198771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24315503-098A-3E4D-848B-30D92A465E88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" activeTab="1" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="174">
   <si>
     <t xml:space="preserve">Arizona State University </t>
   </si>
@@ -536,13 +536,31 @@
   </si>
   <si>
     <t>Request Needed</t>
+  </si>
+  <si>
+    <t>University of Kentucky</t>
+  </si>
+  <si>
+    <t>https://www.research.uky.edu/internal-research-support-programs/postdoctoral-fellowships-enhance-academic-diversity-and</t>
+  </si>
+  <si>
+    <t>Yes, with references</t>
+  </si>
+  <si>
+    <t>In Cover Letter</t>
+  </si>
+  <si>
+    <t>A description of short-term and long-term career goals that have been discussed with your UK research mentor(s).</t>
+  </si>
+  <si>
+    <t>Yes, non-expert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -561,6 +579,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2A2A2A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF292B2C"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -743,7 +768,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -865,6 +890,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1186,11 +1214,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C862073-6331-234F-B2D0-82C360D0D85F}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1589,56 +1617,58 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="10">
-        <v>43773</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="7">
+      <c r="A10" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="12">
+        <v>43770</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="K10" s="11">
         <v>3</v>
       </c>
-      <c r="L10" s="7">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="7"/>
+      <c r="L10" s="11">
+        <v>0</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="42" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="10">
-        <v>43784</v>
+        <v>43773</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>2</v>
@@ -1656,16 +1686,16 @@
         <v>20</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>27</v>
+      <c r="K11" s="7">
+        <v>3</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>23</v>
@@ -1674,10 +1704,10 @@
     </row>
     <row r="12" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C12" s="10">
         <v>43784</v>
@@ -1703,67 +1733,65 @@
       <c r="J12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="10">
+        <v>43784</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="7">
         <v>3</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L13" s="7">
         <v>1</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="12">
-        <v>43784</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="11">
-        <v>3</v>
-      </c>
-      <c r="L13" s="11">
-        <v>1</v>
-      </c>
       <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="19" t="s">
-        <v>97</v>
-      </c>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C14" s="12">
         <v>43784</v>
@@ -1795,114 +1823,114 @@
       <c r="L14" s="11">
         <v>1</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N14" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="12">
+        <v>43784</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="11">
+        <v>3</v>
+      </c>
+      <c r="L15" s="11">
+        <v>1</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+    <row r="16" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C16" s="10">
         <v>43787</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="7">
-        <v>2</v>
-      </c>
-      <c r="L15" s="7">
+      <c r="D16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="7">
+        <v>2</v>
+      </c>
+      <c r="L16" s="7">
         <v>1</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="12">
-        <v>43789</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="11">
-        <v>3</v>
-      </c>
-      <c r="L16" s="11">
-        <v>0</v>
-      </c>
-      <c r="M16" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>136</v>
-      </c>
+      <c r="M16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="7"/>
     </row>
     <row r="17" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="C17" s="12">
         <v>43789</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>23</v>
@@ -1920,7 +1948,7 @@
         <v>23</v>
       </c>
       <c r="K17" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17" s="11">
         <v>0</v>
@@ -1929,24 +1957,24 @@
         <v>23</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>93</v>
+        <v>137</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="C18" s="12">
-        <v>43798</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>2</v>
+        <v>43789</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>23</v>
@@ -1958,125 +1986,129 @@
         <v>20</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="17" t="s">
-        <v>94</v>
+      <c r="K18" s="11">
+        <v>2</v>
       </c>
       <c r="L18" s="11">
-        <v>1</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="19" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="12">
+        <v>43798</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" s="11">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B20" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C20" s="12">
         <v>43799</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D20" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="25">
+      <c r="E20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="25">
         <v>4</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L20" s="25">
         <v>1</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="10">
-        <v>43800</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N20" s="7" t="s">
-        <v>86</v>
-      </c>
+      <c r="N20" s="7"/>
     </row>
     <row r="21" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C21" s="10">
         <v>43800</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>20</v>
@@ -2085,69 +2117,67 @@
         <v>20</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="L21" s="25">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C22" s="10">
         <v>43800</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="7">
-        <v>3</v>
-      </c>
-      <c r="L22" s="7">
-        <v>1</v>
+      <c r="K22" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="25">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N22" s="7"/>
+      <c r="N22" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="23" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C23" s="10">
         <v>43800</v>
@@ -2159,16 +2189,16 @@
         <v>20</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>23</v>
@@ -2186,10 +2216,10 @@
     </row>
     <row r="24" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C24" s="10">
         <v>43800</v>
@@ -2201,10 +2231,10 @@
         <v>20</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>20</v>
@@ -2228,40 +2258,40 @@
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="12">
+      <c r="A25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="10">
         <v>43800</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="11" t="s">
+      <c r="D25" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="11">
+      <c r="J25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="7">
         <v>3</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="7">
         <v>1</v>
       </c>
       <c r="M25" s="3" t="s">
@@ -2272,16 +2302,16 @@
     </row>
     <row r="26" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C26" s="12">
         <v>43800</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>100</v>
+      <c r="D26" s="13" t="s">
+        <v>2</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>20</v>
@@ -2296,15 +2326,15 @@
         <v>20</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K26" s="11">
         <v>3</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="11">
         <v>1</v>
       </c>
       <c r="M26" s="3" t="s">
@@ -2318,13 +2348,13 @@
         <v>98</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C27" s="12">
         <v>43800</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>102</v>
+      <c r="D27" s="23" t="s">
+        <v>100</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>20</v>
@@ -2344,9 +2374,11 @@
       <c r="J27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="25"/>
+      <c r="K27" s="25">
+        <v>3</v>
+      </c>
       <c r="L27" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>23</v>
@@ -2356,16 +2388,16 @@
     </row>
     <row r="28" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C28" s="12">
         <v>43800</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>2</v>
+      <c r="D28" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>20</v>
@@ -2380,18 +2412,16 @@
         <v>20</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="11">
-        <v>3</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M28" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N28" s="7"/>
@@ -2399,10 +2429,10 @@
     </row>
     <row r="29" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C29" s="12">
         <v>43800</v>
@@ -2423,16 +2453,16 @@
         <v>20</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="15" t="s">
         <v>23</v>
       </c>
       <c r="K29" s="11">
         <v>3</v>
       </c>
-      <c r="L29" s="11">
-        <v>1</v>
+      <c r="L29" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="M29" s="24" t="s">
         <v>23</v>
@@ -2442,10 +2472,10 @@
     </row>
     <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C30" s="12">
         <v>43800</v>
@@ -2485,10 +2515,10 @@
     </row>
     <row r="31" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C31" s="12">
         <v>43800</v>
@@ -2509,7 +2539,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J31" s="11" t="s">
         <v>23</v>
@@ -2528,22 +2558,22 @@
     </row>
     <row r="32" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C32" s="12">
         <v>43800</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>132</v>
+      <c r="D32" s="13" t="s">
+        <v>2</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>20</v>
@@ -2557,11 +2587,11 @@
       <c r="J32" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="25">
+      <c r="K32" s="11">
         <v>3</v>
       </c>
-      <c r="L32" s="25">
-        <v>0</v>
+      <c r="L32" s="11">
+        <v>1</v>
       </c>
       <c r="M32" s="24" t="s">
         <v>23</v>
@@ -2570,104 +2600,104 @@
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="12">
+        <v>43800</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="25">
+        <v>3</v>
+      </c>
+      <c r="L33" s="25">
+        <v>0</v>
+      </c>
+      <c r="M33" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="7"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C34" s="10">
         <v>43800</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="7" t="s">
+      <c r="E34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="7">
-        <v>2</v>
-      </c>
-      <c r="L33" s="7">
+      <c r="J34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="7">
+        <v>2</v>
+      </c>
+      <c r="L34" s="7">
         <v>0</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N33" s="7" t="s">
+      <c r="M34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="12">
-        <v>43801</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="11">
-        <v>3</v>
-      </c>
-      <c r="L34" s="15">
-        <v>1</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N34" s="7"/>
       <c r="O34" s="2"/>
     </row>
     <row r="35" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C35" s="12">
         <v>43801</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="14" t="s">
@@ -2691,96 +2721,96 @@
       <c r="K35" s="11">
         <v>3</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L35" s="15">
         <v>1</v>
       </c>
-      <c r="M35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N35" s="19" t="s">
+      <c r="M35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="7"/>
+    </row>
+    <row r="36" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="12">
+        <v>43801</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="11">
+        <v>3</v>
+      </c>
+      <c r="L36" s="11">
+        <v>1</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+    <row r="37" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B37" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C37" s="10">
         <v>43805</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="7" t="s">
+      <c r="D37" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="7">
+      <c r="H37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="7">
         <v>3</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L37" s="7">
         <v>1</v>
       </c>
-      <c r="M36" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="12">
-        <v>43806</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" s="11">
-        <v>3</v>
-      </c>
-      <c r="L37" s="11">
-        <v>1</v>
-      </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="7" t="s">
         <v>23</v>
       </c>
       <c r="N37" s="7"/>
@@ -2790,16 +2820,16 @@
         <v>126</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C38" s="12">
         <v>43806</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>20</v>
@@ -2825,37 +2855,35 @@
       <c r="M38" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N38" s="19" t="s">
-        <v>151</v>
-      </c>
+      <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C39" s="12">
-        <v>43812</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>146</v>
+        <v>43806</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>2</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="J39" s="11" t="s">
         <v>23</v>
@@ -2864,65 +2892,65 @@
         <v>3</v>
       </c>
       <c r="L39" s="11">
+        <v>1</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="12">
+        <v>43812</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="11">
+        <v>3</v>
+      </c>
+      <c r="L40" s="11">
         <v>0</v>
       </c>
-      <c r="M39" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N39" s="19" t="s">
+      <c r="M40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="19" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="10">
-        <v>43814</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="7">
-        <v>3</v>
-      </c>
-      <c r="L40" s="7">
-        <v>1</v>
-      </c>
-      <c r="M40" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N40" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C41" s="10">
         <v>43814</v>
@@ -2931,7 +2959,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>20</v>
@@ -2940,10 +2968,10 @@
         <v>20</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>23</v>
@@ -2957,23 +2985,25 @@
       <c r="M41" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N41" s="7"/>
+      <c r="N41" s="7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="42" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C42" s="10">
-        <v>43815</v>
+        <v>43814</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>20</v>
@@ -2982,7 +3012,7 @@
         <v>20</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>23</v>
@@ -3003,13 +3033,13 @@
     </row>
     <row r="43" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C43" s="10">
-        <v>43834</v>
+        <v>43815</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>2</v>
@@ -3018,7 +3048,7 @@
         <v>20</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>20</v>
@@ -3027,7 +3057,7 @@
         <v>20</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>23</v>
@@ -3036,112 +3066,112 @@
         <v>3</v>
       </c>
       <c r="L43" s="7">
+        <v>1</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="7"/>
+    </row>
+    <row r="44" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="10">
+        <v>43834</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="7">
+        <v>3</v>
+      </c>
+      <c r="L44" s="7">
         <v>0</v>
       </c>
-      <c r="M43" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N43" s="7"/>
-    </row>
-    <row r="44" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
+      <c r="M44" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" s="7"/>
+    </row>
+    <row r="45" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B45" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C45" s="12">
         <v>43836</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="11">
+      <c r="D45" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="11">
         <v>3</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L45" s="11">
         <v>1</v>
       </c>
-      <c r="M44" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N44" s="7"/>
-    </row>
-    <row r="45" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="10">
-        <v>43847</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" s="7">
-        <v>3</v>
-      </c>
-      <c r="L45" s="7">
-        <v>1</v>
-      </c>
-      <c r="M45" s="7" t="s">
+      <c r="M45" s="11" t="s">
         <v>23</v>
       </c>
       <c r="N45" s="7"/>
     </row>
     <row r="46" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C46" s="10">
-        <v>44043</v>
+        <v>43847</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>20</v>
@@ -3153,7 +3183,7 @@
         <v>20</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>23</v>
@@ -3171,13 +3201,13 @@
     </row>
     <row r="47" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C47" s="10">
-        <v>44044</v>
+        <v>44043</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>2</v>
@@ -3186,13 +3216,13 @@
         <v>20</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>20</v>
@@ -3203,8 +3233,8 @@
       <c r="K47" s="7">
         <v>3</v>
       </c>
-      <c r="L47" s="7" t="s">
-        <v>27</v>
+      <c r="L47" s="7">
+        <v>1</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>23</v>
@@ -3213,40 +3243,40 @@
     </row>
     <row r="48" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="10">
+        <v>44044</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="7">
         <v>3</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" s="7">
-        <v>1</v>
+      <c r="L48" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="M48" s="7" t="s">
         <v>23</v>
@@ -3255,12 +3285,14 @@
     </row>
     <row r="49" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="D49" s="8" t="s">
         <v>2</v>
       </c>
@@ -3268,7 +3300,7 @@
         <v>20</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>20</v>
@@ -3277,35 +3309,75 @@
         <v>20</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K49" s="7">
-        <v>3</v>
+      <c r="K49" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="L49" s="7">
         <v>1</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N49" s="7"/>
+    </row>
+    <row r="50" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" s="7">
+        <v>3</v>
+      </c>
+      <c r="L50" s="7">
+        <v>1</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="7" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N49">
-    <sortCondition ref="C2:C49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N50">
+    <sortCondition ref="C2:C50"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D19" r:id="rId1" display="https://recruit.ucdavis.edu/JPF02950" xr:uid="{83E02472-223D-514A-82F7-94F8C5C76C6F}"/>
-    <hyperlink ref="D27" r:id="rId2" xr:uid="{A94B9440-F8F2-1D40-B6F8-BDDE35FB8D62}"/>
-    <hyperlink ref="D32" r:id="rId3" xr:uid="{4B367342-2FC3-E140-A9EC-CB0227AE528A}"/>
-    <hyperlink ref="D16" r:id="rId4" display="https://www.vacancies.ed.ac.uk/pls/corehrrecruit/erq_jobspec_version_4.jobspec?p_id=050154" xr:uid="{200AE473-7A60-B148-BA2A-18A77C170360}"/>
-    <hyperlink ref="D17" r:id="rId5" display="https://www.recruit.ox.ac.uk/pls/hrisliverecruit/erq_jobspec_version_4.jobspec?p_id=143481" xr:uid="{07A2CD43-8F6C-854C-9BA5-EE4023673833}"/>
-    <hyperlink ref="D39" r:id="rId6" xr:uid="{155296AC-9F8B-B042-9832-B901625AED63}"/>
+    <hyperlink ref="D20" r:id="rId1" display="https://recruit.ucdavis.edu/JPF02950" xr:uid="{83E02472-223D-514A-82F7-94F8C5C76C6F}"/>
+    <hyperlink ref="D28" r:id="rId2" xr:uid="{A94B9440-F8F2-1D40-B6F8-BDDE35FB8D62}"/>
+    <hyperlink ref="D33" r:id="rId3" xr:uid="{4B367342-2FC3-E140-A9EC-CB0227AE528A}"/>
+    <hyperlink ref="D17" r:id="rId4" display="https://www.vacancies.ed.ac.uk/pls/corehrrecruit/erq_jobspec_version_4.jobspec?p_id=050154" xr:uid="{200AE473-7A60-B148-BA2A-18A77C170360}"/>
+    <hyperlink ref="D18" r:id="rId5" display="https://www.recruit.ox.ac.uk/pls/hrisliverecruit/erq_jobspec_version_4.jobspec?p_id=143481" xr:uid="{07A2CD43-8F6C-854C-9BA5-EE4023673833}"/>
+    <hyperlink ref="D40" r:id="rId6" xr:uid="{155296AC-9F8B-B042-9832-B901625AED63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3315,8 +3387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E1F877-7631-084F-B95D-E28DC512FF41}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>

--- a/Postdocs19.xlsx
+++ b/Postdocs19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DJBruce/Application-Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24315503-098A-3E4D-848B-30D92A465E88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1FE6CB-87A4-5D40-9273-A4B330DAE0F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
@@ -768,7 +768,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -892,6 +892,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1218,7 +1233,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2133,42 +2148,42 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="44">
         <v>43800</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7" t="s">
+      <c r="E22" s="46"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="25" t="s">
+      <c r="H22" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="43">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22" s="7" t="s">
+      <c r="M22" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="43" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3388,8 +3403,8 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3572,8 +3587,8 @@
       <c r="E7" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>163</v>
+      <c r="F7" s="35" t="s">
+        <v>162</v>
       </c>
       <c r="G7" s="40" t="s">
         <v>164</v>

--- a/Postdocs19.xlsx
+++ b/Postdocs19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DJBruce/Application-Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1FE6CB-87A4-5D40-9273-A4B330DAE0F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDAF396-8F41-7D4C-AAED-8BE4945ECE75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
@@ -768,7 +768,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -779,15 +779,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -907,6 +898,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1233,7 +1239,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1246,2139 +1252,2139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="17" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="70" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="45">
         <v>43770</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="D2" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="44">
         <v>1</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="M2" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="44" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>43770</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="J3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="4">
         <v>1</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>43770</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="4" t="s">
         <v>75</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>43770</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="D5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="4">
         <v>3</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>43770</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="11">
+      <c r="D6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="8">
         <v>3</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="8" t="s">
         <v>27</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <v>43770</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="11" t="s">
+      <c r="D7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="11">
+      <c r="J7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="8">
         <v>3</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="12">
         <v>1</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="7"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>43770</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="11">
+      <c r="D8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="8">
         <v>3</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="7"/>
+      <c r="M8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="48">
         <v>43770</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="11">
+      <c r="D9" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="40">
         <v>3</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="40">
         <v>1</v>
       </c>
-      <c r="M9" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="19" t="s">
+      <c r="M9" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="49" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <v>43770</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="E10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="11" t="s">
+      <c r="I10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="8">
         <v>3</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="8">
         <v>0</v>
       </c>
-      <c r="M10" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="42" t="s">
+      <c r="M10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="39" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>43773</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="7">
+      <c r="D11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="4">
         <v>3</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="4">
         <v>1</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="7"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>43784</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="7" t="s">
+      <c r="D12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="7"/>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>43784</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="7">
+      <c r="D13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="4">
         <v>3</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="4">
         <v>1</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="9">
         <v>43784</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="11">
+      <c r="D14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="8">
         <v>3</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="8">
         <v>1</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N14" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="9">
         <v>43784</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="11">
+      <c r="D15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="8">
         <v>3</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="8">
         <v>1</v>
       </c>
-      <c r="M15" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="19" t="s">
+      <c r="M15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="7">
         <v>43787</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="7">
-        <v>2</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="D16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="4">
+        <v>2</v>
+      </c>
+      <c r="L16" s="4">
         <v>1</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="7"/>
+      <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="9">
         <v>43789</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="11" t="s">
+      <c r="E17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="11">
+      <c r="J17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="8">
         <v>3</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="8">
         <v>0</v>
       </c>
-      <c r="M17" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N17" s="19" t="s">
+      <c r="M17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="16" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="9">
         <v>43789</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="11" t="s">
+      <c r="E18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="11">
-        <v>2</v>
-      </c>
-      <c r="L18" s="11">
+      <c r="J18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="8">
+        <v>2</v>
+      </c>
+      <c r="L18" s="8">
         <v>0</v>
       </c>
-      <c r="M18" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" s="19" t="s">
+      <c r="M18" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="9">
         <v>43798</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="17" t="s">
+      <c r="D19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="8">
         <v>1</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N19" s="7"/>
+      <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="9">
         <v>43799</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="25">
+      <c r="E20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="22">
         <v>4</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="22">
         <v>1</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N20" s="7"/>
+      <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="7">
         <v>43800</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="7" t="s">
+      <c r="D21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="41">
         <v>43800</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43" t="s">
+      <c r="E22" s="43"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="43" t="s">
+      <c r="H22" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="L22" s="43">
+      <c r="L22" s="40">
         <v>0</v>
       </c>
-      <c r="M22" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22" s="43" t="s">
+      <c r="M22" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="40" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="7">
         <v>43800</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="7">
+      <c r="D23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="4">
         <v>3</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="4">
         <v>1</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N23" s="7"/>
+      <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="7">
         <v>43800</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="D24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="7" t="s">
+      <c r="H24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7">
+      <c r="J24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="4">
         <v>3</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="4">
         <v>1</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="7"/>
+      <c r="N24" s="4"/>
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="7">
         <v>43800</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="7" t="s">
+      <c r="D25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="7">
+      <c r="J25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="4">
         <v>3</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="4">
         <v>1</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="7"/>
+      <c r="N25" s="4"/>
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="9">
         <v>43800</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="11" t="s">
+      <c r="D26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="11">
+      <c r="J26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="8">
         <v>3</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="8">
         <v>1</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="7"/>
+      <c r="N26" s="4"/>
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="9">
         <v>43800</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="25">
+      <c r="E27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="22">
         <v>3</v>
       </c>
-      <c r="L27" s="25">
+      <c r="L27" s="22">
         <v>1</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N27" s="7"/>
+      <c r="N27" s="4"/>
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="9">
         <v>43800</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25">
+      <c r="E28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22">
         <v>0</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N28" s="7"/>
+      <c r="N28" s="4"/>
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="9">
         <v>43800</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="11" t="s">
+      <c r="D29" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J29" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="11">
+      <c r="J29" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="8">
         <v>3</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="L29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N29" s="7"/>
+      <c r="M29" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="4"/>
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="9">
         <v>43800</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="11">
+      <c r="D30" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="8">
         <v>3</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="8">
         <v>1</v>
       </c>
-      <c r="M30" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N30" s="7"/>
+      <c r="M30" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="4"/>
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="9">
         <v>43800</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="11">
+      <c r="D31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="8">
         <v>3</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="8">
         <v>1</v>
       </c>
-      <c r="M31" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N31" s="7"/>
+      <c r="M31" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="4"/>
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="9">
         <v>43800</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="11">
+      <c r="D32" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="8">
         <v>3</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32" s="8">
         <v>1</v>
       </c>
-      <c r="M32" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N32" s="7"/>
+      <c r="M32" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="4"/>
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="9">
         <v>43800</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="11" t="s">
+      <c r="E33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="25">
+      <c r="G33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="22">
         <v>3</v>
       </c>
-      <c r="L33" s="25">
+      <c r="L33" s="22">
         <v>0</v>
       </c>
-      <c r="M33" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N33" s="7"/>
+      <c r="M33" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="4"/>
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="7">
         <v>43800</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="7" t="s">
+      <c r="E34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="7">
-        <v>2</v>
-      </c>
-      <c r="L34" s="7">
+      <c r="J34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="4">
+        <v>2</v>
+      </c>
+      <c r="L34" s="4">
         <v>0</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="N34" s="4" t="s">
         <v>85</v>
       </c>
       <c r="O34" s="2"/>
     </row>
     <row r="35" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="9">
         <v>43801</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="11">
+      <c r="D35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="8">
         <v>3</v>
       </c>
-      <c r="L35" s="15">
+      <c r="L35" s="12">
         <v>1</v>
       </c>
-      <c r="M35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N35" s="7"/>
+      <c r="M35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="4"/>
     </row>
     <row r="36" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="9">
         <v>43801</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K36" s="11">
+      <c r="D36" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="8">
         <v>3</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36" s="8">
         <v>1</v>
       </c>
-      <c r="M36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N36" s="19" t="s">
+      <c r="M36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="7">
         <v>43805</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="7" t="s">
+      <c r="D37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="7">
+      <c r="H37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="4">
         <v>3</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="4">
         <v>1</v>
       </c>
-      <c r="M37" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N37" s="7"/>
+      <c r="M37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" s="4"/>
     </row>
     <row r="38" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="9">
         <v>43806</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="14" t="s">
+      <c r="D38" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K38" s="11">
+      <c r="F38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="8">
         <v>3</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="8">
         <v>1</v>
       </c>
-      <c r="M38" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N38" s="7"/>
+      <c r="M38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" s="4"/>
     </row>
     <row r="39" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="9">
         <v>43806</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" s="11">
+      <c r="D39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="8">
         <v>3</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L39" s="8">
         <v>1</v>
       </c>
-      <c r="M39" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N39" s="19" t="s">
+      <c r="M39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="16" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="9">
         <v>43812</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="11" t="s">
+      <c r="E40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="I40" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="J40" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="11">
+      <c r="J40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="8">
         <v>3</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="8">
         <v>0</v>
       </c>
-      <c r="M40" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N40" s="19" t="s">
+      <c r="M40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="16" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="7">
         <v>43814</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K41" s="7">
+      <c r="D41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="4">
         <v>3</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="4">
         <v>1</v>
       </c>
-      <c r="M41" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N41" s="7" t="s">
+      <c r="M41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="7">
         <v>43814</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="9" t="s">
+      <c r="D42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" s="7" t="s">
+      <c r="F42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K42" s="7">
+      <c r="I42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="4">
         <v>3</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="4">
         <v>1</v>
       </c>
-      <c r="M42" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N42" s="7"/>
+      <c r="M42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" s="4"/>
     </row>
     <row r="43" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="7">
         <v>43815</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K43" s="7">
+      <c r="D43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" s="4">
         <v>3</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43" s="4">
         <v>1</v>
       </c>
-      <c r="M43" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N43" s="7"/>
+      <c r="M43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="4"/>
     </row>
     <row r="44" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="7">
         <v>43834</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="7" t="s">
+      <c r="D44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J44" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="7">
+      <c r="J44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="4">
         <v>3</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="4">
         <v>0</v>
       </c>
-      <c r="M44" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N44" s="7"/>
+      <c r="M44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" s="4"/>
     </row>
     <row r="45" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="9">
         <v>43836</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" s="11">
+      <c r="D45" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="8">
         <v>3</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L45" s="8">
         <v>1</v>
       </c>
-      <c r="M45" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N45" s="7"/>
+      <c r="M45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="4"/>
     </row>
     <row r="46" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="7">
         <v>43847</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="9" t="s">
+      <c r="D46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K46" s="7">
+      <c r="F46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="4">
         <v>3</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="4">
         <v>1</v>
       </c>
-      <c r="M46" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N46" s="7"/>
+      <c r="M46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" s="4"/>
     </row>
     <row r="47" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="7">
         <v>44043</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K47" s="7">
+      <c r="D47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K47" s="4">
         <v>3</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="4">
         <v>1</v>
       </c>
-      <c r="M47" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N47" s="7"/>
+      <c r="M47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="4"/>
     </row>
     <row r="48" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="7">
         <v>44044</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="7" t="s">
+      <c r="D48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K48" s="7">
+      <c r="I48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="4">
         <v>3</v>
       </c>
-      <c r="L48" s="7" t="s">
+      <c r="L48" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M48" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N48" s="7"/>
+      <c r="M48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N48" s="4"/>
     </row>
     <row r="49" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K49" s="7" t="s">
+      <c r="D49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="4">
         <v>1</v>
       </c>
-      <c r="M49" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N49" s="7"/>
+      <c r="M49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N49" s="4"/>
     </row>
     <row r="50" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K50" s="7">
+      <c r="C50" s="4"/>
+      <c r="D50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" s="4">
         <v>3</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="4">
         <v>1</v>
       </c>
-      <c r="M50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N50" s="7" t="s">
+      <c r="M50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3411,319 +3417,319 @@
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="33"/>
+    <col min="3" max="3" width="10.83203125" style="30"/>
     <col min="4" max="8" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="25" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="30">
+      <c r="B2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="27">
         <v>43770</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="38" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="28">
         <v>43770</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="32" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="29">
         <v>43789</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="32" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="29">
         <v>43789</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="32" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="29">
         <v>43799</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="37" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="28">
         <v>43800</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="32" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="29">
         <v>43800</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="37" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="29">
         <v>43800</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="32" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="29">
         <v>43800</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="32" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="28">
         <v>43800</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="32" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="29">
         <v>43812</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="32" t="s">
         <v>157</v>
       </c>
     </row>

--- a/Postdocs19.xlsx
+++ b/Postdocs19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DJBruce/Application-Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDAF396-8F41-7D4C-AAED-8BE4945ECE75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14349B1-49D4-3243-916F-280B9C1575B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="173">
   <si>
     <t xml:space="preserve">Arizona State University </t>
   </si>
@@ -124,15 +124,6 @@
     <t>1118-POSTDOC</t>
   </si>
   <si>
-    <t>FSU-SJPS</t>
-  </si>
-  <si>
-    <t>3?</t>
-  </si>
-  <si>
-    <t>Florida State University?</t>
-  </si>
-  <si>
     <t>Georgia Institute of Technology</t>
   </si>
   <si>
@@ -529,9 +520,6 @@
     <t>Requested 10/21/19</t>
   </si>
   <si>
-    <t>Re-Request 10/21/19</t>
-  </si>
-  <si>
     <t>Request Need</t>
   </si>
   <si>
@@ -554,6 +542,15 @@
   </si>
   <si>
     <t>Yes, non-expert</t>
+  </si>
+  <si>
+    <t>Uploaded 10/26/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tufts University </t>
+  </si>
+  <si>
+    <t>Tufts-NWAPALGEBRA</t>
   </si>
 </sst>
 </file>
@@ -768,7 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -914,6 +911,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1238,8 +1241,8 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:N9"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1253,16 +1256,16 @@
   <sheetData>
     <row r="1" spans="1:14" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>83</v>
-      </c>
       <c r="C1" s="17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>18</v>
@@ -1292,15 +1295,15 @@
         <v>17</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="70" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="44" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="45">
         <v>43770</v>
@@ -1336,87 +1339,87 @@
         <v>23</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="A3" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="41">
         <v>43770</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="D3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="40">
         <v>1</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>77</v>
+      <c r="M3" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" s="7">
         <v>43770</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>23</v>
@@ -1424,181 +1427,181 @@
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="A5" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="41">
         <v>43770</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="4">
-        <v>3</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="D5" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="40">
+        <v>3</v>
+      </c>
+      <c r="L5" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="4"/>
+      <c r="M5" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="40"/>
     </row>
     <row r="6" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="A6" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="48">
         <v>43770</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="8">
-        <v>3</v>
-      </c>
-      <c r="L6" s="8" t="s">
+      <c r="D6" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="40">
+        <v>3</v>
+      </c>
+      <c r="L6" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>91</v>
+      <c r="M6" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="A7" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="48">
         <v>43770</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="8">
-        <v>3</v>
-      </c>
-      <c r="L7" s="12">
+      <c r="D7" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="40">
+        <v>3</v>
+      </c>
+      <c r="L7" s="51">
         <v>1</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="4"/>
+      <c r="M7" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="40"/>
     </row>
     <row r="8" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="A8" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="48">
         <v>43770</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="8">
-        <v>3</v>
-      </c>
-      <c r="L8" s="8" t="s">
+      <c r="D8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="40">
+        <v>3</v>
+      </c>
+      <c r="L8" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="4"/>
+      <c r="M8" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="40"/>
     </row>
     <row r="9" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C9" s="48">
         <v>43770</v>
@@ -1634,39 +1637,39 @@
         <v>23</v>
       </c>
       <c r="N9" s="49" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C10" s="9">
         <v>43770</v>
       </c>
       <c r="D10" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>173</v>
-      </c>
       <c r="H10" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K10" s="8">
         <v>3</v>
@@ -1678,141 +1681,143 @@
         <v>23</v>
       </c>
       <c r="N10" s="39" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="41">
         <v>43773</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="4">
-        <v>3</v>
-      </c>
-      <c r="L11" s="4">
+      <c r="D11" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="40">
+        <v>3</v>
+      </c>
+      <c r="L11" s="40">
         <v>1</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="4"/>
+      <c r="M11" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="40"/>
     </row>
     <row r="12" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="A12" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="41">
         <v>43784</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="4"/>
+      <c r="D12" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="40">
+        <v>3</v>
+      </c>
+      <c r="L12" s="40">
+        <v>1</v>
+      </c>
+      <c r="M12" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="40"/>
     </row>
     <row r="13" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="A13" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="48">
         <v>43784</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="4">
-        <v>3</v>
-      </c>
-      <c r="L13" s="4">
+      <c r="D13" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="40">
+        <v>3</v>
+      </c>
+      <c r="L13" s="40">
         <v>1</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="4"/>
+      <c r="M13" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="49" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C14" s="9">
         <v>43784</v>
@@ -1844,114 +1849,114 @@
       <c r="L14" s="8">
         <v>1</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="21" t="s">
         <v>23</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="9">
-        <v>43784</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="8">
-        <v>3</v>
-      </c>
-      <c r="L15" s="8">
+      <c r="A15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="7">
+        <v>43787</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2</v>
+      </c>
+      <c r="L15" s="4">
         <v>1</v>
       </c>
-      <c r="M15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>112</v>
-      </c>
+      <c r="M15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="7">
-        <v>43787</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="4">
-        <v>2</v>
-      </c>
-      <c r="L16" s="4">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" s="4"/>
+      <c r="A16" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="9">
+        <v>43789</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="8">
+        <v>3</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="17" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="8" t="s">
         <v>134</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="C17" s="9">
         <v>43789</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>23</v>
@@ -1969,7 +1974,7 @@
         <v>23</v>
       </c>
       <c r="K17" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17" s="8">
         <v>0</v>
@@ -1978,24 +1983,24 @@
         <v>23</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>138</v>
+        <v>89</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C18" s="9">
-        <v>43789</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>139</v>
+        <v>43798</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>2</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>23</v>
@@ -2007,42 +2012,40 @@
         <v>20</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="8">
-        <v>2</v>
+      <c r="K18" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="L18" s="8">
-        <v>0</v>
-      </c>
-      <c r="M18" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>140</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C19" s="9">
-        <v>43798</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>2</v>
+        <v>43799</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>20</v>
@@ -2056,10 +2059,10 @@
       <c r="J19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="8">
+      <c r="K19" s="22">
+        <v>4</v>
+      </c>
+      <c r="L19" s="22">
         <v>1</v>
       </c>
       <c r="M19" s="3" t="s">
@@ -2068,137 +2071,137 @@
       <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="9">
-        <v>43799</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="22">
-        <v>4</v>
-      </c>
-      <c r="L20" s="22">
+      <c r="A20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="7">
+        <v>43800</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="41">
+        <v>43800</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="43"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="40">
+        <v>0</v>
+      </c>
+      <c r="M21" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="7">
+        <v>43800</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="4">
+        <v>3</v>
+      </c>
+      <c r="L22" s="4">
         <v>1</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="7">
-        <v>43800</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="41">
-        <v>43800</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="L22" s="40">
-        <v>0</v>
-      </c>
-      <c r="M22" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22" s="40" t="s">
-        <v>52</v>
-      </c>
+      <c r="M22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C23" s="7">
         <v>43800</v>
@@ -2210,16 +2213,16 @@
         <v>20</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>23</v>
@@ -2234,6 +2237,7 @@
         <v>23</v>
       </c>
       <c r="N23" s="4"/>
+      <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
@@ -2252,10 +2256,10 @@
         <v>20</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>20</v>
@@ -2279,40 +2283,40 @@
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="7">
+      <c r="A25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="9">
         <v>43800</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="4" t="s">
+      <c r="D25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="4">
-        <v>3</v>
-      </c>
-      <c r="L25" s="4">
+      <c r="J25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="8">
+        <v>3</v>
+      </c>
+      <c r="L25" s="8">
         <v>1</v>
       </c>
       <c r="M25" s="3" t="s">
@@ -2323,16 +2327,16 @@
     </row>
     <row r="26" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C26" s="9">
         <v>43800</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>2</v>
+      <c r="D26" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>20</v>
@@ -2347,15 +2351,15 @@
         <v>20</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="8">
-        <v>3</v>
-      </c>
-      <c r="L26" s="8">
+      <c r="K26" s="22">
+        <v>3</v>
+      </c>
+      <c r="L26" s="22">
         <v>1</v>
       </c>
       <c r="M26" s="3" t="s">
@@ -2366,16 +2370,16 @@
     </row>
     <row r="27" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="C27" s="9">
         <v>43800</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>100</v>
+      <c r="D27" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>20</v>
@@ -2395,11 +2399,9 @@
       <c r="J27" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="22">
-        <v>3</v>
-      </c>
+      <c r="K27" s="22"/>
       <c r="L27" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>23</v>
@@ -2409,16 +2411,16 @@
     </row>
     <row r="28" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C28" s="9">
         <v>43800</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>102</v>
+      <c r="D28" s="10" t="s">
+        <v>2</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>20</v>
@@ -2433,16 +2435,18 @@
         <v>20</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22">
-        <v>0</v>
-      </c>
-      <c r="M28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="8">
+        <v>3</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="21" t="s">
         <v>23</v>
       </c>
       <c r="N28" s="4"/>
@@ -2450,10 +2454,10 @@
     </row>
     <row r="29" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C29" s="9">
         <v>43800</v>
@@ -2474,16 +2478,16 @@
         <v>20</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K29" s="8">
         <v>3</v>
       </c>
-      <c r="L29" s="8" t="s">
-        <v>27</v>
+      <c r="L29" s="8">
+        <v>1</v>
       </c>
       <c r="M29" s="21" t="s">
         <v>23</v>
@@ -2493,10 +2497,10 @@
     </row>
     <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C30" s="9">
         <v>43800</v>
@@ -2536,10 +2540,10 @@
     </row>
     <row r="31" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C31" s="9">
         <v>43800</v>
@@ -2560,7 +2564,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>23</v>
@@ -2579,22 +2583,22 @@
     </row>
     <row r="32" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="C32" s="9">
         <v>43800</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>2</v>
+      <c r="D32" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>20</v>
@@ -2608,11 +2612,11 @@
       <c r="J32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="8">
-        <v>3</v>
-      </c>
-      <c r="L32" s="8">
-        <v>1</v>
+      <c r="K32" s="22">
+        <v>3</v>
+      </c>
+      <c r="L32" s="22">
+        <v>0</v>
       </c>
       <c r="M32" s="21" t="s">
         <v>23</v>
@@ -2621,104 +2625,103 @@
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="9">
+      <c r="A33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="7">
         <v>43800</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="22">
-        <v>3</v>
-      </c>
-      <c r="L33" s="22">
+      <c r="D33" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="4">
+        <v>2</v>
+      </c>
+      <c r="L33" s="4">
         <v>0</v>
       </c>
-      <c r="M33" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N33" s="4"/>
+      <c r="M33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="7">
-        <v>43800</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="4">
-        <v>2</v>
-      </c>
-      <c r="L34" s="4">
-        <v>0</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O34" s="2"/>
+      <c r="A34" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="9">
+        <v>43801</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="8">
+        <v>3</v>
+      </c>
+      <c r="L34" s="12">
+        <v>1</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="4"/>
     </row>
     <row r="35" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C35" s="9">
         <v>43801</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="11" t="s">
@@ -2742,115 +2745,115 @@
       <c r="K35" s="8">
         <v>3</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="8">
         <v>1</v>
       </c>
-      <c r="M35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N35" s="4"/>
+      <c r="M35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="16" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="36" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="9">
-        <v>43801</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K36" s="8">
-        <v>3</v>
-      </c>
-      <c r="L36" s="8">
+      <c r="A36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M36" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N36" s="16" t="s">
-        <v>119</v>
-      </c>
+      <c r="C36" s="7">
+        <v>43805</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="4">
+        <v>3</v>
+      </c>
+      <c r="L36" s="4">
+        <v>1</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="4"/>
     </row>
     <row r="37" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="9">
+        <v>43806</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="8">
+        <v>3</v>
+      </c>
+      <c r="L37" s="8">
         <v>1</v>
       </c>
-      <c r="C37" s="7">
-        <v>43805</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="4">
-        <v>3</v>
-      </c>
-      <c r="L37" s="4">
-        <v>1</v>
-      </c>
-      <c r="M37" s="4" t="s">
+      <c r="M37" s="8" t="s">
         <v>23</v>
       </c>
       <c r="N37" s="4"/>
     </row>
     <row r="38" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C38" s="9">
         <v>43806</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>20</v>
@@ -2876,35 +2879,37 @@
       <c r="M38" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N38" s="4"/>
+      <c r="N38" s="16" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="39" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C39" s="9">
-        <v>43806</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>2</v>
+        <v>43812</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>23</v>
@@ -2913,65 +2918,65 @@
         <v>3</v>
       </c>
       <c r="L39" s="8">
+        <v>0</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="7">
+        <v>43814</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="4">
+        <v>3</v>
+      </c>
+      <c r="L40" s="4">
         <v>1</v>
       </c>
-      <c r="M39" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N39" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="9">
-        <v>43812</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="8">
-        <v>3</v>
-      </c>
-      <c r="L40" s="8">
-        <v>0</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N40" s="16" t="s">
-        <v>149</v>
+      <c r="M40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C41" s="7">
         <v>43814</v>
@@ -2980,7 +2985,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>20</v>
@@ -2989,10 +2994,10 @@
         <v>20</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>23</v>
@@ -3006,58 +3011,56 @@
       <c r="M41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N41" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="N41" s="4"/>
     </row>
     <row r="42" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="7">
+      <c r="A42" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="9">
         <v>43814</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K42" s="4">
-        <v>3</v>
-      </c>
-      <c r="L42" s="4">
-        <v>1</v>
-      </c>
-      <c r="M42" s="4" t="s">
+      <c r="D42" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="8">
+        <v>3</v>
+      </c>
+      <c r="L42" s="8">
+        <v>0</v>
+      </c>
+      <c r="M42" s="8" t="s">
         <v>23</v>
       </c>
       <c r="N42" s="4"/>
     </row>
     <row r="43" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C43" s="7">
         <v>43815</v>
@@ -3095,53 +3098,53 @@
       <c r="N43" s="4"/>
     </row>
     <row r="44" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="4" t="s">
+      <c r="A44" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="41">
         <v>43834</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="4" t="s">
+      <c r="D44" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="J44" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="4">
-        <v>3</v>
-      </c>
-      <c r="L44" s="4">
+      <c r="J44" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="40">
+        <v>3</v>
+      </c>
+      <c r="L44" s="40">
         <v>0</v>
       </c>
-      <c r="M44" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N44" s="4"/>
+      <c r="M44" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" s="40"/>
     </row>
     <row r="45" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C45" s="9">
         <v>43836</v>
@@ -3180,10 +3183,10 @@
     </row>
     <row r="46" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C46" s="7">
         <v>43847</v>
@@ -3192,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>20</v>
@@ -3222,10 +3225,10 @@
     </row>
     <row r="47" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C47" s="7">
         <v>44043</v>
@@ -3264,10 +3267,10 @@
     </row>
     <row r="48" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="7">
         <v>44044</v>
@@ -3285,7 +3288,7 @@
         <v>20</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>20</v>
@@ -3385,7 +3388,7 @@
         <v>20</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3393,12 +3396,12 @@
     <sortCondition ref="C2:C50"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D20" r:id="rId1" display="https://recruit.ucdavis.edu/JPF02950" xr:uid="{83E02472-223D-514A-82F7-94F8C5C76C6F}"/>
-    <hyperlink ref="D28" r:id="rId2" xr:uid="{A94B9440-F8F2-1D40-B6F8-BDDE35FB8D62}"/>
-    <hyperlink ref="D33" r:id="rId3" xr:uid="{4B367342-2FC3-E140-A9EC-CB0227AE528A}"/>
-    <hyperlink ref="D17" r:id="rId4" display="https://www.vacancies.ed.ac.uk/pls/corehrrecruit/erq_jobspec_version_4.jobspec?p_id=050154" xr:uid="{200AE473-7A60-B148-BA2A-18A77C170360}"/>
-    <hyperlink ref="D18" r:id="rId5" display="https://www.recruit.ox.ac.uk/pls/hrisliverecruit/erq_jobspec_version_4.jobspec?p_id=143481" xr:uid="{07A2CD43-8F6C-854C-9BA5-EE4023673833}"/>
-    <hyperlink ref="D40" r:id="rId6" xr:uid="{155296AC-9F8B-B042-9832-B901625AED63}"/>
+    <hyperlink ref="D19" r:id="rId1" display="https://recruit.ucdavis.edu/JPF02950" xr:uid="{83E02472-223D-514A-82F7-94F8C5C76C6F}"/>
+    <hyperlink ref="D27" r:id="rId2" xr:uid="{A94B9440-F8F2-1D40-B6F8-BDDE35FB8D62}"/>
+    <hyperlink ref="D32" r:id="rId3" xr:uid="{4B367342-2FC3-E140-A9EC-CB0227AE528A}"/>
+    <hyperlink ref="D16" r:id="rId4" display="https://www.vacancies.ed.ac.uk/pls/corehrrecruit/erq_jobspec_version_4.jobspec?p_id=050154" xr:uid="{200AE473-7A60-B148-BA2A-18A77C170360}"/>
+    <hyperlink ref="D17" r:id="rId5" display="https://www.recruit.ox.ac.uk/pls/hrisliverecruit/erq_jobspec_version_4.jobspec?p_id=143481" xr:uid="{07A2CD43-8F6C-854C-9BA5-EE4023673833}"/>
+    <hyperlink ref="D39" r:id="rId6" xr:uid="{155296AC-9F8B-B042-9832-B901625AED63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3410,7 +3413,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3423,33 +3426,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>83</v>
-      </c>
       <c r="C1" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D1" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="H1" s="25" t="s">
         <v>153</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>2</v>
@@ -3458,279 +3461,279 @@
         <v>43770</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="28">
         <v>43770</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C4" s="29">
         <v>43789</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C5" s="29">
         <v>43789</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C6" s="29">
         <v>43799</v>
       </c>
       <c r="D6" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="37" t="s">
-        <v>164</v>
-      </c>
       <c r="F6" s="32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="C7" s="28">
         <v>43800</v>
       </c>
       <c r="D7" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="37" t="s">
-        <v>164</v>
-      </c>
       <c r="F7" s="32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C8" s="29">
         <v>43800</v>
       </c>
       <c r="D8" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>164</v>
+      <c r="H8" s="32" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="C9" s="29">
         <v>43800</v>
       </c>
       <c r="D9" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>164</v>
-      </c>
       <c r="H9" s="32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C10" s="29">
         <v>43800</v>
       </c>
       <c r="D10" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>164</v>
-      </c>
       <c r="H10" s="32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" s="28">
         <v>43800</v>
       </c>
       <c r="D11" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>164</v>
-      </c>
       <c r="H11" s="32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C12" s="29">
         <v>43812</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Postdocs19.xlsx
+++ b/Postdocs19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DJBruce/Application-Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14349B1-49D4-3243-916F-280B9C1575B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D890392B-C202-5040-9B5D-B8D80028273C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" activeTab="1" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="175">
   <si>
     <t xml:space="preserve">Arizona State University </t>
   </si>
@@ -499,24 +499,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Upload 9/30/19</t>
-  </si>
-  <si>
-    <t>Upload 10/14/19</t>
-  </si>
-  <si>
-    <t>Upload 9/24/19</t>
-  </si>
-  <si>
-    <t>Upload 10/22/19</t>
-  </si>
-  <si>
-    <t>Upload 10/21/19</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Requested 10/21/19</t>
   </si>
   <si>
@@ -551,6 +533,30 @@
   </si>
   <si>
     <t>Tufts-NWAPALGEBRA</t>
+  </si>
+  <si>
+    <t>Uploaded 10/28/19</t>
+  </si>
+  <si>
+    <t>Uploaded 10/14/19</t>
+  </si>
+  <si>
+    <t>Uploaded 9/30/19</t>
+  </si>
+  <si>
+    <t>Uploaded 10/22/19</t>
+  </si>
+  <si>
+    <t>Uploaded 10/21/19</t>
+  </si>
+  <si>
+    <t>Uploaded 9/24/19</t>
+  </si>
+  <si>
+    <t>Stanford-MMPOSTDOC</t>
+  </si>
+  <si>
+    <t>Uploaded 10/30/19</t>
   </si>
 </sst>
 </file>
@@ -765,7 +771,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -833,9 +839,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -874,9 +877,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1238,11 +1238,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C862073-6331-234F-B2D0-82C360D0D85F}">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1299,90 +1299,90 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="70" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="43">
         <v>43770</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="44" t="s">
+      <c r="D2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="44" t="s">
+      <c r="J2" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="44">
+      <c r="L2" s="42">
         <v>1</v>
       </c>
-      <c r="M2" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="44" t="s">
+      <c r="M2" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="42" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="39">
         <v>43770</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="40" t="s">
+      <c r="D3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="40" t="s">
+      <c r="J3" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="40">
+      <c r="L3" s="38">
         <v>1</v>
       </c>
-      <c r="M3" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="40" t="s">
+      <c r="M3" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="38" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1427,222 +1427,222 @@
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="39">
         <v>43770</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="40">
-        <v>3</v>
-      </c>
-      <c r="L5" s="40" t="s">
+      <c r="D5" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="38">
+        <v>3</v>
+      </c>
+      <c r="L5" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="40"/>
+      <c r="M5" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="38"/>
     </row>
     <row r="6" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="46">
         <v>43770</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="40">
-        <v>3</v>
-      </c>
-      <c r="L6" s="40" t="s">
+      <c r="D6" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="38">
+        <v>3</v>
+      </c>
+      <c r="L6" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="49" t="s">
+      <c r="M6" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="47" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="46">
         <v>43770</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="40" t="s">
+      <c r="D7" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="40">
-        <v>3</v>
-      </c>
-      <c r="L7" s="51">
+      <c r="J7" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="38">
+        <v>3</v>
+      </c>
+      <c r="L7" s="49">
         <v>1</v>
       </c>
-      <c r="M7" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="40"/>
+      <c r="M7" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="38"/>
     </row>
     <row r="8" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="46">
         <v>43770</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="40">
-        <v>3</v>
-      </c>
-      <c r="L8" s="40" t="s">
+      <c r="D8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="38">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="40"/>
+      <c r="M8" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="38"/>
     </row>
     <row r="9" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="46">
         <v>43770</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="40">
-        <v>3</v>
-      </c>
-      <c r="L9" s="40">
+      <c r="D9" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="38">
+        <v>3</v>
+      </c>
+      <c r="L9" s="38">
         <v>1</v>
       </c>
-      <c r="M9" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="49" t="s">
+      <c r="M9" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="47" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>154</v>
@@ -1651,7 +1651,7 @@
         <v>43770</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>20</v>
@@ -1660,16 +1660,16 @@
         <v>23</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K10" s="8">
         <v>3</v>
@@ -1680,135 +1680,135 @@
       <c r="M10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="39" t="s">
-        <v>168</v>
+      <c r="N10" s="37" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="39">
         <v>43773</v>
       </c>
-      <c r="D11" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="40">
-        <v>3</v>
-      </c>
-      <c r="L11" s="40">
+      <c r="D11" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="38">
+        <v>3</v>
+      </c>
+      <c r="L11" s="38">
         <v>1</v>
       </c>
-      <c r="M11" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="40"/>
+      <c r="M11" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="38"/>
     </row>
     <row r="12" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="39">
         <v>43784</v>
       </c>
-      <c r="D12" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="40">
-        <v>3</v>
-      </c>
-      <c r="L12" s="40">
+      <c r="D12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="38">
+        <v>3</v>
+      </c>
+      <c r="L12" s="38">
         <v>1</v>
       </c>
-      <c r="M12" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="40"/>
+      <c r="M12" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="38"/>
     </row>
     <row r="13" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="46">
         <v>43784</v>
       </c>
-      <c r="D13" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="40">
-        <v>3</v>
-      </c>
-      <c r="L13" s="40">
+      <c r="D13" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="38">
+        <v>3</v>
+      </c>
+      <c r="L13" s="38">
         <v>1</v>
       </c>
-      <c r="M13" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="49" t="s">
+      <c r="M13" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="47" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2115,42 +2115,42 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="39">
         <v>43800</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40" t="s">
+      <c r="E21" s="41"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="40" t="s">
+      <c r="H21" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="L21" s="40">
+      <c r="L21" s="38">
         <v>0</v>
       </c>
-      <c r="M21" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="N21" s="40" t="s">
+      <c r="M21" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="38" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2671,15 +2671,15 @@
     </row>
     <row r="34" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>106</v>
+        <v>85</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="C34" s="9">
-        <v>43801</v>
-      </c>
-      <c r="D34" s="15" t="s">
+        <v>43800</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E34" s="11" t="s">
@@ -2703,25 +2703,25 @@
       <c r="K34" s="8">
         <v>3</v>
       </c>
-      <c r="L34" s="12">
-        <v>1</v>
-      </c>
-      <c r="M34" s="4" t="s">
+      <c r="L34" s="8">
+        <v>0</v>
+      </c>
+      <c r="M34" s="8" t="s">
         <v>23</v>
       </c>
       <c r="N34" s="4"/>
     </row>
     <row r="35" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C35" s="9">
         <v>43801</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="11" t="s">
@@ -2745,96 +2745,96 @@
       <c r="K35" s="8">
         <v>3</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L35" s="12">
         <v>1</v>
       </c>
-      <c r="M35" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N35" s="16" t="s">
+      <c r="M35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="9">
+        <v>43801</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="8">
+        <v>3</v>
+      </c>
+      <c r="L36" s="8">
+        <v>1</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C37" s="7">
         <v>43805</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="D37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="4">
-        <v>3</v>
-      </c>
-      <c r="L36" s="4">
+      <c r="H37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="4">
+        <v>3</v>
+      </c>
+      <c r="L37" s="4">
         <v>1</v>
       </c>
-      <c r="M36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="9">
-        <v>43806</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" s="8">
-        <v>3</v>
-      </c>
-      <c r="L37" s="8">
-        <v>1</v>
-      </c>
-      <c r="M37" s="8" t="s">
+      <c r="M37" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N37" s="4"/>
@@ -2844,16 +2844,16 @@
         <v>123</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C38" s="9">
         <v>43806</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>20</v>
@@ -2879,104 +2879,102 @@
       <c r="M38" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N38" s="16" t="s">
-        <v>148</v>
-      </c>
+      <c r="N38" s="4"/>
     </row>
     <row r="39" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="9">
+        <v>43806</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="8">
+        <v>3</v>
+      </c>
+      <c r="L39" s="8">
+        <v>1</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B40" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C40" s="9">
         <v>43812</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="8" t="s">
+      <c r="E40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I40" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="J39" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" s="8">
-        <v>3</v>
-      </c>
-      <c r="L39" s="8">
+      <c r="J40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="8">
+        <v>3</v>
+      </c>
+      <c r="L40" s="8">
         <v>0</v>
       </c>
-      <c r="M39" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N39" s="16" t="s">
+      <c r="M40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="16" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="7">
-        <v>43814</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="4">
-        <v>3</v>
-      </c>
-      <c r="L40" s="4">
-        <v>1</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C41" s="7">
         <v>43814</v>
@@ -2985,7 +2983,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>20</v>
@@ -2994,10 +2992,10 @@
         <v>20</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>23</v>
@@ -3011,233 +3009,235 @@
       <c r="M41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N41" s="4"/>
+      <c r="N41" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="42" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C42" s="9">
+      <c r="A42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="7">
         <v>43814</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K42" s="8">
-        <v>3</v>
-      </c>
-      <c r="L42" s="8">
+      <c r="D42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="4">
+        <v>3</v>
+      </c>
+      <c r="L42" s="4">
+        <v>1</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="9">
+        <v>43814</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" s="8">
+        <v>3</v>
+      </c>
+      <c r="L43" s="8">
         <v>0</v>
       </c>
-      <c r="M42" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N42" s="4"/>
-    </row>
-    <row r="43" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+      <c r="M43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C44" s="7">
         <v>43815</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K43" s="4">
-        <v>3</v>
-      </c>
-      <c r="L43" s="4">
+      <c r="D44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="4">
+        <v>3</v>
+      </c>
+      <c r="L44" s="4">
         <v>1</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N43" s="4"/>
-    </row>
-    <row r="44" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="40" t="s">
+      <c r="M44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C45" s="39">
         <v>43834</v>
       </c>
-      <c r="D44" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="40" t="s">
+      <c r="D45" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J44" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="40">
-        <v>3</v>
-      </c>
-      <c r="L44" s="40">
+      <c r="J45" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="38">
+        <v>3</v>
+      </c>
+      <c r="L45" s="38">
         <v>0</v>
       </c>
-      <c r="M44" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="N44" s="40"/>
-    </row>
-    <row r="45" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="M45" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="38"/>
+    </row>
+    <row r="46" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C46" s="9">
         <v>43836</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" s="8">
-        <v>3</v>
-      </c>
-      <c r="L45" s="8">
+      <c r="D46" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="8">
+        <v>3</v>
+      </c>
+      <c r="L46" s="8">
         <v>1</v>
       </c>
-      <c r="M45" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N45" s="4"/>
-    </row>
-    <row r="46" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="7">
-        <v>43847</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K46" s="4">
-        <v>3</v>
-      </c>
-      <c r="L46" s="4">
-        <v>1</v>
-      </c>
-      <c r="M46" s="4" t="s">
+      <c r="M46" s="8" t="s">
         <v>23</v>
       </c>
       <c r="N46" s="4"/>
     </row>
     <row r="47" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C47" s="7">
-        <v>44043</v>
+        <v>43847</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>20</v>
@@ -3249,7 +3249,7 @@
         <v>20</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>23</v>
@@ -3267,13 +3267,13 @@
     </row>
     <row r="48" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C48" s="7">
-        <v>44044</v>
+        <v>44043</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>2</v>
@@ -3282,13 +3282,13 @@
         <v>20</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>20</v>
@@ -3299,8 +3299,8 @@
       <c r="K48" s="4">
         <v>3</v>
       </c>
-      <c r="L48" s="4" t="s">
-        <v>27</v>
+      <c r="L48" s="4">
+        <v>1</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>23</v>
@@ -3309,13 +3309,13 @@
     </row>
     <row r="49" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>5</v>
+        <v>34</v>
+      </c>
+      <c r="C49" s="7">
+        <v>44044</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>2</v>
@@ -3330,19 +3330,19 @@
         <v>20</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K49" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L49" s="4">
-        <v>1</v>
+      <c r="K49" s="4">
+        <v>3</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>23</v>
@@ -3351,12 +3351,14 @@
     </row>
     <row r="50" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D50" s="5" t="s">
         <v>2</v>
       </c>
@@ -3364,7 +3366,7 @@
         <v>20</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>20</v>
@@ -3373,27 +3375,67 @@
         <v>20</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K50" s="4">
-        <v>3</v>
+      <c r="K50" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="L50" s="4">
         <v>1</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K51" s="4">
+        <v>3</v>
+      </c>
+      <c r="L51" s="4">
+        <v>1</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="4" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N50">
-    <sortCondition ref="C2:C50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N51">
+    <sortCondition ref="C2:C51"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" display="https://recruit.ucdavis.edu/JPF02950" xr:uid="{83E02472-223D-514A-82F7-94F8C5C76C6F}"/>
@@ -3401,7 +3443,7 @@
     <hyperlink ref="D32" r:id="rId3" xr:uid="{4B367342-2FC3-E140-A9EC-CB0227AE528A}"/>
     <hyperlink ref="D16" r:id="rId4" display="https://www.vacancies.ed.ac.uk/pls/corehrrecruit/erq_jobspec_version_4.jobspec?p_id=050154" xr:uid="{200AE473-7A60-B148-BA2A-18A77C170360}"/>
     <hyperlink ref="D17" r:id="rId5" display="https://www.recruit.ox.ac.uk/pls/hrisliverecruit/erq_jobspec_version_4.jobspec?p_id=143481" xr:uid="{07A2CD43-8F6C-854C-9BA5-EE4023673833}"/>
-    <hyperlink ref="D39" r:id="rId6" xr:uid="{155296AC-9F8B-B042-9832-B901625AED63}"/>
+    <hyperlink ref="D40" r:id="rId6" xr:uid="{155296AC-9F8B-B042-9832-B901625AED63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3411,16 +3453,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E1F877-7631-084F-B95D-E28DC512FF41}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="30"/>
+    <col min="3" max="3" width="10.83203125" style="29"/>
     <col min="4" max="8" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3434,46 +3476,46 @@
       <c r="C1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="27">
+      <c r="B2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="26">
         <v>43770</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>170</v>
+      <c r="D2" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -3483,22 +3525,22 @@
       <c r="B3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="27">
         <v>43770</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="H3" s="32" t="s">
+      <c r="D3" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="31" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3509,22 +3551,22 @@
       <c r="B4" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>43789</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" s="32" t="s">
+      <c r="D4" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="H4" s="32" t="s">
+      <c r="G4" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="31" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3535,22 +3577,22 @@
       <c r="B5" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>43789</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="32" t="s">
+      <c r="D5" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="G5" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="H5" s="32" t="s">
+      <c r="G5" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="31" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3561,23 +3603,23 @@
       <c r="B6" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>43799</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="H6" s="32" t="s">
+      <c r="D6" s="30" t="s">
         <v>170</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -3587,22 +3629,22 @@
       <c r="B7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <v>43800</v>
       </c>
-      <c r="D7" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="H7" s="32" t="s">
+      <c r="D7" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="31" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3613,23 +3655,23 @@
       <c r="B8" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <v>43800</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="32" t="s">
+      <c r="D8" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>170</v>
+      <c r="F8" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -3639,22 +3681,22 @@
       <c r="B9" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <v>43800</v>
       </c>
-      <c r="D9" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="32" t="s">
+      <c r="D9" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="F9" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="H9" s="32" t="s">
+      <c r="F9" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="31" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3665,22 +3707,22 @@
       <c r="B10" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <v>43800</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="32" t="s">
+      <c r="D10" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="H10" s="32" t="s">
+      <c r="F10" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="31" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3691,22 +3733,22 @@
       <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="27">
         <v>43800</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="32" t="s">
+      <c r="D11" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="G11" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="H11" s="32" t="s">
+      <c r="G11" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="31" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3717,22 +3759,22 @@
       <c r="B12" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <v>43812</v>
       </c>
-      <c r="D12" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="E12" s="32" t="s">
+      <c r="D12" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="F12" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="H12" s="32" t="s">
+      <c r="F12" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="31" t="s">
         <v>154</v>
       </c>
     </row>

--- a/Postdocs19.xlsx
+++ b/Postdocs19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DJBruce/Application-Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D890392B-C202-5040-9B5D-B8D80028273C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFA2410-0C26-5047-955A-3E0C6EB9C848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" activeTab="1" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -879,9 +879,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -917,6 +914,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1240,9 +1240,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C862073-6331-234F-B2D0-82C360D0D85F}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1299,90 +1299,90 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="70" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="42">
         <v>43770</v>
       </c>
-      <c r="D2" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="42" t="s">
+      <c r="D2" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="42" t="s">
+      <c r="J2" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="42">
+      <c r="L2" s="41">
         <v>1</v>
       </c>
-      <c r="M2" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="42" t="s">
+      <c r="M2" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="38">
         <v>43770</v>
       </c>
-      <c r="D3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="38" t="s">
+      <c r="D3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="38" t="s">
+      <c r="J3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="38">
+      <c r="L3" s="37">
         <v>1</v>
       </c>
-      <c r="M3" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="38" t="s">
+      <c r="M3" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="37" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1427,388 +1427,388 @@
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="38">
         <v>43770</v>
       </c>
-      <c r="D5" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="38">
-        <v>3</v>
-      </c>
-      <c r="L5" s="38" t="s">
+      <c r="D5" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="37">
+        <v>3</v>
+      </c>
+      <c r="L5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="38"/>
+      <c r="M5" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="37"/>
     </row>
     <row r="6" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="45">
         <v>43770</v>
       </c>
-      <c r="D6" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="38">
-        <v>3</v>
-      </c>
-      <c r="L6" s="38" t="s">
+      <c r="D6" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="37">
+        <v>3</v>
+      </c>
+      <c r="L6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="47" t="s">
+      <c r="M6" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="46" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="45">
         <v>43770</v>
       </c>
-      <c r="D7" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="38" t="s">
+      <c r="D7" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="38">
-        <v>3</v>
-      </c>
-      <c r="L7" s="49">
+      <c r="J7" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="37">
+        <v>3</v>
+      </c>
+      <c r="L7" s="48">
         <v>1</v>
       </c>
-      <c r="M7" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="38"/>
+      <c r="M7" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="45">
         <v>43770</v>
       </c>
-      <c r="D8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="38">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
+      <c r="D8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="37">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="38"/>
+      <c r="M8" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="45">
         <v>43770</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="38">
-        <v>3</v>
-      </c>
-      <c r="L9" s="38">
+      <c r="D9" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="37">
+        <v>3</v>
+      </c>
+      <c r="L9" s="37">
         <v>1</v>
       </c>
-      <c r="M9" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="47" t="s">
+      <c r="M9" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="46" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="45">
         <v>43770</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="E10" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="8" t="s">
+      <c r="I10" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="K10" s="8">
-        <v>3</v>
-      </c>
-      <c r="L10" s="8">
+      <c r="K10" s="37">
+        <v>3</v>
+      </c>
+      <c r="L10" s="37">
         <v>0</v>
       </c>
-      <c r="M10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="37" t="s">
+      <c r="M10" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="49" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="38">
         <v>43773</v>
       </c>
-      <c r="D11" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="38">
-        <v>3</v>
-      </c>
-      <c r="L11" s="38">
+      <c r="D11" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="37">
+        <v>3</v>
+      </c>
+      <c r="L11" s="37">
         <v>1</v>
       </c>
-      <c r="M11" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="38"/>
+      <c r="M11" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="38">
         <v>43784</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="38">
-        <v>3</v>
-      </c>
-      <c r="L12" s="38">
+      <c r="D12" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="37">
+        <v>3</v>
+      </c>
+      <c r="L12" s="37">
         <v>1</v>
       </c>
-      <c r="M12" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="38"/>
+      <c r="M12" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="37"/>
     </row>
     <row r="13" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="45">
         <v>43784</v>
       </c>
-      <c r="D13" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="38">
-        <v>3</v>
-      </c>
-      <c r="L13" s="38">
+      <c r="D13" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="37">
+        <v>3</v>
+      </c>
+      <c r="L13" s="37">
         <v>1</v>
       </c>
-      <c r="M13" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="47" t="s">
+      <c r="M13" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="46" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2115,42 +2115,42 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="38">
         <v>43800</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38" t="s">
+      <c r="E21" s="40"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="38" t="s">
+      <c r="H21" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="37">
         <v>0</v>
       </c>
-      <c r="M21" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="N21" s="38" t="s">
+      <c r="M21" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="37" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3140,46 +3140,46 @@
       <c r="N44" s="4"/>
     </row>
     <row r="45" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="38" t="s">
+      <c r="A45" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="39">
+      <c r="C45" s="38">
         <v>43834</v>
       </c>
-      <c r="D45" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="38" t="s">
+      <c r="D45" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="J45" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" s="38">
-        <v>3</v>
-      </c>
-      <c r="L45" s="38">
+      <c r="J45" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="37">
+        <v>3</v>
+      </c>
+      <c r="L45" s="37">
         <v>0</v>
       </c>
-      <c r="M45" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="N45" s="38"/>
+      <c r="M45" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="37"/>
     </row>
     <row r="46" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
@@ -3453,7 +3453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E1F877-7631-084F-B95D-E28DC512FF41}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>

--- a/Postdocs19.xlsx
+++ b/Postdocs19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DJBruce/Application-Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFA2410-0C26-5047-955A-3E0C6EB9C848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B83133A-A73D-8E40-B2F9-F8186016622C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
@@ -771,7 +771,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -917,6 +917,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1241,8 +1244,8 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:N10"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1813,90 +1816,90 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="45">
         <v>43784</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="8">
-        <v>3</v>
-      </c>
-      <c r="L14" s="8">
+      <c r="D14" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="37">
+        <v>3</v>
+      </c>
+      <c r="L14" s="37">
         <v>1</v>
       </c>
-      <c r="M14" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="16" t="s">
+      <c r="M14" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="46" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="38">
         <v>43787</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="4">
-        <v>2</v>
-      </c>
-      <c r="L15" s="4">
+      <c r="D15" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="37">
+        <v>2</v>
+      </c>
+      <c r="L15" s="37">
         <v>1</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="4"/>
+      <c r="M15" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="37"/>
     </row>
     <row r="16" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
@@ -2029,88 +2032,88 @@
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="45">
         <v>43799</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="22">
+      <c r="E19" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="37">
         <v>4</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="37">
         <v>1</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" s="4"/>
+      <c r="M19" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="37"/>
     </row>
     <row r="20" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="38">
         <v>43800</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="4" t="s">
+      <c r="D20" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" s="4" t="s">
+      <c r="M20" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="37" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2155,46 +2158,46 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="38">
         <v>43800</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="4">
-        <v>3</v>
-      </c>
-      <c r="L22" s="4">
+      <c r="D22" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="37">
+        <v>3</v>
+      </c>
+      <c r="L22" s="37">
         <v>1</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22" s="4"/>
+      <c r="M22" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="37"/>
     </row>
     <row r="23" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
@@ -2410,46 +2413,46 @@
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="45">
         <v>43800</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="8" t="s">
+      <c r="D28" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="J28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="8">
-        <v>3</v>
-      </c>
-      <c r="L28" s="8" t="s">
+      <c r="J28" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="37">
+        <v>3</v>
+      </c>
+      <c r="L28" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M28" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N28" s="4"/>
+      <c r="M28" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="37"/>
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">

--- a/Postdocs19.xlsx
+++ b/Postdocs19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DJBruce/Application-Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B83133A-A73D-8E40-B2F9-F8186016622C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920BDDE6-073A-764C-9103-99E54F7F46AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
@@ -594,18 +594,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -771,7 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -830,95 +824,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1244,8 +1235,8 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1302,90 +1293,90 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="70" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="40">
         <v>43770</v>
       </c>
-      <c r="D2" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="41" t="s">
+      <c r="D2" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="41" t="s">
+      <c r="J2" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="41">
+      <c r="L2" s="39">
         <v>1</v>
       </c>
-      <c r="M2" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="41" t="s">
+      <c r="M2" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="36">
         <v>43770</v>
       </c>
-      <c r="D3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="37" t="s">
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="37" t="s">
+      <c r="J3" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="37">
+      <c r="L3" s="35">
         <v>1</v>
       </c>
-      <c r="M3" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="37" t="s">
+      <c r="M3" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="35" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1430,476 +1421,476 @@
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="36">
         <v>43770</v>
       </c>
-      <c r="D5" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="37">
-        <v>3</v>
-      </c>
-      <c r="L5" s="37" t="s">
+      <c r="D5" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="35">
+        <v>3</v>
+      </c>
+      <c r="L5" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="37"/>
+      <c r="M5" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="35"/>
     </row>
     <row r="6" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="43">
         <v>43770</v>
       </c>
-      <c r="D6" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="37">
-        <v>3</v>
-      </c>
-      <c r="L6" s="37" t="s">
+      <c r="D6" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="35">
+        <v>3</v>
+      </c>
+      <c r="L6" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="46" t="s">
+      <c r="M6" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="44" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="43">
         <v>43770</v>
       </c>
-      <c r="D7" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="37" t="s">
+      <c r="D7" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="37">
-        <v>3</v>
-      </c>
-      <c r="L7" s="48">
+      <c r="J7" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="35">
+        <v>3</v>
+      </c>
+      <c r="L7" s="46">
         <v>1</v>
       </c>
-      <c r="M7" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="37"/>
+      <c r="M7" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="35"/>
     </row>
     <row r="8" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="43">
         <v>43770</v>
       </c>
-      <c r="D8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="37">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37" t="s">
+      <c r="D8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="35">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="37"/>
+      <c r="M8" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="35"/>
     </row>
     <row r="9" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="43">
         <v>43770</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="37">
-        <v>3</v>
-      </c>
-      <c r="L9" s="37">
+      <c r="D9" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="35">
+        <v>3</v>
+      </c>
+      <c r="L9" s="35">
         <v>1</v>
       </c>
-      <c r="M9" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="46" t="s">
+      <c r="M9" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="44" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="43">
         <v>43770</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="37" t="s">
+      <c r="E10" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="I10" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="37" t="s">
+      <c r="I10" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="K10" s="37">
-        <v>3</v>
-      </c>
-      <c r="L10" s="37">
+      <c r="K10" s="35">
+        <v>3</v>
+      </c>
+      <c r="L10" s="35">
         <v>0</v>
       </c>
-      <c r="M10" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="49" t="s">
+      <c r="M10" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="47" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="36">
         <v>43773</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="37">
-        <v>3</v>
-      </c>
-      <c r="L11" s="37">
+      <c r="D11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="35">
+        <v>3</v>
+      </c>
+      <c r="L11" s="35">
         <v>1</v>
       </c>
-      <c r="M11" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="37"/>
+      <c r="M11" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="35"/>
     </row>
     <row r="12" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="36">
         <v>43784</v>
       </c>
-      <c r="D12" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="37">
-        <v>3</v>
-      </c>
-      <c r="L12" s="37">
+      <c r="D12" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="35">
+        <v>3</v>
+      </c>
+      <c r="L12" s="35">
         <v>1</v>
       </c>
-      <c r="M12" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="37"/>
+      <c r="M12" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="35"/>
     </row>
     <row r="13" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="43">
         <v>43784</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="37">
-        <v>3</v>
-      </c>
-      <c r="L13" s="37">
+      <c r="D13" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="35">
+        <v>3</v>
+      </c>
+      <c r="L13" s="35">
         <v>1</v>
       </c>
-      <c r="M13" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="46" t="s">
+      <c r="M13" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="44" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="43">
         <v>43784</v>
       </c>
-      <c r="D14" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="37">
-        <v>3</v>
-      </c>
-      <c r="L14" s="37">
+      <c r="D14" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="35">
+        <v>3</v>
+      </c>
+      <c r="L14" s="35">
         <v>1</v>
       </c>
-      <c r="M14" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="46" t="s">
+      <c r="M14" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="44" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="36">
         <v>43787</v>
       </c>
-      <c r="D15" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="37">
-        <v>2</v>
-      </c>
-      <c r="L15" s="37">
+      <c r="D15" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="35">
+        <v>2</v>
+      </c>
+      <c r="L15" s="35">
         <v>1</v>
       </c>
-      <c r="M15" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="37"/>
+      <c r="M15" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="35"/>
     </row>
     <row r="16" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
@@ -1938,7 +1929,7 @@
       <c r="L16" s="8">
         <v>0</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="M16" s="20" t="s">
         <v>23</v>
       </c>
       <c r="N16" s="16" t="s">
@@ -1982,7 +1973,7 @@
       <c r="L17" s="8">
         <v>0</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="20" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="16" t="s">
@@ -2032,599 +2023,599 @@
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="43">
         <v>43799</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="37">
+      <c r="E19" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="35">
         <v>4</v>
       </c>
-      <c r="L19" s="37">
+      <c r="L19" s="35">
         <v>1</v>
       </c>
-      <c r="M19" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" s="37"/>
+      <c r="M19" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="35"/>
     </row>
     <row r="20" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="36">
         <v>43800</v>
       </c>
-      <c r="D20" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="37" t="s">
+      <c r="D20" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="37" t="s">
+      <c r="L20" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" s="37" t="s">
+      <c r="M20" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="35" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="36">
         <v>43800</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37" t="s">
+      <c r="E21" s="38"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="37" t="s">
+      <c r="H21" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="L21" s="37">
+      <c r="L21" s="35">
         <v>0</v>
       </c>
-      <c r="M21" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N21" s="37" t="s">
+      <c r="M21" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="35" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="36">
         <v>43800</v>
       </c>
-      <c r="D22" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="37">
-        <v>3</v>
-      </c>
-      <c r="L22" s="37">
+      <c r="D22" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="35">
+        <v>3</v>
+      </c>
+      <c r="L22" s="35">
         <v>1</v>
       </c>
-      <c r="M22" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22" s="37"/>
+      <c r="M22" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="35"/>
     </row>
     <row r="23" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="36">
         <v>43800</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="D23" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="4" t="s">
+      <c r="H23" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="4">
-        <v>3</v>
-      </c>
-      <c r="L23" s="4">
+      <c r="J23" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="35">
+        <v>3</v>
+      </c>
+      <c r="L23" s="35">
         <v>1</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N23" s="4"/>
+      <c r="M23" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="35"/>
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="36">
         <v>43800</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="4" t="s">
+      <c r="D24" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="4">
-        <v>3</v>
-      </c>
-      <c r="L24" s="4">
+      <c r="J24" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="35">
+        <v>3</v>
+      </c>
+      <c r="L24" s="35">
         <v>1</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N24" s="4"/>
+      <c r="M24" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="35"/>
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="43">
         <v>43800</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="8" t="s">
+      <c r="D25" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="8">
-        <v>3</v>
-      </c>
-      <c r="L25" s="8">
+      <c r="J25" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="35">
+        <v>3</v>
+      </c>
+      <c r="L25" s="35">
         <v>1</v>
       </c>
-      <c r="M25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N25" s="4"/>
+      <c r="M25" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="35"/>
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="43">
         <v>43800</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="22">
-        <v>3</v>
-      </c>
-      <c r="L26" s="22">
+      <c r="E26" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="35">
+        <v>3</v>
+      </c>
+      <c r="L26" s="35">
         <v>1</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N26" s="4"/>
+      <c r="M26" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="35"/>
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="43">
         <v>43800</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22">
+      <c r="E27" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35">
         <v>0</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N27" s="4"/>
+      <c r="M27" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="35"/>
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="43">
         <v>43800</v>
       </c>
-      <c r="D28" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="37" t="s">
+      <c r="D28" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="J28" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="37">
-        <v>3</v>
-      </c>
-      <c r="L28" s="37" t="s">
+      <c r="J28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="35">
+        <v>3</v>
+      </c>
+      <c r="L28" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="M28" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N28" s="37"/>
+      <c r="M28" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="35"/>
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="43">
         <v>43800</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="8">
-        <v>3</v>
-      </c>
-      <c r="L29" s="8">
+      <c r="D29" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="35">
+        <v>3</v>
+      </c>
+      <c r="L29" s="35">
         <v>1</v>
       </c>
-      <c r="M29" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N29" s="4"/>
+      <c r="M29" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="35"/>
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="43">
         <v>43800</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="8">
-        <v>3</v>
-      </c>
-      <c r="L30" s="8">
+      <c r="D30" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="35">
+        <v>3</v>
+      </c>
+      <c r="L30" s="35">
         <v>1</v>
       </c>
-      <c r="M30" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N30" s="4"/>
+      <c r="M30" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="35"/>
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="43">
         <v>43800</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="8">
-        <v>3</v>
-      </c>
-      <c r="L31" s="8">
+      <c r="D31" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="35">
+        <v>3</v>
+      </c>
+      <c r="L31" s="35">
         <v>1</v>
       </c>
-      <c r="M31" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N31" s="4"/>
+      <c r="M31" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="35"/>
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="43">
         <v>43800</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="8" t="s">
+      <c r="E32" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="22">
-        <v>3</v>
-      </c>
-      <c r="L32" s="22">
+      <c r="G32" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="35">
+        <v>3</v>
+      </c>
+      <c r="L32" s="35">
         <v>0</v>
       </c>
-      <c r="M32" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N32" s="4"/>
+      <c r="M32" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="35"/>
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -2673,130 +2664,130 @@
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="43">
         <v>43800</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="8">
-        <v>3</v>
-      </c>
-      <c r="L34" s="8">
+      <c r="D34" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="35">
+        <v>3</v>
+      </c>
+      <c r="L34" s="35">
         <v>0</v>
       </c>
-      <c r="M34" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N34" s="4"/>
+      <c r="M34" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="35"/>
     </row>
     <row r="35" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="43">
         <v>43801</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="8">
-        <v>3</v>
-      </c>
-      <c r="L35" s="12">
+      <c r="D35" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="35">
+        <v>3</v>
+      </c>
+      <c r="L35" s="46">
         <v>1</v>
       </c>
-      <c r="M35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N35" s="4"/>
+      <c r="M35" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="35"/>
     </row>
     <row r="36" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="43">
         <v>43801</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K36" s="8">
-        <v>3</v>
-      </c>
-      <c r="L36" s="8">
+      <c r="D36" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="35">
+        <v>3</v>
+      </c>
+      <c r="L36" s="35">
         <v>1</v>
       </c>
-      <c r="M36" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N36" s="16" t="s">
+      <c r="M36" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="44" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3143,46 +3134,46 @@
       <c r="N44" s="4"/>
     </row>
     <row r="45" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="37" t="s">
+      <c r="A45" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="38">
+      <c r="C45" s="36">
         <v>43834</v>
       </c>
-      <c r="D45" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="37" t="s">
+      <c r="D45" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="J45" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" s="37">
-        <v>3</v>
-      </c>
-      <c r="L45" s="37">
+      <c r="J45" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="35">
+        <v>3</v>
+      </c>
+      <c r="L45" s="35">
         <v>0</v>
       </c>
-      <c r="M45" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="N45" s="37"/>
+      <c r="M45" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="35"/>
     </row>
     <row r="46" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
@@ -3353,46 +3344,46 @@
       <c r="N49" s="4"/>
     </row>
     <row r="50" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="4" t="s">
+      <c r="A50" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K50" s="4" t="s">
+      <c r="D50" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="L50" s="4">
+      <c r="L50" s="35">
         <v>1</v>
       </c>
-      <c r="M50" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N50" s="4"/>
+      <c r="M50" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" s="35"/>
     </row>
     <row r="51" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
@@ -3465,7 +3456,7 @@
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="29"/>
+    <col min="3" max="3" width="10.83203125" style="27"/>
     <col min="4" max="8" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3479,45 +3470,45 @@
       <c r="C1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="22" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="26">
+      <c r="B2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="24">
         <v>43770</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="31" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3528,22 +3519,22 @@
       <c r="B3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="25">
         <v>43770</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="29" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3554,22 +3545,22 @@
       <c r="B4" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <v>43789</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="29" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3580,22 +3571,22 @@
       <c r="B5" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="26">
         <v>43789</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="29" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3606,22 +3597,22 @@
       <c r="B6" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="26">
         <v>43799</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="29" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3632,22 +3623,22 @@
       <c r="B7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="25">
         <v>43800</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="29" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3658,22 +3649,22 @@
       <c r="B8" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="26">
         <v>43800</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="29" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3684,22 +3675,22 @@
       <c r="B9" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="26">
         <v>43800</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="29" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3710,22 +3701,22 @@
       <c r="B10" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="26">
         <v>43800</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="29" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3736,22 +3727,22 @@
       <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="25">
         <v>43800</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="29" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3762,22 +3753,22 @@
       <c r="B12" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="26">
         <v>43812</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="29" t="s">
         <v>154</v>
       </c>
     </row>

--- a/Postdocs19.xlsx
+++ b/Postdocs19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DJBruce/Application-Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920BDDE6-073A-764C-9103-99E54F7F46AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D448D16B-4D7E-6546-9AD1-B4BDC0630BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="193">
   <si>
     <t xml:space="preserve">Arizona State University </t>
   </si>
@@ -557,6 +557,60 @@
   </si>
   <si>
     <t>Uploaded 10/30/19</t>
+  </si>
+  <si>
+    <t>University of Copenhagen</t>
+  </si>
+  <si>
+    <t>821-PD2019</t>
+  </si>
+  <si>
+    <t>MathJobs &amp; Other</t>
+  </si>
+  <si>
+    <t> https://employment.ku.dk/faculty/?show=150409</t>
+  </si>
+  <si>
+    <t>Yale University</t>
+  </si>
+  <si>
+    <t>Yale-GAP</t>
+  </si>
+  <si>
+    <t>Mathjobs</t>
+  </si>
+  <si>
+    <t>UIUC</t>
+  </si>
+  <si>
+    <t>UIUC-1920DOOBSEARCH</t>
+  </si>
+  <si>
+    <t>University of Waterloo</t>
+  </si>
+  <si>
+    <t>PureMathuWaterloo-PDFALGEBRA2020</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>CUNY - Graduate Center</t>
+  </si>
+  <si>
+    <t>University of Calgary</t>
+  </si>
+  <si>
+    <t>1188-PDF2020</t>
+  </si>
+  <si>
+    <t>805-POSTDOC</t>
+  </si>
+  <si>
+    <t>UVa-PDRA2020</t>
+  </si>
+  <si>
+    <t>queen's University</t>
   </si>
 </sst>
 </file>
@@ -620,7 +674,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -760,12 +814,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -911,6 +976,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1232,11 +1300,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C862073-6331-234F-B2D0-82C360D0D85F}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52:N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1680,13 +1748,13 @@
     </row>
     <row r="11" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="36">
-        <v>43773</v>
+        <v>189</v>
+      </c>
+      <c r="C11" s="43">
+        <v>43770</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>2</v>
@@ -1704,7 +1772,7 @@
         <v>20</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J11" s="35" t="s">
         <v>23</v>
@@ -1713,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="L11" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="39" t="s">
         <v>23</v>
@@ -1722,13 +1790,13 @@
     </row>
     <row r="12" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C12" s="36">
-        <v>43784</v>
+        <v>43773</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>2</v>
@@ -1746,7 +1814,7 @@
         <v>20</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J12" s="35" t="s">
         <v>23</v>
@@ -1764,12 +1832,12 @@
     </row>
     <row r="13" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="43">
+        <v>41</v>
+      </c>
+      <c r="C13" s="36">
         <v>43784</v>
       </c>
       <c r="D13" s="37" t="s">
@@ -1788,7 +1856,7 @@
         <v>20</v>
       </c>
       <c r="I13" s="35" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J13" s="35" t="s">
         <v>23</v>
@@ -1802,16 +1870,14 @@
       <c r="M13" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="44" t="s">
-        <v>94</v>
-      </c>
+      <c r="N13" s="35"/>
     </row>
     <row r="14" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C14" s="43">
         <v>43784</v>
@@ -1847,18 +1913,18 @@
         <v>23</v>
       </c>
       <c r="N14" s="44" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="36">
-        <v>43787</v>
+        <v>108</v>
+      </c>
+      <c r="C15" s="43">
+        <v>43784</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>2</v>
@@ -1882,7 +1948,7 @@
         <v>23</v>
       </c>
       <c r="K15" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15" s="35">
         <v>1</v>
@@ -1890,241 +1956,247 @@
       <c r="M15" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="35"/>
+      <c r="N15" s="44" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="43">
+        <v>43784</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="35">
+        <v>0</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="46" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="43">
+        <v>43784</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="35">
+        <v>4</v>
+      </c>
+      <c r="L17" s="35">
+        <v>0</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="35"/>
+    </row>
+    <row r="18" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="36">
+        <v>43787</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="35">
+        <v>2</v>
+      </c>
+      <c r="L18" s="35">
+        <v>1</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="35"/>
+    </row>
+    <row r="19" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C19" s="9">
         <v>43789</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="8" t="s">
+      <c r="E19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="8">
-        <v>3</v>
-      </c>
-      <c r="L16" s="8">
+      <c r="J19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="8">
+        <v>3</v>
+      </c>
+      <c r="L19" s="8">
         <v>0</v>
       </c>
-      <c r="M16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" s="16" t="s">
+      <c r="M19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+    <row r="20" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B20" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C20" s="9">
         <v>43789</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="8" t="s">
+      <c r="E20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="8">
-        <v>2</v>
-      </c>
-      <c r="L17" s="8">
+      <c r="J20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="8">
+        <v>2</v>
+      </c>
+      <c r="L20" s="8">
         <v>0</v>
       </c>
-      <c r="M17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="N17" s="16" t="s">
+      <c r="M20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="16" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="9">
-        <v>43798</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="L18" s="8">
-        <v>1</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="43">
-        <v>43799</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="35">
-        <v>4</v>
-      </c>
-      <c r="L19" s="35">
-        <v>1</v>
-      </c>
-      <c r="M19" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" s="35"/>
-    </row>
-    <row r="20" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="36">
-        <v>43800</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" s="35" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="36">
-        <v>43800</v>
+        <v>183</v>
+      </c>
+      <c r="C21" s="43">
+        <v>43791</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="35"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>23</v>
+      </c>
       <c r="G21" s="35" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="H21" s="35" t="s">
         <v>20</v>
@@ -2135,8 +2207,8 @@
       <c r="J21" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="35" t="s">
-        <v>47</v>
+      <c r="K21" s="46">
+        <v>3</v>
       </c>
       <c r="L21" s="35">
         <v>0</v>
@@ -2144,85 +2216,83 @@
       <c r="M21" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="35" t="s">
-        <v>49</v>
-      </c>
+      <c r="N21" s="35"/>
     </row>
     <row r="22" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="36">
-        <v>43800</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="35">
-        <v>3</v>
-      </c>
-      <c r="L22" s="35">
+      <c r="A22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="9">
+        <v>43798</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" s="8">
         <v>1</v>
       </c>
-      <c r="M22" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22" s="35"/>
+      <c r="M22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="36">
-        <v>43800</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>2</v>
+        <v>101</v>
+      </c>
+      <c r="C23" s="43">
+        <v>43799</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="E23" s="38" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="H23" s="35" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J23" s="35" t="s">
         <v>23</v>
       </c>
       <c r="K23" s="35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L23" s="35">
         <v>1</v>
@@ -2235,10 +2305,10 @@
     </row>
     <row r="24" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C24" s="36">
         <v>43800</v>
@@ -2259,78 +2329,78 @@
         <v>20</v>
       </c>
       <c r="I24" s="35" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J24" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="35">
-        <v>3</v>
-      </c>
-      <c r="L24" s="35">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K24" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="35" t="s">
+        <v>27</v>
       </c>
       <c r="M24" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="35"/>
+      <c r="N24" s="35" t="s">
+        <v>83</v>
+      </c>
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="43">
+        <v>45</v>
+      </c>
+      <c r="C25" s="36">
         <v>43800</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>20</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E25" s="38"/>
+      <c r="F25" s="35"/>
       <c r="G25" s="35" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H25" s="35" t="s">
         <v>20</v>
       </c>
       <c r="I25" s="35" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J25" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="35">
-        <v>3</v>
+      <c r="K25" s="35" t="s">
+        <v>47</v>
       </c>
       <c r="L25" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="35"/>
+      <c r="N25" s="35" t="s">
+        <v>49</v>
+      </c>
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="43">
+        <v>53</v>
+      </c>
+      <c r="C26" s="36">
         <v>43800</v>
       </c>
-      <c r="D26" s="49" t="s">
-        <v>97</v>
+      <c r="D26" s="37" t="s">
+        <v>2</v>
       </c>
       <c r="E26" s="38" t="s">
         <v>20</v>
@@ -2345,7 +2415,7 @@
         <v>20</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J26" s="35" t="s">
         <v>23</v>
@@ -2364,38 +2434,40 @@
     </row>
     <row r="27" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="35" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="43">
+        <v>68</v>
+      </c>
+      <c r="C27" s="36">
         <v>43800</v>
       </c>
-      <c r="D27" s="48" t="s">
-        <v>99</v>
+      <c r="D27" s="37" t="s">
+        <v>2</v>
       </c>
       <c r="E27" s="38" t="s">
         <v>20</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="H27" s="35" t="s">
         <v>20</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J27" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="35"/>
+      <c r="K27" s="35">
+        <v>3</v>
+      </c>
       <c r="L27" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="39" t="s">
         <v>23</v>
@@ -2405,12 +2477,12 @@
     </row>
     <row r="28" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="43">
+        <v>71</v>
+      </c>
+      <c r="C28" s="36">
         <v>43800</v>
       </c>
       <c r="D28" s="37" t="s">
@@ -2429,16 +2501,16 @@
         <v>20</v>
       </c>
       <c r="I28" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="J28" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="35" t="s">
         <v>23</v>
       </c>
       <c r="K28" s="35">
         <v>3</v>
       </c>
-      <c r="L28" s="35" t="s">
-        <v>27</v>
+      <c r="L28" s="35">
+        <v>1</v>
       </c>
       <c r="M28" s="39" t="s">
         <v>23</v>
@@ -2448,10 +2520,10 @@
     </row>
     <row r="29" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C29" s="43">
         <v>43800</v>
@@ -2472,7 +2544,7 @@
         <v>20</v>
       </c>
       <c r="I29" s="35" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J29" s="35" t="s">
         <v>23</v>
@@ -2491,16 +2563,16 @@
     </row>
     <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C30" s="43">
         <v>43800</v>
       </c>
-      <c r="D30" s="37" t="s">
-        <v>2</v>
+      <c r="D30" s="49" t="s">
+        <v>97</v>
       </c>
       <c r="E30" s="38" t="s">
         <v>20</v>
@@ -2534,16 +2606,16 @@
     </row>
     <row r="31" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C31" s="43">
         <v>43800</v>
       </c>
-      <c r="D31" s="37" t="s">
-        <v>2</v>
+      <c r="D31" s="48" t="s">
+        <v>99</v>
       </c>
       <c r="E31" s="38" t="s">
         <v>20</v>
@@ -2558,16 +2630,14 @@
         <v>20</v>
       </c>
       <c r="I31" s="35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J31" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="35">
-        <v>3</v>
-      </c>
+      <c r="K31" s="35"/>
       <c r="L31" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="39" t="s">
         <v>23</v>
@@ -2577,22 +2647,22 @@
     </row>
     <row r="32" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C32" s="43">
         <v>43800</v>
       </c>
-      <c r="D32" s="48" t="s">
-        <v>129</v>
+      <c r="D32" s="37" t="s">
+        <v>2</v>
       </c>
       <c r="E32" s="38" t="s">
         <v>20</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>20</v>
@@ -2601,16 +2671,16 @@
         <v>20</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K32" s="35">
         <v>3</v>
       </c>
-      <c r="L32" s="35">
-        <v>0</v>
+      <c r="L32" s="35" t="s">
+        <v>27</v>
       </c>
       <c r="M32" s="39" t="s">
         <v>23</v>
@@ -2619,56 +2689,54 @@
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="7">
+      <c r="A33" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="43">
         <v>43800</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="4">
-        <v>2</v>
-      </c>
-      <c r="L33" s="4">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="D33" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="35">
+        <v>3</v>
+      </c>
+      <c r="L33" s="35">
+        <v>1</v>
+      </c>
+      <c r="M33" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="35"/>
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="46" t="s">
-        <v>173</v>
+        <v>121</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>122</v>
       </c>
       <c r="C34" s="43">
         <v>43800</v>
@@ -2698,7 +2766,7 @@
         <v>3</v>
       </c>
       <c r="L34" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="35" t="s">
         <v>23</v>
@@ -2707,15 +2775,15 @@
     </row>
     <row r="35" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="35" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C35" s="43">
-        <v>43801</v>
-      </c>
-      <c r="D35" s="45" t="s">
+        <v>43800</v>
+      </c>
+      <c r="D35" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="38" t="s">
@@ -2731,7 +2799,7 @@
         <v>20</v>
       </c>
       <c r="I35" s="35" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J35" s="35" t="s">
         <v>23</v>
@@ -2739,7 +2807,7 @@
       <c r="K35" s="35">
         <v>3</v>
       </c>
-      <c r="L35" s="46">
+      <c r="L35" s="35">
         <v>1</v>
       </c>
       <c r="M35" s="35" t="s">
@@ -2749,22 +2817,22 @@
     </row>
     <row r="36" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="35" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C36" s="43">
-        <v>43801</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>2</v>
+        <v>43800</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>129</v>
       </c>
       <c r="E36" s="38" t="s">
         <v>20</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>20</v>
@@ -2773,7 +2841,7 @@
         <v>20</v>
       </c>
       <c r="I36" s="35" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J36" s="35" t="s">
         <v>23</v>
@@ -2782,426 +2850,424 @@
         <v>3</v>
       </c>
       <c r="L36" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="N36" s="44" t="s">
-        <v>116</v>
-      </c>
+      <c r="N36" s="35"/>
     </row>
     <row r="37" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="7">
+        <v>43800</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="4">
+        <v>2</v>
+      </c>
+      <c r="L37" s="4">
         <v>0</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="M37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="43">
+        <v>43800</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="35">
+        <v>3</v>
+      </c>
+      <c r="L38" s="35">
+        <v>0</v>
+      </c>
+      <c r="M38" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" s="35"/>
+    </row>
+    <row r="39" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="43">
+        <v>43800</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="35">
+        <v>0</v>
+      </c>
+      <c r="M39" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="35"/>
+    </row>
+    <row r="40" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="43">
+        <v>43800</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="46">
+        <v>4</v>
+      </c>
+      <c r="L40" s="35">
+        <v>0</v>
+      </c>
+      <c r="M40" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="35"/>
+    </row>
+    <row r="41" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="43">
+        <v>43801</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="35">
+        <v>3</v>
+      </c>
+      <c r="L41" s="46">
         <v>1</v>
       </c>
-      <c r="C37" s="7">
+      <c r="M41" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="35"/>
+    </row>
+    <row r="42" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="43">
+        <v>43801</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="35">
+        <v>3</v>
+      </c>
+      <c r="L42" s="35">
+        <v>1</v>
+      </c>
+      <c r="M42" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" s="44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="7">
         <v>43805</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="4" t="s">
+      <c r="D43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="4">
-        <v>3</v>
-      </c>
-      <c r="L37" s="4">
+      <c r="H43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="4">
+        <v>3</v>
+      </c>
+      <c r="L43" s="4">
         <v>1</v>
       </c>
-      <c r="M37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
+      <c r="M43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B44" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C44" s="9">
         <v>43806</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="11" t="s">
+      <c r="D44" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K38" s="8">
-        <v>3</v>
-      </c>
-      <c r="L38" s="8">
+      <c r="F44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="8">
+        <v>3</v>
+      </c>
+      <c r="L44" s="8">
         <v>1</v>
       </c>
-      <c r="M38" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+      <c r="M44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B45" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C45" s="9">
         <v>43806</v>
       </c>
-      <c r="D39" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" s="8">
-        <v>3</v>
-      </c>
-      <c r="L39" s="8">
+      <c r="D45" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="8">
+        <v>3</v>
+      </c>
+      <c r="L45" s="8">
         <v>1</v>
       </c>
-      <c r="M39" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N39" s="16" t="s">
+      <c r="M45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="16" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" s="9">
-        <v>43812</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="8">
-        <v>3</v>
-      </c>
-      <c r="L40" s="8">
-        <v>0</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N40" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="7">
-        <v>43814</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K41" s="4">
-        <v>3</v>
-      </c>
-      <c r="L41" s="4">
-        <v>1</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="7">
-        <v>43814</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K42" s="4">
-        <v>3</v>
-      </c>
-      <c r="L42" s="4">
-        <v>1</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N42" s="4"/>
-    </row>
-    <row r="43" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C43" s="9">
-        <v>43814</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K43" s="8">
-        <v>3</v>
-      </c>
-      <c r="L43" s="8">
-        <v>0</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N43" s="4"/>
-    </row>
-    <row r="44" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="7">
-        <v>43815</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="4">
-        <v>3</v>
-      </c>
-      <c r="L44" s="4">
-        <v>1</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N44" s="4"/>
-    </row>
-    <row r="45" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="36">
-        <v>43834</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="J45" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" s="35">
-        <v>3</v>
-      </c>
-      <c r="L45" s="35">
-        <v>0</v>
-      </c>
-      <c r="M45" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="N45" s="35"/>
     </row>
     <row r="46" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C46" s="9">
-        <v>43836</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>2</v>
+        <v>43812</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>23</v>
@@ -3210,28 +3276,30 @@
         <v>3</v>
       </c>
       <c r="L46" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N46" s="4"/>
+      <c r="N46" s="16" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="47" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C47" s="7">
-        <v>43847</v>
+        <v>43814</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>20</v>
@@ -3243,7 +3311,7 @@
         <v>20</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>23</v>
@@ -3257,101 +3325,103 @@
       <c r="M47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N47" s="4"/>
+      <c r="N47" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="48" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="7">
-        <v>44043</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K48" s="4">
-        <v>3</v>
-      </c>
-      <c r="L48" s="4">
+      <c r="A48" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="36">
+        <v>43814</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I48" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="35">
+        <v>3</v>
+      </c>
+      <c r="L48" s="35">
         <v>1</v>
       </c>
-      <c r="M48" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N48" s="4"/>
+      <c r="M48" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N48" s="35"/>
     </row>
     <row r="49" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="7">
-        <v>44044</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K49" s="4">
-        <v>3</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N49" s="4"/>
+      <c r="A49" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="43">
+        <v>43814</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="35">
+        <v>3</v>
+      </c>
+      <c r="L49" s="35">
+        <v>0</v>
+      </c>
+      <c r="M49" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N49" s="35"/>
     </row>
     <row r="50" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="35" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>5</v>
+        <v>51</v>
+      </c>
+      <c r="C50" s="36">
+        <v>43815</v>
       </c>
       <c r="D50" s="37" t="s">
         <v>2</v>
@@ -3360,7 +3430,7 @@
         <v>20</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>20</v>
@@ -3374,8 +3444,8 @@
       <c r="J50" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="K50" s="35" t="s">
-        <v>24</v>
+      <c r="K50" s="35">
+        <v>3</v>
       </c>
       <c r="L50" s="35">
         <v>1</v>
@@ -3386,58 +3456,350 @@
       <c r="N50" s="35"/>
     </row>
     <row r="51" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="36">
+        <v>43834</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J51" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K51" s="35">
+        <v>3</v>
+      </c>
+      <c r="L51" s="35">
+        <v>0</v>
+      </c>
+      <c r="M51" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N51" s="35"/>
+    </row>
+    <row r="52" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="43">
+        <v>43836</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52" s="35">
+        <v>3</v>
+      </c>
+      <c r="L52" s="35">
+        <v>1</v>
+      </c>
+      <c r="M52" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N52" s="35"/>
+    </row>
+    <row r="53" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="36">
+        <v>43847</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" s="35">
+        <v>3</v>
+      </c>
+      <c r="L53" s="35">
+        <v>1</v>
+      </c>
+      <c r="M53" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N53" s="35"/>
+    </row>
+    <row r="54" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="7">
+        <v>44043</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" s="4">
+        <v>3</v>
+      </c>
+      <c r="L54" s="4">
+        <v>1</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="7">
+        <v>44044</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K55" s="4">
+        <v>3</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K56" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="L56" s="35">
+        <v>1</v>
+      </c>
+      <c r="M56" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N56" s="35"/>
+    </row>
+    <row r="57" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K51" s="4">
-        <v>3</v>
-      </c>
-      <c r="L51" s="4">
+      <c r="C57" s="4"/>
+      <c r="D57" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" s="4">
+        <v>3</v>
+      </c>
+      <c r="L57" s="4">
         <v>1</v>
       </c>
-      <c r="M51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N51" s="4" t="s">
+      <c r="M57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" s="4" t="s">
         <v>73</v>
       </c>
     </row>
+    <row r="58" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K58" s="8">
+        <v>3</v>
+      </c>
+      <c r="L58" s="8">
+        <v>0</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N58" s="4"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N51">
-    <sortCondition ref="C2:C51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N58">
+    <sortCondition ref="C2:C58"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D19" r:id="rId1" display="https://recruit.ucdavis.edu/JPF02950" xr:uid="{83E02472-223D-514A-82F7-94F8C5C76C6F}"/>
-    <hyperlink ref="D27" r:id="rId2" xr:uid="{A94B9440-F8F2-1D40-B6F8-BDDE35FB8D62}"/>
-    <hyperlink ref="D32" r:id="rId3" xr:uid="{4B367342-2FC3-E140-A9EC-CB0227AE528A}"/>
-    <hyperlink ref="D16" r:id="rId4" display="https://www.vacancies.ed.ac.uk/pls/corehrrecruit/erq_jobspec_version_4.jobspec?p_id=050154" xr:uid="{200AE473-7A60-B148-BA2A-18A77C170360}"/>
-    <hyperlink ref="D17" r:id="rId5" display="https://www.recruit.ox.ac.uk/pls/hrisliverecruit/erq_jobspec_version_4.jobspec?p_id=143481" xr:uid="{07A2CD43-8F6C-854C-9BA5-EE4023673833}"/>
-    <hyperlink ref="D40" r:id="rId6" xr:uid="{155296AC-9F8B-B042-9832-B901625AED63}"/>
+    <hyperlink ref="D23" r:id="rId1" display="https://recruit.ucdavis.edu/JPF02950" xr:uid="{83E02472-223D-514A-82F7-94F8C5C76C6F}"/>
+    <hyperlink ref="D31" r:id="rId2" xr:uid="{A94B9440-F8F2-1D40-B6F8-BDDE35FB8D62}"/>
+    <hyperlink ref="D36" r:id="rId3" xr:uid="{4B367342-2FC3-E140-A9EC-CB0227AE528A}"/>
+    <hyperlink ref="D19" r:id="rId4" display="https://www.vacancies.ed.ac.uk/pls/corehrrecruit/erq_jobspec_version_4.jobspec?p_id=050154" xr:uid="{200AE473-7A60-B148-BA2A-18A77C170360}"/>
+    <hyperlink ref="D20" r:id="rId5" display="https://www.recruit.ox.ac.uk/pls/hrisliverecruit/erq_jobspec_version_4.jobspec?p_id=143481" xr:uid="{07A2CD43-8F6C-854C-9BA5-EE4023673833}"/>
+    <hyperlink ref="D46" r:id="rId6" xr:uid="{155296AC-9F8B-B042-9832-B901625AED63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Postdocs19.xlsx
+++ b/Postdocs19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DJBruce/Application-Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D448D16B-4D7E-6546-9AD1-B4BDC0630BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C692144D-7F83-FC4A-B537-127A07A54E95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="196">
   <si>
     <t xml:space="preserve">Arizona State University </t>
   </si>
@@ -611,6 +611,15 @@
   </si>
   <si>
     <t>queen's University</t>
+  </si>
+  <si>
+    <t>Harvard University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harvard-BPFELLOW2020 </t>
+  </si>
+  <si>
+    <t>Cover letter, including a description of teaching experience and philosophy and comments on any efforts to encourage diversity, inclusion, and belonging</t>
   </si>
 </sst>
 </file>
@@ -674,7 +683,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -825,12 +834,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -978,6 +1024,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1300,11 +1358,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C862073-6331-234F-B2D0-82C360D0D85F}">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52:N52"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58:N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3028,58 +3086,60 @@
       <c r="N40" s="35"/>
     </row>
     <row r="41" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="43">
-        <v>43801</v>
-      </c>
-      <c r="D41" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="K41" s="35">
-        <v>3</v>
-      </c>
-      <c r="L41" s="46">
-        <v>1</v>
-      </c>
-      <c r="M41" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="N41" s="35"/>
+      <c r="A41" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="9">
+        <v>43800</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="16" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="42" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C42" s="43">
         <v>43801</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="45" t="s">
         <v>2</v>
       </c>
       <c r="E42" s="38" t="s">
@@ -3103,96 +3163,96 @@
       <c r="K42" s="35">
         <v>3</v>
       </c>
-      <c r="L42" s="35">
+      <c r="L42" s="46">
         <v>1</v>
       </c>
       <c r="M42" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="N42" s="44" t="s">
+      <c r="N42" s="35"/>
+    </row>
+    <row r="43" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="43">
+        <v>43801</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" s="35">
+        <v>3</v>
+      </c>
+      <c r="L43" s="35">
+        <v>1</v>
+      </c>
+      <c r="M43" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="44" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+    <row r="44" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C44" s="7">
         <v>43805</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="4" t="s">
+      <c r="D44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K43" s="4">
+      <c r="H44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="4">
         <v>3</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L44" s="4">
         <v>1</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N43" s="4"/>
-    </row>
-    <row r="44" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="9">
-        <v>43806</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="8">
-        <v>3</v>
-      </c>
-      <c r="L44" s="8">
-        <v>1</v>
-      </c>
-      <c r="M44" s="8" t="s">
+      <c r="M44" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N44" s="4"/>
@@ -3202,16 +3262,16 @@
         <v>123</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C45" s="9">
         <v>43806</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>20</v>
@@ -3237,37 +3297,35 @@
       <c r="M45" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N45" s="16" t="s">
-        <v>148</v>
-      </c>
+      <c r="N45" s="4"/>
     </row>
     <row r="46" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C46" s="9">
-        <v>43812</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>143</v>
+        <v>43806</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>23</v>
@@ -3276,65 +3334,65 @@
         <v>3</v>
       </c>
       <c r="L46" s="8">
+        <v>1</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="9">
+        <v>43812</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K47" s="8">
+        <v>3</v>
+      </c>
+      <c r="L47" s="8">
         <v>0</v>
       </c>
-      <c r="M46" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N46" s="16" t="s">
+      <c r="M47" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="16" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="7">
-        <v>43814</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K47" s="4">
-        <v>3</v>
-      </c>
-      <c r="L47" s="4">
-        <v>1</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N47" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="35" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C48" s="36">
         <v>43814</v>
@@ -3343,7 +3401,7 @@
         <v>2</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F48" s="35" t="s">
         <v>20</v>
@@ -3352,10 +3410,10 @@
         <v>20</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I48" s="35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J48" s="35" t="s">
         <v>23</v>
@@ -3369,23 +3427,25 @@
       <c r="M48" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="N48" s="35"/>
+      <c r="N48" s="35" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="49" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="B49" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" s="43">
+        <v>63</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="36">
         <v>43814</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F49" s="35" t="s">
         <v>20</v>
@@ -3394,7 +3454,7 @@
         <v>20</v>
       </c>
       <c r="H49" s="35" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I49" s="35" t="s">
         <v>23</v>
@@ -3406,7 +3466,7 @@
         <v>3</v>
       </c>
       <c r="L49" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="35" t="s">
         <v>23</v>
@@ -3415,13 +3475,13 @@
     </row>
     <row r="50" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="36">
-        <v>43815</v>
+        <v>165</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="43">
+        <v>43814</v>
       </c>
       <c r="D50" s="37" t="s">
         <v>2</v>
@@ -3448,7 +3508,7 @@
         <v>3</v>
       </c>
       <c r="L50" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" s="35" t="s">
         <v>23</v>
@@ -3457,13 +3517,13 @@
     </row>
     <row r="51" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="35" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C51" s="36">
-        <v>43834</v>
+        <v>43815</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>2</v>
@@ -3472,7 +3532,7 @@
         <v>20</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>20</v>
@@ -3481,7 +3541,7 @@
         <v>20</v>
       </c>
       <c r="I51" s="35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J51" s="35" t="s">
         <v>23</v>
@@ -3490,7 +3550,7 @@
         <v>3</v>
       </c>
       <c r="L51" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="35" t="s">
         <v>23</v>
@@ -3499,13 +3559,13 @@
     </row>
     <row r="52" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="50" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="43">
-        <v>43836</v>
+        <v>6</v>
+      </c>
+      <c r="C52" s="36">
+        <v>43834</v>
       </c>
       <c r="D52" s="37" t="s">
         <v>2</v>
@@ -3514,7 +3574,7 @@
         <v>20</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>20</v>
@@ -3523,7 +3583,7 @@
         <v>20</v>
       </c>
       <c r="I52" s="35" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J52" s="35" t="s">
         <v>23</v>
@@ -3532,7 +3592,7 @@
         <v>3</v>
       </c>
       <c r="L52" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" s="35" t="s">
         <v>23</v>
@@ -3541,19 +3601,19 @@
     </row>
     <row r="53" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="35" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="36">
-        <v>43847</v>
+        <v>120</v>
+      </c>
+      <c r="C53" s="43">
+        <v>43836</v>
       </c>
       <c r="D53" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F53" s="35" t="s">
         <v>20</v>
@@ -3565,7 +3625,7 @@
         <v>20</v>
       </c>
       <c r="I53" s="35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J53" s="35" t="s">
         <v>23</v>
@@ -3582,56 +3642,56 @@
       <c r="N53" s="35"/>
     </row>
     <row r="54" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="7">
-        <v>44043</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K54" s="4">
+      <c r="A54" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="36">
+        <v>43847</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" s="35">
         <v>3</v>
       </c>
-      <c r="L54" s="4">
+      <c r="L54" s="35">
         <v>1</v>
       </c>
-      <c r="M54" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N54" s="4"/>
+      <c r="M54" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" s="35"/>
     </row>
     <row r="55" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C55" s="7">
-        <v>44044</v>
+        <v>44043</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>2</v>
@@ -3640,13 +3700,13 @@
         <v>20</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>20</v>
@@ -3657,8 +3717,8 @@
       <c r="K55" s="4">
         <v>3</v>
       </c>
-      <c r="L55" s="4" t="s">
-        <v>27</v>
+      <c r="L55" s="4">
+        <v>1</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>23</v>
@@ -3667,131 +3727,173 @@
     </row>
     <row r="56" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="36">
+        <v>44044</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K56" s="35">
         <v>3</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="L56" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M56" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N56" s="35"/>
+    </row>
+    <row r="57" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C57" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H56" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="J56" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="K56" s="35" t="s">
+      <c r="D57" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="L56" s="35">
+      <c r="L57" s="35">
         <v>1</v>
       </c>
-      <c r="M56" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="N56" s="35"/>
-    </row>
-    <row r="57" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="M57" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N57" s="35"/>
+    </row>
+    <row r="58" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B58" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K57" s="4">
+      <c r="C58" s="51"/>
+      <c r="D58" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="K58" s="51">
         <v>3</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L58" s="51">
         <v>1</v>
       </c>
-      <c r="M57" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N57" s="4" t="s">
+      <c r="M58" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="54" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
+    <row r="59" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B59" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J58" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K58" s="8">
+      <c r="C59" s="46"/>
+      <c r="D59" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J59" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" s="35">
         <v>3</v>
       </c>
-      <c r="L58" s="8">
+      <c r="L59" s="35">
         <v>0</v>
       </c>
-      <c r="M58" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N58" s="4"/>
+      <c r="M59" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" s="35"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N58">
-    <sortCondition ref="C2:C58"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N59">
+    <sortCondition ref="C2:C59"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D23" r:id="rId1" display="https://recruit.ucdavis.edu/JPF02950" xr:uid="{83E02472-223D-514A-82F7-94F8C5C76C6F}"/>
@@ -3799,7 +3901,7 @@
     <hyperlink ref="D36" r:id="rId3" xr:uid="{4B367342-2FC3-E140-A9EC-CB0227AE528A}"/>
     <hyperlink ref="D19" r:id="rId4" display="https://www.vacancies.ed.ac.uk/pls/corehrrecruit/erq_jobspec_version_4.jobspec?p_id=050154" xr:uid="{200AE473-7A60-B148-BA2A-18A77C170360}"/>
     <hyperlink ref="D20" r:id="rId5" display="https://www.recruit.ox.ac.uk/pls/hrisliverecruit/erq_jobspec_version_4.jobspec?p_id=143481" xr:uid="{07A2CD43-8F6C-854C-9BA5-EE4023673833}"/>
-    <hyperlink ref="D46" r:id="rId6" xr:uid="{155296AC-9F8B-B042-9832-B901625AED63}"/>
+    <hyperlink ref="D47" r:id="rId6" xr:uid="{155296AC-9F8B-B042-9832-B901625AED63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Postdocs19.xlsx
+++ b/Postdocs19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DJBruce/Application-Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01065600-CB65-1349-9370-B6B292431A92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F64958-7CD4-594D-9EF6-13B49F979901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" activeTab="1" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="212">
   <si>
     <t xml:space="preserve">Arizona State University </t>
   </si>
@@ -644,6 +644,30 @@
   </si>
   <si>
     <t>143481, You will be required to upload a supporting letter setting out how you meet the selection criteria, a curriculum vitae including full list of publications with top three papers starred</t>
+  </si>
+  <si>
+    <t>Uploaded 11/11/19</t>
+  </si>
+  <si>
+    <t>University of Texas - Austin</t>
+  </si>
+  <si>
+    <t>UTAustin-POSTDOC1</t>
+  </si>
+  <si>
+    <t>University of Victoria</t>
+  </si>
+  <si>
+    <t>UVic-PDF</t>
+  </si>
+  <si>
+    <t>MSRI</t>
+  </si>
+  <si>
+    <t>MSRI-CP_PD</t>
+  </si>
+  <si>
+    <t>Statement of Purpose</t>
   </si>
 </sst>
 </file>
@@ -906,7 +930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1053,23 +1077,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1391,11 +1406,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C862073-6331-234F-B2D0-82C360D0D85F}">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2311,19 +2326,19 @@
     </row>
     <row r="22" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="30">
-        <v>43798</v>
+        <v>208</v>
+      </c>
+      <c r="C22" s="48">
+        <v>43794</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>23</v>
@@ -2340,35 +2355,35 @@
       <c r="J22" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="42" t="s">
-        <v>91</v>
+      <c r="K22" s="22">
+        <v>3</v>
       </c>
       <c r="L22" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N22" s="22"/>
+      <c r="N22" s="51"/>
     </row>
     <row r="23" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C23" s="30">
-        <v>43799</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>102</v>
+        <v>43798</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>2</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G23" s="22" t="s">
         <v>20</v>
@@ -2382,8 +2397,8 @@
       <c r="J23" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="22">
-        <v>4</v>
+      <c r="K23" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="L23" s="22">
         <v>1</v>
@@ -2396,16 +2411,16 @@
     </row>
     <row r="24" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="23">
-        <v>43800</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>2</v>
+        <v>101</v>
+      </c>
+      <c r="C24" s="30">
+        <v>43799</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>102</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>20</v>
@@ -2420,42 +2435,44 @@
         <v>20</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="K24" s="22">
+        <v>4</v>
+      </c>
+      <c r="L24" s="22">
+        <v>1</v>
       </c>
       <c r="M24" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="22" t="s">
-        <v>83</v>
-      </c>
+      <c r="N24" s="22"/>
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C25" s="23">
         <v>43800</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>20</v>
+      </c>
       <c r="G25" s="22" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="H25" s="22" t="s">
         <v>20</v>
@@ -2464,71 +2481,69 @@
         <v>20</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="L25" s="22">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="M25" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N25" s="22" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C26" s="23">
         <v>43800</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>20</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="22" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H26" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J26" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="22">
-        <v>3</v>
+      <c r="K26" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="L26" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="22"/>
+      <c r="N26" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C27" s="23">
         <v>43800</v>
@@ -2540,16 +2555,16 @@
         <v>20</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="H27" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J27" s="22" t="s">
         <v>23</v>
@@ -2568,10 +2583,10 @@
     </row>
     <row r="28" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C28" s="23">
         <v>43800</v>
@@ -2583,10 +2598,10 @@
         <v>20</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="H28" s="22" t="s">
         <v>20</v>
@@ -2611,12 +2626,12 @@
     </row>
     <row r="29" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="30">
+        <v>71</v>
+      </c>
+      <c r="C29" s="23">
         <v>43800</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -2654,16 +2669,16 @@
     </row>
     <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C30" s="30">
         <v>43800</v>
       </c>
-      <c r="D30" s="36" t="s">
-        <v>97</v>
+      <c r="D30" s="24" t="s">
+        <v>2</v>
       </c>
       <c r="E30" s="25" t="s">
         <v>20</v>
@@ -2678,7 +2693,7 @@
         <v>20</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J30" s="22" t="s">
         <v>23</v>
@@ -2700,13 +2715,13 @@
         <v>95</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C31" s="30">
         <v>43800</v>
       </c>
-      <c r="D31" s="35" t="s">
-        <v>99</v>
+      <c r="D31" s="36" t="s">
+        <v>97</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>20</v>
@@ -2726,9 +2741,11 @@
       <c r="J31" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="22"/>
+      <c r="K31" s="22">
+        <v>3</v>
+      </c>
       <c r="L31" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="26" t="s">
         <v>23</v>
@@ -2738,16 +2755,16 @@
     </row>
     <row r="32" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C32" s="30">
         <v>43800</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>2</v>
+      <c r="D32" s="35" t="s">
+        <v>99</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>20</v>
@@ -2762,16 +2779,14 @@
         <v>20</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="J32" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="22">
-        <v>3</v>
-      </c>
-      <c r="L32" s="22" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22">
+        <v>0</v>
       </c>
       <c r="M32" s="26" t="s">
         <v>23</v>
@@ -2781,10 +2796,10 @@
     </row>
     <row r="33" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C33" s="30">
         <v>43800</v>
@@ -2805,16 +2820,16 @@
         <v>20</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="33" t="s">
         <v>23</v>
       </c>
       <c r="K33" s="22">
         <v>3</v>
       </c>
-      <c r="L33" s="22">
-        <v>1</v>
+      <c r="L33" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="M33" s="26" t="s">
         <v>23</v>
@@ -2824,10 +2839,10 @@
     </row>
     <row r="34" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C34" s="30">
         <v>43800</v>
@@ -2866,10 +2881,10 @@
     </row>
     <row r="35" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C35" s="30">
         <v>43800</v>
@@ -2890,7 +2905,7 @@
         <v>20</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J35" s="22" t="s">
         <v>23</v>
@@ -2908,22 +2923,22 @@
     </row>
     <row r="36" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C36" s="30">
         <v>43800</v>
       </c>
-      <c r="D36" s="35" t="s">
-        <v>129</v>
+      <c r="D36" s="24" t="s">
+        <v>2</v>
       </c>
       <c r="E36" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="G36" s="22" t="s">
         <v>20</v>
@@ -2941,7 +2956,7 @@
         <v>3</v>
       </c>
       <c r="L36" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="22" t="s">
         <v>23</v>
@@ -2950,22 +2965,22 @@
     </row>
     <row r="37" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="23">
+        <v>128</v>
+      </c>
+      <c r="C37" s="30">
         <v>43800</v>
       </c>
-      <c r="D37" s="24" t="s">
-        <v>81</v>
+      <c r="D37" s="35" t="s">
+        <v>129</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="G37" s="22" t="s">
         <v>20</v>
@@ -2974,13 +2989,13 @@
         <v>20</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J37" s="22" t="s">
         <v>23</v>
       </c>
       <c r="K37" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37" s="22">
         <v>0</v>
@@ -2988,28 +3003,26 @@
       <c r="M37" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N37" s="22" t="s">
-        <v>82</v>
-      </c>
+      <c r="N37" s="22"/>
     </row>
     <row r="38" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="C38" s="30">
+        <v>36</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="23">
         <v>43800</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>20</v>
@@ -3018,13 +3031,13 @@
         <v>20</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J38" s="22" t="s">
         <v>23</v>
       </c>
       <c r="K38" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L38" s="22">
         <v>0</v>
@@ -3032,20 +3045,22 @@
       <c r="M38" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N38" s="22"/>
+      <c r="N38" s="22" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="39" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>178</v>
+        <v>85</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="C39" s="30">
         <v>43800</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="E39" s="25" t="s">
         <v>20</v>
@@ -3065,8 +3080,8 @@
       <c r="J39" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K39" s="22" t="s">
-        <v>24</v>
+      <c r="K39" s="22">
+        <v>3</v>
       </c>
       <c r="L39" s="22">
         <v>0</v>
@@ -3078,22 +3093,22 @@
     </row>
     <row r="40" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>183</v>
+        <v>177</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>178</v>
       </c>
       <c r="C40" s="30">
         <v>43800</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G40" s="22" t="s">
         <v>20</v>
@@ -3102,13 +3117,13 @@
         <v>20</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J40" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K40" s="33">
-        <v>4</v>
+      <c r="K40" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="L40" s="22">
         <v>0</v>
@@ -3120,10 +3135,10 @@
     </row>
     <row r="41" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C41" s="30">
         <v>43800</v>
@@ -3132,10 +3147,10 @@
         <v>2</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G41" s="22" t="s">
         <v>20</v>
@@ -3144,13 +3159,13 @@
         <v>20</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J41" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K41" s="22" t="s">
-        <v>24</v>
+      <c r="K41" s="33">
+        <v>4</v>
       </c>
       <c r="L41" s="22">
         <v>0</v>
@@ -3158,16 +3173,14 @@
       <c r="M41" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N41" s="31" t="s">
-        <v>192</v>
-      </c>
+      <c r="N41" s="22"/>
     </row>
     <row r="42" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C42" s="30">
         <v>43800</v>
@@ -3188,34 +3201,36 @@
         <v>20</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J42" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K42" s="22">
-        <v>3</v>
+      <c r="K42" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="L42" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N42" s="22"/>
+      <c r="N42" s="31" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="43" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>197</v>
       </c>
       <c r="C43" s="30">
         <v>43800</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>175</v>
+        <v>2</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>20</v>
@@ -3236,7 +3251,7 @@
         <v>23</v>
       </c>
       <c r="K43" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L43" s="22">
         <v>1</v>
@@ -3244,22 +3259,20 @@
       <c r="M43" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N43" s="22" t="s">
-        <v>200</v>
-      </c>
+      <c r="N43" s="22"/>
     </row>
     <row r="44" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="C44" s="30">
-        <v>43801</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>2</v>
+        <v>43800</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>175</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>20</v>
@@ -3274,31 +3287,33 @@
         <v>20</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J44" s="22" t="s">
         <v>23</v>
       </c>
       <c r="K44" s="22">
-        <v>3</v>
-      </c>
-      <c r="L44" s="33">
+        <v>2</v>
+      </c>
+      <c r="L44" s="22">
         <v>1</v>
       </c>
       <c r="M44" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N44" s="22"/>
+      <c r="N44" s="22" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="45" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" s="30">
-        <v>43801</v>
+        <v>205</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="48">
+        <v>43800</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>2</v>
@@ -3330,67 +3345,67 @@
       <c r="M45" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N45" s="31" t="s">
-        <v>116</v>
-      </c>
+      <c r="N45" s="51"/>
     </row>
     <row r="46" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="48">
+        <v>43800</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="22">
+        <v>3</v>
+      </c>
+      <c r="L46" s="22">
         <v>0</v>
       </c>
-      <c r="B46" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="23">
-        <v>43805</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" s="22">
-        <v>3</v>
-      </c>
-      <c r="L46" s="22">
-        <v>1</v>
-      </c>
       <c r="M46" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N46" s="22"/>
+      <c r="N46" s="51" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="47" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C47" s="30">
-        <v>43806</v>
-      </c>
-      <c r="D47" s="24" t="s">
+        <v>43801</v>
+      </c>
+      <c r="D47" s="32" t="s">
         <v>2</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F47" s="22" t="s">
         <v>20</v>
@@ -3410,7 +3425,7 @@
       <c r="K47" s="22">
         <v>3</v>
       </c>
-      <c r="L47" s="22">
+      <c r="L47" s="33">
         <v>1</v>
       </c>
       <c r="M47" s="22" t="s">
@@ -3420,15 +3435,15 @@
     </row>
     <row r="48" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C48" s="30">
-        <v>43806</v>
-      </c>
-      <c r="D48" s="32" t="s">
+        <v>43801</v>
+      </c>
+      <c r="D48" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="25" t="s">
@@ -3459,68 +3474,66 @@
         <v>23</v>
       </c>
       <c r="N48" s="31" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C49" s="30">
-        <v>43812</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>142</v>
+        <v>1</v>
+      </c>
+      <c r="C49" s="23">
+        <v>43805</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>2</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="J49" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K49" s="22">
         <v>3</v>
       </c>
       <c r="L49" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N49" s="31" t="s">
-        <v>145</v>
-      </c>
+      <c r="N49" s="22"/>
     </row>
     <row r="50" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="23">
-        <v>43814</v>
+        <v>124</v>
+      </c>
+      <c r="C50" s="30">
+        <v>43806</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F50" s="22" t="s">
         <v>20</v>
@@ -3546,25 +3559,23 @@
       <c r="M50" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N50" s="22" t="s">
-        <v>75</v>
-      </c>
+      <c r="N50" s="22"/>
     </row>
     <row r="51" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="22" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="23">
-        <v>43814</v>
-      </c>
-      <c r="D51" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="30">
+        <v>43806</v>
+      </c>
+      <c r="D51" s="32" t="s">
         <v>2</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F51" s="22" t="s">
         <v>20</v>
@@ -3573,10 +3584,10 @@
         <v>20</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J51" s="22" t="s">
         <v>23</v>
@@ -3590,35 +3601,37 @@
       <c r="M51" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N51" s="22"/>
+      <c r="N51" s="31" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="52" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>164</v>
+        <v>140</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C52" s="30">
-        <v>43814</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>2</v>
+        <v>43812</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>142</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G52" s="22" t="s">
         <v>20</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="J52" s="22" t="s">
         <v>23</v>
@@ -3632,17 +3645,19 @@
       <c r="M52" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N52" s="22"/>
+      <c r="N52" s="31" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="53" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="22" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C53" s="23">
-        <v>43815</v>
+        <v>43814</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>2</v>
@@ -3660,7 +3675,7 @@
         <v>20</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J53" s="22" t="s">
         <v>23</v>
@@ -3674,23 +3689,25 @@
       <c r="M53" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N53" s="22"/>
+      <c r="N53" s="22" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C54" s="48">
-        <v>43815</v>
+        <v>63</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="23">
+        <v>43814</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>175</v>
+        <v>2</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F54" s="22" t="s">
         <v>20</v>
@@ -3699,10 +3716,10 @@
         <v>20</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J54" s="22" t="s">
         <v>23</v>
@@ -3711,24 +3728,22 @@
         <v>3</v>
       </c>
       <c r="L54" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N54" s="49" t="s">
-        <v>196</v>
-      </c>
+      <c r="N54" s="22"/>
     </row>
     <row r="55" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="23">
-        <v>43834</v>
+        <v>163</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="30">
+        <v>43814</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>2</v>
@@ -3737,7 +3752,7 @@
         <v>20</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G55" s="22" t="s">
         <v>20</v>
@@ -3746,7 +3761,7 @@
         <v>20</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J55" s="22" t="s">
         <v>23</v>
@@ -3764,13 +3779,13 @@
     </row>
     <row r="56" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="22" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C56" s="30">
-        <v>43836</v>
+        <v>51</v>
+      </c>
+      <c r="C56" s="23">
+        <v>43815</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>2</v>
@@ -3788,7 +3803,7 @@
         <v>20</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J56" s="22" t="s">
         <v>23</v>
@@ -3806,19 +3821,19 @@
     </row>
     <row r="57" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="23">
-        <v>43847</v>
+        <v>194</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C57" s="48">
+        <v>43815</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F57" s="22" t="s">
         <v>20</v>
@@ -3830,7 +3845,7 @@
         <v>20</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J57" s="22" t="s">
         <v>23</v>
@@ -3839,64 +3854,66 @@
         <v>3</v>
       </c>
       <c r="L57" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N57" s="22"/>
+      <c r="N57" s="49" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="58" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="51">
-        <v>44043</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="F58" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="K58" s="50">
-        <v>3</v>
-      </c>
-      <c r="L58" s="50">
-        <v>1</v>
-      </c>
-      <c r="M58" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="N58" s="54"/>
+      <c r="A58" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="52">
+        <v>43834</v>
+      </c>
+      <c r="D58" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J58" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K58" s="38">
+        <v>3</v>
+      </c>
+      <c r="L58" s="38">
+        <v>0</v>
+      </c>
+      <c r="M58" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N58" s="41"/>
     </row>
     <row r="59" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="22" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" s="23">
-        <v>44044</v>
+        <v>120</v>
+      </c>
+      <c r="C59" s="30">
+        <v>43836</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>2</v>
@@ -3905,13 +3922,13 @@
         <v>20</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G59" s="22" t="s">
         <v>20</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I59" s="22" t="s">
         <v>20</v>
@@ -3922,8 +3939,8 @@
       <c r="K59" s="22">
         <v>3</v>
       </c>
-      <c r="L59" s="22" t="s">
-        <v>27</v>
+      <c r="L59" s="22">
+        <v>1</v>
       </c>
       <c r="M59" s="22" t="s">
         <v>23</v>
@@ -3932,22 +3949,22 @@
     </row>
     <row r="60" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="38" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="38" t="s">
-        <v>5</v>
+        <v>61</v>
+      </c>
+      <c r="C60" s="52">
+        <v>43847</v>
       </c>
       <c r="D60" s="39" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F60" s="38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G60" s="38" t="s">
         <v>20</v>
@@ -3961,8 +3978,8 @@
       <c r="J60" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="K60" s="38" t="s">
-        <v>24</v>
+      <c r="K60" s="38">
+        <v>3</v>
       </c>
       <c r="L60" s="38">
         <v>1</v>
@@ -3973,99 +3990,225 @@
       <c r="N60" s="41"/>
     </row>
     <row r="61" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F61" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K61" s="22">
-        <v>3</v>
-      </c>
-      <c r="L61" s="22">
+      <c r="A61" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="44">
+        <v>44043</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61" s="43">
+        <v>3</v>
+      </c>
+      <c r="L61" s="43">
         <v>1</v>
       </c>
-      <c r="M61" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N61" s="22" t="s">
-        <v>73</v>
-      </c>
+      <c r="M61" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="N61" s="43"/>
     </row>
     <row r="62" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="23">
+        <v>44044</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I62" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62" s="22">
+        <v>3</v>
+      </c>
+      <c r="L62" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M62" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N62" s="22"/>
+    </row>
+    <row r="63" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K63" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L63" s="22">
+        <v>1</v>
+      </c>
+      <c r="M63" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N63" s="22"/>
+    </row>
+    <row r="64" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="22"/>
+      <c r="D64" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64" s="22">
+        <v>3</v>
+      </c>
+      <c r="L64" s="22">
+        <v>1</v>
+      </c>
+      <c r="M64" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N64" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B65" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="C62" s="33"/>
-      <c r="D62" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F62" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I62" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J62" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K62" s="22">
-        <v>3</v>
-      </c>
-      <c r="L62" s="22">
+      <c r="C65" s="33"/>
+      <c r="D65" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J65" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K65" s="22">
+        <v>3</v>
+      </c>
+      <c r="L65" s="22">
         <v>0</v>
       </c>
-      <c r="M62" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N62" s="22"/>
+      <c r="M65" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N65" s="22"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N62">
-    <sortCondition ref="C2:C62"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N65">
+    <sortCondition ref="C2:C65"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D23" r:id="rId1" display="https://recruit.ucdavis.edu/JPF02950" xr:uid="{83E02472-223D-514A-82F7-94F8C5C76C6F}"/>
-    <hyperlink ref="D31" r:id="rId2" xr:uid="{A94B9440-F8F2-1D40-B6F8-BDDE35FB8D62}"/>
-    <hyperlink ref="D36" r:id="rId3" xr:uid="{4B367342-2FC3-E140-A9EC-CB0227AE528A}"/>
+    <hyperlink ref="D24" r:id="rId1" display="https://recruit.ucdavis.edu/JPF02950" xr:uid="{83E02472-223D-514A-82F7-94F8C5C76C6F}"/>
+    <hyperlink ref="D32" r:id="rId2" xr:uid="{A94B9440-F8F2-1D40-B6F8-BDDE35FB8D62}"/>
+    <hyperlink ref="D37" r:id="rId3" xr:uid="{4B367342-2FC3-E140-A9EC-CB0227AE528A}"/>
     <hyperlink ref="D19" r:id="rId4" display="https://www.vacancies.ed.ac.uk/pls/corehrrecruit/erq_jobspec_version_4.jobspec?p_id=050154" xr:uid="{200AE473-7A60-B148-BA2A-18A77C170360}"/>
     <hyperlink ref="D20" r:id="rId5" display="https://www.recruit.ox.ac.uk/pls/hrisliverecruit/erq_jobspec_version_4.jobspec?p_id=143481" xr:uid="{07A2CD43-8F6C-854C-9BA5-EE4023673833}"/>
-    <hyperlink ref="D49" r:id="rId6" xr:uid="{155296AC-9F8B-B042-9832-B901625AED63}"/>
-    <hyperlink ref="N54" r:id="rId7" xr:uid="{583F2481-3CD7-8046-A18C-8F9F21DC23E3}"/>
+    <hyperlink ref="D52" r:id="rId6" xr:uid="{155296AC-9F8B-B042-9832-B901625AED63}"/>
+    <hyperlink ref="N57" r:id="rId7" xr:uid="{583F2481-3CD7-8046-A18C-8F9F21DC23E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4075,9 +4218,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E1F877-7631-084F-B95D-E28DC512FF41}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4176,7 +4319,7 @@
       <c r="C4" s="14">
         <v>43789</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="50" t="s">
         <v>201</v>
       </c>
       <c r="E4" s="21" t="s">
@@ -4202,7 +4345,7 @@
       <c r="C5" s="14">
         <v>43789</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="50" t="s">
         <v>201</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -4335,8 +4478,8 @@
       <c r="D10" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>201</v>
+      <c r="E10" s="17" t="s">
+        <v>204</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>169</v>
@@ -4384,7 +4527,7 @@
       <c r="C12" s="14">
         <v>43812</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="50" t="s">
         <v>201</v>
       </c>
       <c r="E12" s="17" t="s">

--- a/Postdocs19.xlsx
+++ b/Postdocs19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DJBruce/Application-Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F64958-7CD4-594D-9EF6-13B49F979901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CB5304-9091-D34F-BBF8-39FCFB795C3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="220">
   <si>
     <t xml:space="preserve">Arizona State University </t>
   </si>
@@ -668,6 +668,30 @@
   </si>
   <si>
     <t>Statement of Purpose</t>
+  </si>
+  <si>
+    <t>Instiute for Advanced Studies</t>
+  </si>
+  <si>
+    <t>IAS-MEMBER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princeton University </t>
+  </si>
+  <si>
+    <t>PU-PUJRFAC</t>
+  </si>
+  <si>
+    <t>University of Colorado, Boulder</t>
+  </si>
+  <si>
+    <t>CUBoulder-POSTDOC</t>
+  </si>
+  <si>
+    <t>University of Wisconsin, Madison</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UoWM-VVAP2020 </t>
   </si>
 </sst>
 </file>
@@ -930,7 +954,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1085,6 +1109,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1406,11 +1436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C862073-6331-234F-B2D0-82C360D0D85F}">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3393,22 +3423,22 @@
     </row>
     <row r="47" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
-        <v>105</v>
+        <v>212</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="C47" s="30">
-        <v>43801</v>
-      </c>
-      <c r="D47" s="32" t="s">
+        <v>43800</v>
+      </c>
+      <c r="D47" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E47" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G47" s="22" t="s">
         <v>20</v>
@@ -3417,7 +3447,7 @@
         <v>20</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J47" s="22" t="s">
         <v>23</v>
@@ -3425,8 +3455,8 @@
       <c r="K47" s="22">
         <v>3</v>
       </c>
-      <c r="L47" s="33">
-        <v>1</v>
+      <c r="L47" s="22">
+        <v>0</v>
       </c>
       <c r="M47" s="22" t="s">
         <v>23</v>
@@ -3435,13 +3465,13 @@
     </row>
     <row r="48" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>115</v>
+        <v>214</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>215</v>
       </c>
       <c r="C48" s="30">
-        <v>43801</v>
+        <v>43800</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>2</v>
@@ -3465,27 +3495,25 @@
         <v>23</v>
       </c>
       <c r="K48" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L48" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N48" s="31" t="s">
-        <v>116</v>
-      </c>
+      <c r="N48" s="22"/>
     </row>
     <row r="49" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="23">
-        <v>43805</v>
+        <v>216</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" s="30">
+        <v>43800</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>2</v>
@@ -3494,10 +3522,10 @@
         <v>20</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H49" s="22" t="s">
         <v>20</v>
@@ -3506,10 +3534,10 @@
         <v>23</v>
       </c>
       <c r="J49" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K49" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L49" s="22">
         <v>1</v>
@@ -3521,19 +3549,19 @@
     </row>
     <row r="50" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C50" s="30">
-        <v>43806</v>
-      </c>
-      <c r="D50" s="24" t="s">
+        <v>43801</v>
+      </c>
+      <c r="D50" s="32" t="s">
         <v>2</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F50" s="22" t="s">
         <v>20</v>
@@ -3553,7 +3581,7 @@
       <c r="K50" s="22">
         <v>3</v>
       </c>
-      <c r="L50" s="22">
+      <c r="L50" s="33">
         <v>1</v>
       </c>
       <c r="M50" s="22" t="s">
@@ -3563,15 +3591,15 @@
     </row>
     <row r="51" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="22" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C51" s="30">
-        <v>43806</v>
-      </c>
-      <c r="D51" s="32" t="s">
+        <v>43801</v>
+      </c>
+      <c r="D51" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E51" s="25" t="s">
@@ -3602,68 +3630,66 @@
         <v>23</v>
       </c>
       <c r="N51" s="31" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="37" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C52" s="30">
-        <v>43812</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>142</v>
+        <v>1</v>
+      </c>
+      <c r="C52" s="23">
+        <v>43805</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>2</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="J52" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K52" s="22">
         <v>3</v>
       </c>
       <c r="L52" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N52" s="31" t="s">
-        <v>145</v>
-      </c>
+      <c r="N52" s="22"/>
     </row>
     <row r="53" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="22" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="23">
-        <v>43814</v>
+        <v>124</v>
+      </c>
+      <c r="C53" s="30">
+        <v>43806</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F53" s="22" t="s">
         <v>20</v>
@@ -3689,25 +3715,23 @@
       <c r="M53" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N53" s="22" t="s">
-        <v>75</v>
-      </c>
+      <c r="N53" s="22"/>
     </row>
     <row r="54" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="23">
-        <v>43814</v>
-      </c>
-      <c r="D54" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="30">
+        <v>43806</v>
+      </c>
+      <c r="D54" s="32" t="s">
         <v>2</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F54" s="22" t="s">
         <v>20</v>
@@ -3716,10 +3740,10 @@
         <v>20</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J54" s="22" t="s">
         <v>23</v>
@@ -3733,35 +3757,37 @@
       <c r="M54" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N54" s="22"/>
+      <c r="N54" s="31" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>164</v>
+        <v>140</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C55" s="30">
-        <v>43814</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>2</v>
+        <v>43812</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>142</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G55" s="22" t="s">
         <v>20</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="J55" s="22" t="s">
         <v>23</v>
@@ -3775,17 +3801,19 @@
       <c r="M55" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N55" s="22"/>
+      <c r="N55" s="31" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="56" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="22" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C56" s="23">
-        <v>43815</v>
+        <v>43814</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>2</v>
@@ -3803,7 +3831,7 @@
         <v>20</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J56" s="22" t="s">
         <v>23</v>
@@ -3817,23 +3845,25 @@
       <c r="M56" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N56" s="22"/>
+      <c r="N56" s="22" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="57" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C57" s="48">
-        <v>43815</v>
+        <v>63</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="23">
+        <v>43814</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>175</v>
+        <v>2</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F57" s="22" t="s">
         <v>20</v>
@@ -3842,10 +3872,10 @@
         <v>20</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J57" s="22" t="s">
         <v>23</v>
@@ -3854,24 +3884,22 @@
         <v>3</v>
       </c>
       <c r="L57" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N57" s="49" t="s">
-        <v>196</v>
-      </c>
+      <c r="N57" s="22"/>
     </row>
     <row r="58" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="52">
-        <v>43834</v>
+        <v>163</v>
+      </c>
+      <c r="B58" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" s="54">
+        <v>43814</v>
       </c>
       <c r="D58" s="39" t="s">
         <v>2</v>
@@ -3880,7 +3908,7 @@
         <v>20</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>20</v>
@@ -3889,7 +3917,7 @@
         <v>20</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J58" s="38" t="s">
         <v>23</v>
@@ -3907,13 +3935,13 @@
     </row>
     <row r="59" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>120</v>
+        <v>218</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>219</v>
       </c>
       <c r="C59" s="30">
-        <v>43836</v>
+        <v>43814</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>2</v>
@@ -3936,8 +3964,8 @@
       <c r="J59" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K59" s="22">
-        <v>3</v>
+      <c r="K59" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="L59" s="22">
         <v>1</v>
@@ -3949,19 +3977,19 @@
     </row>
     <row r="60" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="38" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C60" s="52">
-        <v>43847</v>
+        <v>43815</v>
       </c>
       <c r="D60" s="39" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F60" s="38" t="s">
         <v>20</v>
@@ -3990,56 +4018,58 @@
       <c r="N60" s="41"/>
     </row>
     <row r="61" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" s="44">
-        <v>44043</v>
-      </c>
-      <c r="D61" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F61" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="K61" s="43">
-        <v>3</v>
-      </c>
-      <c r="L61" s="43">
-        <v>1</v>
-      </c>
-      <c r="M61" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="N61" s="43"/>
+      <c r="A61" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" s="48">
+        <v>43815</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61" s="22">
+        <v>3</v>
+      </c>
+      <c r="L61" s="22">
+        <v>0</v>
+      </c>
+      <c r="M61" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N61" s="49" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="22" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C62" s="23">
-        <v>44044</v>
+        <v>43834</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>2</v>
@@ -4054,10 +4084,10 @@
         <v>20</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I62" s="22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J62" s="22" t="s">
         <v>23</v>
@@ -4065,8 +4095,8 @@
       <c r="K62" s="22">
         <v>3</v>
       </c>
-      <c r="L62" s="22" t="s">
-        <v>27</v>
+      <c r="L62" s="22">
+        <v>0</v>
       </c>
       <c r="M62" s="22" t="s">
         <v>23</v>
@@ -4075,13 +4105,13 @@
     </row>
     <row r="63" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="22" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>5</v>
+        <v>120</v>
+      </c>
+      <c r="C63" s="30">
+        <v>43836</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>2</v>
@@ -4090,7 +4120,7 @@
         <v>20</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G63" s="22" t="s">
         <v>20</v>
@@ -4099,13 +4129,13 @@
         <v>20</v>
       </c>
       <c r="I63" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J63" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K63" s="22" t="s">
-        <v>24</v>
+      <c r="K63" s="22">
+        <v>3</v>
       </c>
       <c r="L63" s="22">
         <v>1</v>
@@ -4117,17 +4147,19 @@
     </row>
     <row r="64" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="22"/>
+        <v>61</v>
+      </c>
+      <c r="C64" s="23">
+        <v>43847</v>
+      </c>
       <c r="D64" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F64" s="22" t="s">
         <v>20</v>
@@ -4139,7 +4171,7 @@
         <v>20</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J64" s="22" t="s">
         <v>23</v>
@@ -4151,55 +4183,221 @@
         <v>1</v>
       </c>
       <c r="M64" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N64" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N64" s="22"/>
+    </row>
+    <row r="65" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="44">
+        <v>44043</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K65" s="43">
+        <v>3</v>
+      </c>
+      <c r="L65" s="43">
+        <v>1</v>
+      </c>
+      <c r="M65" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="N65" s="43"/>
+    </row>
+    <row r="66" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="23">
+        <v>44044</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I66" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66" s="22">
+        <v>3</v>
+      </c>
+      <c r="L66" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M66" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66" s="22"/>
+    </row>
+    <row r="67" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J67" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L67" s="22">
+        <v>1</v>
+      </c>
+      <c r="M67" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N67" s="22"/>
+    </row>
+    <row r="68" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="22"/>
+      <c r="D68" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68" s="22">
+        <v>3</v>
+      </c>
+      <c r="L68" s="22">
+        <v>1</v>
+      </c>
+      <c r="M68" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N68" s="22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="22" t="s">
+    <row r="69" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B69" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I65" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J65" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K65" s="22">
-        <v>3</v>
-      </c>
-      <c r="L65" s="22">
+      <c r="C69" s="33"/>
+      <c r="D69" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J69" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" s="22">
+        <v>3</v>
+      </c>
+      <c r="L69" s="22">
         <v>0</v>
       </c>
-      <c r="M65" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N65" s="22"/>
+      <c r="M69" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N69" s="22"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N65">
-    <sortCondition ref="C2:C65"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N69">
+    <sortCondition ref="C2:C69"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D24" r:id="rId1" display="https://recruit.ucdavis.edu/JPF02950" xr:uid="{83E02472-223D-514A-82F7-94F8C5C76C6F}"/>
@@ -4207,8 +4405,8 @@
     <hyperlink ref="D37" r:id="rId3" xr:uid="{4B367342-2FC3-E140-A9EC-CB0227AE528A}"/>
     <hyperlink ref="D19" r:id="rId4" display="https://www.vacancies.ed.ac.uk/pls/corehrrecruit/erq_jobspec_version_4.jobspec?p_id=050154" xr:uid="{200AE473-7A60-B148-BA2A-18A77C170360}"/>
     <hyperlink ref="D20" r:id="rId5" display="https://www.recruit.ox.ac.uk/pls/hrisliverecruit/erq_jobspec_version_4.jobspec?p_id=143481" xr:uid="{07A2CD43-8F6C-854C-9BA5-EE4023673833}"/>
-    <hyperlink ref="D52" r:id="rId6" xr:uid="{155296AC-9F8B-B042-9832-B901625AED63}"/>
-    <hyperlink ref="N57" r:id="rId7" xr:uid="{583F2481-3CD7-8046-A18C-8F9F21DC23E3}"/>
+    <hyperlink ref="D55" r:id="rId6" xr:uid="{155296AC-9F8B-B042-9832-B901625AED63}"/>
+    <hyperlink ref="N61" r:id="rId7" xr:uid="{583F2481-3CD7-8046-A18C-8F9F21DC23E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Postdocs19.xlsx
+++ b/Postdocs19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DJBruce/Application-Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CB5304-9091-D34F-BBF8-39FCFB795C3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8332D279-9FAD-A948-97BE-7E904CBA6978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="222">
   <si>
     <t xml:space="preserve">Arizona State University </t>
   </si>
@@ -692,6 +692,12 @@
   </si>
   <si>
     <t xml:space="preserve"> UoWM-VVAP2020 </t>
+  </si>
+  <si>
+    <t>Smith College</t>
+  </si>
+  <si>
+    <t>Smith-ORP</t>
   </si>
 </sst>
 </file>
@@ -1436,11 +1442,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C862073-6331-234F-B2D0-82C360D0D85F}">
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2184,13 +2190,13 @@
     </row>
     <row r="18" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>58</v>
+        <v>220</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="23">
-        <v>43787</v>
+        <v>221</v>
+      </c>
+      <c r="C18" s="48">
+        <v>43784</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>2</v>
@@ -2208,7 +2214,7 @@
         <v>20</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J18" s="22" t="s">
         <v>23</v>
@@ -2222,26 +2228,26 @@
       <c r="M18" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="22"/>
+      <c r="N18" s="51"/>
     </row>
     <row r="19" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="30">
-        <v>43789</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>132</v>
+        <v>59</v>
+      </c>
+      <c r="C19" s="23">
+        <v>43787</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>2</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G19" s="22" t="s">
         <v>20</v>
@@ -2250,39 +2256,37 @@
         <v>20</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J19" s="22" t="s">
         <v>23</v>
       </c>
       <c r="K19" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N19" s="31" t="s">
-        <v>133</v>
-      </c>
+      <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>131</v>
       </c>
       <c r="C20" s="30">
         <v>43789</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>23</v>
@@ -2300,7 +2304,7 @@
         <v>23</v>
       </c>
       <c r="K20" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20" s="22">
         <v>0</v>
@@ -2309,21 +2313,21 @@
         <v>23</v>
       </c>
       <c r="N20" s="31" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>181</v>
+        <v>134</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>135</v>
       </c>
       <c r="C21" s="30">
-        <v>43791</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>2</v>
+        <v>43789</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>136</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>20</v>
@@ -2338,13 +2342,13 @@
         <v>20</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J21" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="33">
-        <v>3</v>
+      <c r="K21" s="22">
+        <v>2</v>
       </c>
       <c r="L21" s="22">
         <v>0</v>
@@ -2352,17 +2356,19 @@
       <c r="M21" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="22"/>
+      <c r="N21" s="31" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="22" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22" s="48">
-        <v>43794</v>
+        <v>181</v>
+      </c>
+      <c r="C22" s="30">
+        <v>43791</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>2</v>
@@ -2380,12 +2386,12 @@
         <v>20</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J22" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="33">
         <v>3</v>
       </c>
       <c r="L22" s="22">
@@ -2394,23 +2400,23 @@
       <c r="M22" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N22" s="51"/>
+      <c r="N22" s="22"/>
     </row>
     <row r="23" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="30">
-        <v>43798</v>
+        <v>208</v>
+      </c>
+      <c r="C23" s="48">
+        <v>43794</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F23" s="22" t="s">
         <v>23</v>
@@ -2427,36 +2433,36 @@
       <c r="J23" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="42" t="s">
-        <v>91</v>
+      <c r="K23" s="22">
+        <v>3</v>
       </c>
       <c r="L23" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N23" s="22"/>
+      <c r="N23" s="51"/>
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C24" s="30">
-        <v>43799</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>102</v>
+        <v>43798</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>2</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>20</v>
@@ -2470,8 +2476,8 @@
       <c r="J24" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="22">
-        <v>4</v>
+      <c r="K24" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="L24" s="22">
         <v>1</v>
@@ -2484,16 +2490,16 @@
     </row>
     <row r="25" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="23">
-        <v>43800</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>2</v>
+        <v>101</v>
+      </c>
+      <c r="C25" s="30">
+        <v>43799</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>102</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>20</v>
@@ -2508,42 +2514,44 @@
         <v>20</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="K25" s="22">
+        <v>4</v>
+      </c>
+      <c r="L25" s="22">
+        <v>1</v>
       </c>
       <c r="M25" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="22" t="s">
-        <v>83</v>
-      </c>
+      <c r="N25" s="22"/>
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C26" s="23">
         <v>43800</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>20</v>
+      </c>
       <c r="G26" s="22" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="H26" s="22" t="s">
         <v>20</v>
@@ -2552,71 +2560,69 @@
         <v>20</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="L26" s="22">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="M26" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N26" s="22" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C27" s="23">
         <v>43800</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>20</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="22"/>
       <c r="G27" s="22" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H27" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J27" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="22">
-        <v>3</v>
+      <c r="K27" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="L27" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N27" s="22"/>
+      <c r="N27" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C28" s="23">
         <v>43800</v>
@@ -2628,16 +2634,16 @@
         <v>20</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="H28" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J28" s="22" t="s">
         <v>23</v>
@@ -2656,10 +2662,10 @@
     </row>
     <row r="29" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C29" s="23">
         <v>43800</v>
@@ -2671,10 +2677,10 @@
         <v>20</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="H29" s="22" t="s">
         <v>20</v>
@@ -2699,12 +2705,12 @@
     </row>
     <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="30">
+        <v>71</v>
+      </c>
+      <c r="C30" s="23">
         <v>43800</v>
       </c>
       <c r="D30" s="24" t="s">
@@ -2742,16 +2748,16 @@
     </row>
     <row r="31" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C31" s="30">
         <v>43800</v>
       </c>
-      <c r="D31" s="36" t="s">
-        <v>97</v>
+      <c r="D31" s="24" t="s">
+        <v>2</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>20</v>
@@ -2766,7 +2772,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J31" s="22" t="s">
         <v>23</v>
@@ -2788,13 +2794,13 @@
         <v>95</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C32" s="30">
         <v>43800</v>
       </c>
-      <c r="D32" s="35" t="s">
-        <v>99</v>
+      <c r="D32" s="36" t="s">
+        <v>97</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>20</v>
@@ -2814,9 +2820,11 @@
       <c r="J32" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="22"/>
+      <c r="K32" s="22">
+        <v>3</v>
+      </c>
       <c r="L32" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="26" t="s">
         <v>23</v>
@@ -2826,16 +2834,16 @@
     </row>
     <row r="33" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C33" s="30">
         <v>43800</v>
       </c>
-      <c r="D33" s="24" t="s">
-        <v>2</v>
+      <c r="D33" s="35" t="s">
+        <v>99</v>
       </c>
       <c r="E33" s="25" t="s">
         <v>20</v>
@@ -2850,16 +2858,14 @@
         <v>20</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="J33" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="22">
-        <v>3</v>
-      </c>
-      <c r="L33" s="22" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22">
+        <v>0</v>
       </c>
       <c r="M33" s="26" t="s">
         <v>23</v>
@@ -2869,10 +2875,10 @@
     </row>
     <row r="34" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C34" s="30">
         <v>43800</v>
@@ -2893,16 +2899,16 @@
         <v>20</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" s="33" t="s">
         <v>23</v>
       </c>
       <c r="K34" s="22">
         <v>3</v>
       </c>
-      <c r="L34" s="22">
-        <v>1</v>
+      <c r="L34" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="M34" s="22" t="s">
         <v>23</v>
@@ -2911,10 +2917,10 @@
     </row>
     <row r="35" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C35" s="30">
         <v>43800</v>
@@ -2953,10 +2959,10 @@
     </row>
     <row r="36" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C36" s="30">
         <v>43800</v>
@@ -2977,7 +2983,7 @@
         <v>20</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J36" s="22" t="s">
         <v>23</v>
@@ -2995,22 +3001,22 @@
     </row>
     <row r="37" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C37" s="30">
         <v>43800</v>
       </c>
-      <c r="D37" s="35" t="s">
-        <v>129</v>
+      <c r="D37" s="24" t="s">
+        <v>2</v>
       </c>
       <c r="E37" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="G37" s="22" t="s">
         <v>20</v>
@@ -3028,7 +3034,7 @@
         <v>3</v>
       </c>
       <c r="L37" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="22" t="s">
         <v>23</v>
@@ -3037,22 +3043,22 @@
     </row>
     <row r="38" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="23">
+        <v>128</v>
+      </c>
+      <c r="C38" s="30">
         <v>43800</v>
       </c>
-      <c r="D38" s="24" t="s">
-        <v>81</v>
+      <c r="D38" s="35" t="s">
+        <v>129</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>20</v>
@@ -3061,13 +3067,13 @@
         <v>20</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J38" s="22" t="s">
         <v>23</v>
       </c>
       <c r="K38" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L38" s="22">
         <v>0</v>
@@ -3075,28 +3081,26 @@
       <c r="M38" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N38" s="22" t="s">
-        <v>82</v>
-      </c>
+      <c r="N38" s="22"/>
     </row>
     <row r="39" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="C39" s="30">
+        <v>36</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="23">
         <v>43800</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G39" s="22" t="s">
         <v>20</v>
@@ -3105,13 +3109,13 @@
         <v>20</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J39" s="22" t="s">
         <v>23</v>
       </c>
       <c r="K39" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L39" s="22">
         <v>0</v>
@@ -3119,20 +3123,22 @@
       <c r="M39" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N39" s="22"/>
+      <c r="N39" s="22" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="40" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>178</v>
+        <v>85</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="C40" s="30">
         <v>43800</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="E40" s="25" t="s">
         <v>20</v>
@@ -3152,8 +3158,8 @@
       <c r="J40" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K40" s="22" t="s">
-        <v>24</v>
+      <c r="K40" s="22">
+        <v>3</v>
       </c>
       <c r="L40" s="22">
         <v>0</v>
@@ -3165,22 +3171,22 @@
     </row>
     <row r="41" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>183</v>
+        <v>177</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>178</v>
       </c>
       <c r="C41" s="30">
         <v>43800</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G41" s="22" t="s">
         <v>20</v>
@@ -3189,13 +3195,13 @@
         <v>20</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J41" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K41" s="33">
-        <v>4</v>
+      <c r="K41" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="L41" s="22">
         <v>0</v>
@@ -3207,10 +3213,10 @@
     </row>
     <row r="42" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C42" s="30">
         <v>43800</v>
@@ -3219,10 +3225,10 @@
         <v>2</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G42" s="22" t="s">
         <v>20</v>
@@ -3231,13 +3237,13 @@
         <v>20</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J42" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K42" s="22" t="s">
-        <v>24</v>
+      <c r="K42" s="33">
+        <v>4</v>
       </c>
       <c r="L42" s="22">
         <v>0</v>
@@ -3245,16 +3251,14 @@
       <c r="M42" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N42" s="31" t="s">
-        <v>192</v>
-      </c>
+      <c r="N42" s="22"/>
     </row>
     <row r="43" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C43" s="30">
         <v>43800</v>
@@ -3275,34 +3279,36 @@
         <v>20</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J43" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K43" s="22">
-        <v>3</v>
+      <c r="K43" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="L43" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N43" s="22"/>
+      <c r="N43" s="31" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="44" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>197</v>
       </c>
       <c r="C44" s="30">
         <v>43800</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>175</v>
+        <v>2</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>20</v>
@@ -3323,7 +3329,7 @@
         <v>23</v>
       </c>
       <c r="K44" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L44" s="22">
         <v>1</v>
@@ -3331,22 +3337,20 @@
       <c r="M44" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N44" s="22" t="s">
-        <v>200</v>
-      </c>
+      <c r="N44" s="22"/>
     </row>
     <row r="45" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="C45" s="48">
+        <v>198</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="30">
         <v>43800</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="E45" s="25" t="s">
         <v>20</v>
@@ -3361,13 +3365,13 @@
         <v>20</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J45" s="22" t="s">
         <v>23</v>
       </c>
       <c r="K45" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L45" s="22">
         <v>1</v>
@@ -3375,14 +3379,16 @@
       <c r="M45" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N45" s="51"/>
+      <c r="N45" s="22" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="46" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>210</v>
+        <v>205</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>206</v>
       </c>
       <c r="C46" s="48">
         <v>43800</v>
@@ -3391,13 +3397,13 @@
         <v>2</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H46" s="22" t="s">
         <v>20</v>
@@ -3412,42 +3418,40 @@
         <v>3</v>
       </c>
       <c r="L46" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N46" s="51" t="s">
-        <v>211</v>
-      </c>
+      <c r="N46" s="51"/>
     </row>
     <row r="47" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="C47" s="30">
+        <v>210</v>
+      </c>
+      <c r="C47" s="48">
         <v>43800</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F47" s="22" t="s">
         <v>23</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H47" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J47" s="22" t="s">
         <v>23</v>
@@ -3461,14 +3465,16 @@
       <c r="M47" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N47" s="22"/>
+      <c r="N47" s="51" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="48" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>215</v>
+        <v>212</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>213</v>
       </c>
       <c r="C48" s="30">
         <v>43800</v>
@@ -3480,7 +3486,7 @@
         <v>20</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G48" s="22" t="s">
         <v>20</v>
@@ -3489,13 +3495,13 @@
         <v>20</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J48" s="22" t="s">
         <v>23</v>
       </c>
       <c r="K48" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L48" s="22">
         <v>0</v>
@@ -3507,10 +3513,10 @@
     </row>
     <row r="49" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C49" s="30">
         <v>43800</v>
@@ -3531,16 +3537,16 @@
         <v>20</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J49" s="22" t="s">
         <v>23</v>
       </c>
       <c r="K49" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L49" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" s="22" t="s">
         <v>23</v>
@@ -3549,15 +3555,15 @@
     </row>
     <row r="50" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>106</v>
+        <v>216</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>217</v>
       </c>
       <c r="C50" s="30">
-        <v>43801</v>
-      </c>
-      <c r="D50" s="32" t="s">
+        <v>43800</v>
+      </c>
+      <c r="D50" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E50" s="25" t="s">
@@ -3573,15 +3579,15 @@
         <v>20</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J50" s="22" t="s">
         <v>23</v>
       </c>
       <c r="K50" s="22">
-        <v>3</v>
-      </c>
-      <c r="L50" s="33">
+        <v>2</v>
+      </c>
+      <c r="L50" s="22">
         <v>1</v>
       </c>
       <c r="M50" s="22" t="s">
@@ -3591,15 +3597,15 @@
     </row>
     <row r="51" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="22" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C51" s="30">
         <v>43801</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="32" t="s">
         <v>2</v>
       </c>
       <c r="E51" s="25" t="s">
@@ -3623,25 +3629,23 @@
       <c r="K51" s="22">
         <v>3</v>
       </c>
-      <c r="L51" s="22">
+      <c r="L51" s="33">
         <v>1</v>
       </c>
       <c r="M51" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N51" s="31" t="s">
-        <v>116</v>
-      </c>
+      <c r="N51" s="22"/>
     </row>
     <row r="52" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="37" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="23">
-        <v>43805</v>
+        <v>115</v>
+      </c>
+      <c r="C52" s="30">
+        <v>43801</v>
       </c>
       <c r="D52" s="24" t="s">
         <v>2</v>
@@ -3650,19 +3654,19 @@
         <v>20</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H52" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J52" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K52" s="22">
         <v>3</v>
@@ -3673,38 +3677,40 @@
       <c r="M52" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N52" s="22"/>
+      <c r="N52" s="31" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="53" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="22" t="s">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="30">
-        <v>43806</v>
+        <v>1</v>
+      </c>
+      <c r="C53" s="23">
+        <v>43805</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H53" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J53" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K53" s="22">
         <v>3</v>
@@ -3722,16 +3728,16 @@
         <v>123</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C54" s="30">
         <v>43806</v>
       </c>
-      <c r="D54" s="32" t="s">
+      <c r="D54" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F54" s="22" t="s">
         <v>20</v>
@@ -3757,37 +3763,35 @@
       <c r="M54" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N54" s="31" t="s">
-        <v>147</v>
-      </c>
+      <c r="N54" s="22"/>
     </row>
     <row r="55" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="22" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C55" s="30">
-        <v>43812</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>142</v>
+        <v>43806</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>2</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G55" s="22" t="s">
         <v>20</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="J55" s="22" t="s">
         <v>23</v>
@@ -3796,42 +3800,42 @@
         <v>3</v>
       </c>
       <c r="L55" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" s="22" t="s">
         <v>23</v>
       </c>
       <c r="N55" s="31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="22" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" s="23">
-        <v>43814</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>2</v>
+        <v>141</v>
+      </c>
+      <c r="C56" s="30">
+        <v>43812</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>142</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G56" s="22" t="s">
         <v>20</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="J56" s="22" t="s">
         <v>23</v>
@@ -3840,21 +3844,21 @@
         <v>3</v>
       </c>
       <c r="L56" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N56" s="22" t="s">
-        <v>75</v>
+      <c r="N56" s="31" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C57" s="23">
         <v>43814</v>
@@ -3863,7 +3867,7 @@
         <v>2</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F57" s="22" t="s">
         <v>20</v>
@@ -3872,10 +3876,10 @@
         <v>20</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J57" s="22" t="s">
         <v>23</v>
@@ -3889,23 +3893,25 @@
       <c r="M57" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N57" s="22"/>
+      <c r="N57" s="22" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="58" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="B58" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58" s="54">
+        <v>63</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="52">
         <v>43814</v>
       </c>
       <c r="D58" s="39" t="s">
         <v>2</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F58" s="38" t="s">
         <v>20</v>
@@ -3914,7 +3920,7 @@
         <v>20</v>
       </c>
       <c r="H58" s="38" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I58" s="38" t="s">
         <v>23</v>
@@ -3926,7 +3932,7 @@
         <v>3</v>
       </c>
       <c r="L58" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" s="38" t="s">
         <v>23</v>
@@ -3935,10 +3941,10 @@
     </row>
     <row r="59" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="22" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="C59" s="30">
         <v>43814</v>
@@ -3959,16 +3965,16 @@
         <v>20</v>
       </c>
       <c r="I59" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J59" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K59" s="22" t="s">
-        <v>24</v>
+      <c r="K59" s="22">
+        <v>3</v>
       </c>
       <c r="L59" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" s="22" t="s">
         <v>23</v>
@@ -3977,13 +3983,13 @@
     </row>
     <row r="60" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="52">
-        <v>43815</v>
+        <v>218</v>
+      </c>
+      <c r="B60" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="C60" s="54">
+        <v>43814</v>
       </c>
       <c r="D60" s="39" t="s">
         <v>2</v>
@@ -4001,13 +4007,13 @@
         <v>20</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J60" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="K60" s="38">
-        <v>3</v>
+      <c r="K60" s="38" t="s">
+        <v>24</v>
       </c>
       <c r="L60" s="38">
         <v>1</v>
@@ -4019,16 +4025,16 @@
     </row>
     <row r="61" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C61" s="48">
+        <v>50</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="23">
         <v>43815</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>175</v>
+        <v>2</v>
       </c>
       <c r="E61" s="25" t="s">
         <v>20</v>
@@ -4043,7 +4049,7 @@
         <v>20</v>
       </c>
       <c r="I61" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J61" s="22" t="s">
         <v>23</v>
@@ -4052,33 +4058,31 @@
         <v>3</v>
       </c>
       <c r="L61" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N61" s="49" t="s">
-        <v>196</v>
-      </c>
+      <c r="N61" s="22"/>
     </row>
     <row r="62" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="23">
-        <v>43834</v>
+        <v>194</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C62" s="48">
+        <v>43815</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="E62" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G62" s="22" t="s">
         <v>20</v>
@@ -4087,7 +4091,7 @@
         <v>20</v>
       </c>
       <c r="I62" s="22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J62" s="22" t="s">
         <v>23</v>
@@ -4101,17 +4105,19 @@
       <c r="M62" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N62" s="22"/>
+      <c r="N62" s="49" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="63" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="22" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C63" s="30">
-        <v>43836</v>
+        <v>6</v>
+      </c>
+      <c r="C63" s="23">
+        <v>43834</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>2</v>
@@ -4120,7 +4126,7 @@
         <v>20</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G63" s="22" t="s">
         <v>20</v>
@@ -4129,7 +4135,7 @@
         <v>20</v>
       </c>
       <c r="I63" s="22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J63" s="22" t="s">
         <v>23</v>
@@ -4138,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="L63" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" s="22" t="s">
         <v>23</v>
@@ -4147,19 +4153,19 @@
     </row>
     <row r="64" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" s="23">
-        <v>43847</v>
+        <v>120</v>
+      </c>
+      <c r="C64" s="30">
+        <v>43836</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F64" s="22" t="s">
         <v>20</v>
@@ -4171,7 +4177,7 @@
         <v>20</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J64" s="22" t="s">
         <v>23</v>
@@ -4188,98 +4194,98 @@
       <c r="N64" s="22"/>
     </row>
     <row r="65" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="43" t="s">
+      <c r="A65" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="23">
+        <v>43847</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J65" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K65" s="22">
+        <v>3</v>
+      </c>
+      <c r="L65" s="22">
+        <v>1</v>
+      </c>
+      <c r="M65" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N65" s="22"/>
+    </row>
+    <row r="66" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B65" s="43" t="s">
+      <c r="B66" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C65" s="44">
+      <c r="C66" s="44">
         <v>44043</v>
       </c>
-      <c r="D65" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="I65" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J65" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="K65" s="43">
-        <v>3</v>
-      </c>
-      <c r="L65" s="43">
+      <c r="D66" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66" s="43">
+        <v>3</v>
+      </c>
+      <c r="L66" s="43">
         <v>1</v>
       </c>
-      <c r="M65" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="N65" s="43"/>
-    </row>
-    <row r="66" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66" s="23">
-        <v>44044</v>
-      </c>
-      <c r="D66" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="I66" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J66" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K66" s="22">
-        <v>3</v>
-      </c>
-      <c r="L66" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="M66" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N66" s="22"/>
+      <c r="M66" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66" s="43"/>
     </row>
     <row r="67" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="22" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>5</v>
+        <v>34</v>
+      </c>
+      <c r="C67" s="23">
+        <v>44044</v>
       </c>
       <c r="D67" s="24" t="s">
         <v>2</v>
@@ -4294,19 +4300,19 @@
         <v>20</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I67" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J67" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K67" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="L67" s="22">
-        <v>1</v>
+      <c r="K67" s="22">
+        <v>3</v>
+      </c>
+      <c r="L67" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="M67" s="22" t="s">
         <v>23</v>
@@ -4315,12 +4321,14 @@
     </row>
     <row r="68" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="22"/>
+        <v>4</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>5</v>
+      </c>
       <c r="D68" s="24" t="s">
         <v>2</v>
       </c>
@@ -4328,7 +4336,7 @@
         <v>20</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G68" s="22" t="s">
         <v>20</v>
@@ -4337,76 +4345,116 @@
         <v>20</v>
       </c>
       <c r="I68" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J68" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K68" s="22">
-        <v>3</v>
+      <c r="K68" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="L68" s="22">
         <v>1</v>
       </c>
       <c r="M68" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N68" s="22" t="s">
-        <v>73</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="N68" s="22"/>
     </row>
     <row r="69" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="22"/>
+      <c r="D69" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" s="22">
+        <v>3</v>
+      </c>
+      <c r="L69" s="22">
+        <v>1</v>
+      </c>
+      <c r="M69" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N69" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B70" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="C69" s="33"/>
-      <c r="D69" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F69" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I69" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J69" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K69" s="22">
-        <v>3</v>
-      </c>
-      <c r="L69" s="22">
+      <c r="C70" s="33"/>
+      <c r="D70" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K70" s="22">
+        <v>3</v>
+      </c>
+      <c r="L70" s="22">
         <v>0</v>
       </c>
-      <c r="M69" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N69" s="22"/>
+      <c r="M70" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N70" s="22"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N69">
-    <sortCondition ref="C2:C69"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N70">
+    <sortCondition ref="C2:C70"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D24" r:id="rId1" display="https://recruit.ucdavis.edu/JPF02950" xr:uid="{83E02472-223D-514A-82F7-94F8C5C76C6F}"/>
-    <hyperlink ref="D32" r:id="rId2" xr:uid="{A94B9440-F8F2-1D40-B6F8-BDDE35FB8D62}"/>
-    <hyperlink ref="D37" r:id="rId3" xr:uid="{4B367342-2FC3-E140-A9EC-CB0227AE528A}"/>
-    <hyperlink ref="D19" r:id="rId4" display="https://www.vacancies.ed.ac.uk/pls/corehrrecruit/erq_jobspec_version_4.jobspec?p_id=050154" xr:uid="{200AE473-7A60-B148-BA2A-18A77C170360}"/>
-    <hyperlink ref="D20" r:id="rId5" display="https://www.recruit.ox.ac.uk/pls/hrisliverecruit/erq_jobspec_version_4.jobspec?p_id=143481" xr:uid="{07A2CD43-8F6C-854C-9BA5-EE4023673833}"/>
-    <hyperlink ref="D55" r:id="rId6" xr:uid="{155296AC-9F8B-B042-9832-B901625AED63}"/>
-    <hyperlink ref="N61" r:id="rId7" xr:uid="{583F2481-3CD7-8046-A18C-8F9F21DC23E3}"/>
+    <hyperlink ref="D25" r:id="rId1" display="https://recruit.ucdavis.edu/JPF02950" xr:uid="{83E02472-223D-514A-82F7-94F8C5C76C6F}"/>
+    <hyperlink ref="D33" r:id="rId2" xr:uid="{A94B9440-F8F2-1D40-B6F8-BDDE35FB8D62}"/>
+    <hyperlink ref="D38" r:id="rId3" xr:uid="{4B367342-2FC3-E140-A9EC-CB0227AE528A}"/>
+    <hyperlink ref="D20" r:id="rId4" display="https://www.vacancies.ed.ac.uk/pls/corehrrecruit/erq_jobspec_version_4.jobspec?p_id=050154" xr:uid="{200AE473-7A60-B148-BA2A-18A77C170360}"/>
+    <hyperlink ref="D21" r:id="rId5" display="https://www.recruit.ox.ac.uk/pls/hrisliverecruit/erq_jobspec_version_4.jobspec?p_id=143481" xr:uid="{07A2CD43-8F6C-854C-9BA5-EE4023673833}"/>
+    <hyperlink ref="D56" r:id="rId6" xr:uid="{155296AC-9F8B-B042-9832-B901625AED63}"/>
+    <hyperlink ref="N62" r:id="rId7" xr:uid="{583F2481-3CD7-8046-A18C-8F9F21DC23E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Postdocs19.xlsx
+++ b/Postdocs19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DJBruce/Application-Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8332D279-9FAD-A948-97BE-7E904CBA6978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25172DC7-4906-054C-86CC-89E359122ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="225">
   <si>
     <t xml:space="preserve">Arizona State University </t>
   </si>
@@ -698,6 +698,15 @@
   </si>
   <si>
     <t>Smith-ORP</t>
+  </si>
+  <si>
+    <t>Uploaded 11/20/19</t>
+  </si>
+  <si>
+    <t>Stony Brook University</t>
+  </si>
+  <si>
+    <t>StonyBrook-IMS2020</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C862073-6331-234F-B2D0-82C360D0D85F}">
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4025,13 +4034,13 @@
     </row>
     <row r="61" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" s="23">
-        <v>43815</v>
+        <v>223</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61" s="48">
+        <v>43814</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>2</v>
@@ -4049,34 +4058,34 @@
         <v>20</v>
       </c>
       <c r="I61" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J61" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K61" s="22">
-        <v>3</v>
+      <c r="K61" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="L61" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N61" s="22"/>
+      <c r="N61" s="51"/>
     </row>
     <row r="62" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C62" s="48">
+        <v>50</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="23">
         <v>43815</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>175</v>
+        <v>2</v>
       </c>
       <c r="E62" s="25" t="s">
         <v>20</v>
@@ -4091,7 +4100,7 @@
         <v>20</v>
       </c>
       <c r="I62" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J62" s="22" t="s">
         <v>23</v>
@@ -4100,33 +4109,31 @@
         <v>3</v>
       </c>
       <c r="L62" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N62" s="49" t="s">
-        <v>196</v>
-      </c>
+      <c r="N62" s="22"/>
     </row>
     <row r="63" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="23">
-        <v>43834</v>
+        <v>194</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" s="48">
+        <v>43815</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="E63" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G63" s="22" t="s">
         <v>20</v>
@@ -4135,7 +4142,7 @@
         <v>20</v>
       </c>
       <c r="I63" s="22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J63" s="22" t="s">
         <v>23</v>
@@ -4149,17 +4156,19 @@
       <c r="M63" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N63" s="22"/>
+      <c r="N63" s="49" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="64" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C64" s="30">
-        <v>43836</v>
+        <v>6</v>
+      </c>
+      <c r="C64" s="23">
+        <v>43834</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>2</v>
@@ -4168,7 +4177,7 @@
         <v>20</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G64" s="22" t="s">
         <v>20</v>
@@ -4177,7 +4186,7 @@
         <v>20</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J64" s="22" t="s">
         <v>23</v>
@@ -4186,7 +4195,7 @@
         <v>3</v>
       </c>
       <c r="L64" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" s="22" t="s">
         <v>23</v>
@@ -4195,19 +4204,19 @@
     </row>
     <row r="65" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="22" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" s="23">
-        <v>43847</v>
+        <v>120</v>
+      </c>
+      <c r="C65" s="30">
+        <v>43836</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F65" s="22" t="s">
         <v>20</v>
@@ -4219,7 +4228,7 @@
         <v>20</v>
       </c>
       <c r="I65" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J65" s="22" t="s">
         <v>23</v>
@@ -4236,125 +4245,125 @@
       <c r="N65" s="22"/>
     </row>
     <row r="66" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="43" t="s">
+      <c r="A66" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="23">
+        <v>43847</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J66" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66" s="22">
+        <v>3</v>
+      </c>
+      <c r="L66" s="22">
+        <v>1</v>
+      </c>
+      <c r="M66" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66" s="22"/>
+    </row>
+    <row r="67" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B66" s="43" t="s">
+      <c r="B67" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="44">
+      <c r="C67" s="44">
         <v>44043</v>
       </c>
-      <c r="D66" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="I66" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J66" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="K66" s="43">
+      <c r="D67" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67" s="43">
         <v>3</v>
       </c>
-      <c r="L66" s="43">
+      <c r="L67" s="43">
         <v>1</v>
       </c>
-      <c r="M66" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="N66" s="43"/>
-    </row>
-    <row r="67" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="23">
-        <v>44044</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F67" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H67" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="I67" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J67" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K67" s="22">
-        <v>3</v>
-      </c>
-      <c r="L67" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="M67" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N67" s="22"/>
+      <c r="M67" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="N67" s="43"/>
     </row>
     <row r="68" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="23">
+        <v>44044</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I68" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68" s="22">
         <v>3</v>
       </c>
-      <c r="B68" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F68" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H68" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I68" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J68" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K68" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="L68" s="22">
-        <v>1</v>
+      <c r="L68" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="M68" s="22" t="s">
         <v>23</v>
@@ -4363,12 +4372,14 @@
     </row>
     <row r="69" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="22" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" s="22"/>
+        <v>4</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>5</v>
+      </c>
       <c r="D69" s="24" t="s">
         <v>2</v>
       </c>
@@ -4376,7 +4387,7 @@
         <v>20</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G69" s="22" t="s">
         <v>20</v>
@@ -4385,32 +4396,30 @@
         <v>20</v>
       </c>
       <c r="I69" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J69" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K69" s="22">
-        <v>3</v>
+      <c r="K69" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="L69" s="22">
         <v>1</v>
       </c>
       <c r="M69" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N69" s="22" t="s">
-        <v>73</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="N69" s="22"/>
     </row>
     <row r="70" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="22" t="s">
-        <v>185</v>
+        <v>9</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C70" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="C70" s="22"/>
       <c r="D70" s="24" t="s">
         <v>2</v>
       </c>
@@ -4418,7 +4427,7 @@
         <v>20</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G70" s="22" t="s">
         <v>20</v>
@@ -4427,7 +4436,7 @@
         <v>20</v>
       </c>
       <c r="I70" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J70" s="22" t="s">
         <v>23</v>
@@ -4436,16 +4445,58 @@
         <v>3</v>
       </c>
       <c r="L70" s="22">
+        <v>1</v>
+      </c>
+      <c r="M70" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" s="33"/>
+      <c r="D71" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J71" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K71" s="22">
+        <v>3</v>
+      </c>
+      <c r="L71" s="22">
         <v>0</v>
       </c>
-      <c r="M70" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N70" s="22"/>
+      <c r="M71" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N71" s="22"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N70">
-    <sortCondition ref="C2:C70"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N71">
+    <sortCondition ref="C2:C71"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D25" r:id="rId1" display="https://recruit.ucdavis.edu/JPF02950" xr:uid="{83E02472-223D-514A-82F7-94F8C5C76C6F}"/>
@@ -4454,7 +4505,7 @@
     <hyperlink ref="D20" r:id="rId4" display="https://www.vacancies.ed.ac.uk/pls/corehrrecruit/erq_jobspec_version_4.jobspec?p_id=050154" xr:uid="{200AE473-7A60-B148-BA2A-18A77C170360}"/>
     <hyperlink ref="D21" r:id="rId5" display="https://www.recruit.ox.ac.uk/pls/hrisliverecruit/erq_jobspec_version_4.jobspec?p_id=143481" xr:uid="{07A2CD43-8F6C-854C-9BA5-EE4023673833}"/>
     <hyperlink ref="D56" r:id="rId6" xr:uid="{155296AC-9F8B-B042-9832-B901625AED63}"/>
-    <hyperlink ref="N62" r:id="rId7" xr:uid="{583F2481-3CD7-8046-A18C-8F9F21DC23E3}"/>
+    <hyperlink ref="N63" r:id="rId7" xr:uid="{583F2481-3CD7-8046-A18C-8F9F21DC23E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4466,7 +4517,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4733,8 +4784,8 @@
       <c r="G10" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>201</v>
+      <c r="H10" s="17" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">

--- a/Postdocs19.xlsx
+++ b/Postdocs19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DJBruce/Application-Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25172DC7-4906-054C-86CC-89E359122ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED6BA87-962F-BB42-9775-5ABCC57619F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="230">
   <si>
     <t xml:space="preserve">Arizona State University </t>
   </si>
@@ -707,6 +707,21 @@
   </si>
   <si>
     <t>StonyBrook-IMS2020</t>
+  </si>
+  <si>
+    <t>University of Saskatchewan</t>
+  </si>
+  <si>
+    <t>1475-PIMSPDF</t>
+  </si>
+  <si>
+    <t>California Institute of Technology</t>
+  </si>
+  <si>
+    <t>Caltech-HB</t>
+  </si>
+  <si>
+    <t>Caltech-NTT</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C862073-6331-234F-B2D0-82C360D0D85F}">
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2455,20 +2470,20 @@
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="30">
-        <v>43798</v>
+      <c r="A24" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="48">
+        <v>43794</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>23</v>
@@ -2480,41 +2495,41 @@
         <v>20</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J24" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="42" t="s">
-        <v>91</v>
+      <c r="K24" s="22">
+        <v>3</v>
       </c>
       <c r="L24" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="22"/>
+      <c r="N24" s="51"/>
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C25" s="30">
-        <v>43799</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>102</v>
+        <v>43798</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>2</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G25" s="22" t="s">
         <v>20</v>
@@ -2528,8 +2543,8 @@
       <c r="J25" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="22">
-        <v>4</v>
+      <c r="K25" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="L25" s="22">
         <v>1</v>
@@ -2542,16 +2557,16 @@
     </row>
     <row r="26" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="23">
-        <v>43800</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>2</v>
+        <v>101</v>
+      </c>
+      <c r="C26" s="30">
+        <v>43799</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>102</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>20</v>
@@ -2566,42 +2581,44 @@
         <v>20</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L26" s="22" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="K26" s="22">
+        <v>4</v>
+      </c>
+      <c r="L26" s="22">
+        <v>1</v>
       </c>
       <c r="M26" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="22" t="s">
-        <v>83</v>
-      </c>
+      <c r="N26" s="22"/>
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C27" s="23">
         <v>43800</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>20</v>
+      </c>
       <c r="G27" s="22" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="H27" s="22" t="s">
         <v>20</v>
@@ -2610,71 +2627,69 @@
         <v>20</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="L27" s="22">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="M27" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N27" s="22" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C28" s="23">
         <v>43800</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>20</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="22"/>
       <c r="G28" s="22" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H28" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J28" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="22">
-        <v>3</v>
+      <c r="K28" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="L28" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N28" s="22"/>
+      <c r="N28" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C29" s="23">
         <v>43800</v>
@@ -2686,16 +2701,16 @@
         <v>20</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="H29" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J29" s="22" t="s">
         <v>23</v>
@@ -2714,10 +2729,10 @@
     </row>
     <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C30" s="23">
         <v>43800</v>
@@ -2729,10 +2744,10 @@
         <v>20</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>20</v>
@@ -2757,12 +2772,12 @@
     </row>
     <row r="31" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="30">
+        <v>71</v>
+      </c>
+      <c r="C31" s="23">
         <v>43800</v>
       </c>
       <c r="D31" s="24" t="s">
@@ -2800,16 +2815,16 @@
     </row>
     <row r="32" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C32" s="30">
         <v>43800</v>
       </c>
-      <c r="D32" s="36" t="s">
-        <v>97</v>
+      <c r="D32" s="24" t="s">
+        <v>2</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>20</v>
@@ -2824,7 +2839,7 @@
         <v>20</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J32" s="22" t="s">
         <v>23</v>
@@ -2846,13 +2861,13 @@
         <v>95</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C33" s="30">
         <v>43800</v>
       </c>
-      <c r="D33" s="35" t="s">
-        <v>99</v>
+      <c r="D33" s="36" t="s">
+        <v>97</v>
       </c>
       <c r="E33" s="25" t="s">
         <v>20</v>
@@ -2872,9 +2887,11 @@
       <c r="J33" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="22"/>
+      <c r="K33" s="22">
+        <v>3</v>
+      </c>
       <c r="L33" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="26" t="s">
         <v>23</v>
@@ -2884,16 +2901,16 @@
     </row>
     <row r="34" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C34" s="30">
         <v>43800</v>
       </c>
-      <c r="D34" s="24" t="s">
-        <v>2</v>
+      <c r="D34" s="35" t="s">
+        <v>99</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>20</v>
@@ -2908,16 +2925,14 @@
         <v>20</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="J34" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="22">
-        <v>3</v>
-      </c>
-      <c r="L34" s="22" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22">
+        <v>0</v>
       </c>
       <c r="M34" s="22" t="s">
         <v>23</v>
@@ -2926,10 +2941,10 @@
     </row>
     <row r="35" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C35" s="30">
         <v>43800</v>
@@ -2950,16 +2965,16 @@
         <v>20</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J35" s="33" t="s">
         <v>23</v>
       </c>
       <c r="K35" s="22">
         <v>3</v>
       </c>
-      <c r="L35" s="22">
-        <v>1</v>
+      <c r="L35" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="M35" s="22" t="s">
         <v>23</v>
@@ -2968,10 +2983,10 @@
     </row>
     <row r="36" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C36" s="30">
         <v>43800</v>
@@ -3010,10 +3025,10 @@
     </row>
     <row r="37" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C37" s="30">
         <v>43800</v>
@@ -3034,7 +3049,7 @@
         <v>20</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J37" s="22" t="s">
         <v>23</v>
@@ -3052,22 +3067,22 @@
     </row>
     <row r="38" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C38" s="30">
         <v>43800</v>
       </c>
-      <c r="D38" s="35" t="s">
-        <v>129</v>
+      <c r="D38" s="24" t="s">
+        <v>2</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>20</v>
@@ -3085,7 +3100,7 @@
         <v>3</v>
       </c>
       <c r="L38" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="22" t="s">
         <v>23</v>
@@ -3094,22 +3109,22 @@
     </row>
     <row r="39" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="23">
+        <v>128</v>
+      </c>
+      <c r="C39" s="30">
         <v>43800</v>
       </c>
-      <c r="D39" s="24" t="s">
-        <v>81</v>
+      <c r="D39" s="35" t="s">
+        <v>129</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="G39" s="22" t="s">
         <v>20</v>
@@ -3118,13 +3133,13 @@
         <v>20</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J39" s="22" t="s">
         <v>23</v>
       </c>
       <c r="K39" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L39" s="22">
         <v>0</v>
@@ -3132,28 +3147,26 @@
       <c r="M39" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N39" s="22" t="s">
-        <v>82</v>
-      </c>
+      <c r="N39" s="22"/>
     </row>
     <row r="40" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" s="30">
+        <v>36</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="23">
         <v>43800</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G40" s="22" t="s">
         <v>20</v>
@@ -3162,13 +3175,13 @@
         <v>20</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J40" s="22" t="s">
         <v>23</v>
       </c>
       <c r="K40" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L40" s="22">
         <v>0</v>
@@ -3176,20 +3189,22 @@
       <c r="M40" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N40" s="22"/>
+      <c r="N40" s="22" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="41" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>178</v>
+        <v>85</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="C41" s="30">
         <v>43800</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="E41" s="25" t="s">
         <v>20</v>
@@ -3209,8 +3224,8 @@
       <c r="J41" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K41" s="22" t="s">
-        <v>24</v>
+      <c r="K41" s="22">
+        <v>3</v>
       </c>
       <c r="L41" s="22">
         <v>0</v>
@@ -3222,22 +3237,22 @@
     </row>
     <row r="42" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>183</v>
+        <v>177</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>178</v>
       </c>
       <c r="C42" s="30">
         <v>43800</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G42" s="22" t="s">
         <v>20</v>
@@ -3246,13 +3261,13 @@
         <v>20</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J42" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K42" s="33">
-        <v>4</v>
+      <c r="K42" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="L42" s="22">
         <v>0</v>
@@ -3264,10 +3279,10 @@
     </row>
     <row r="43" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C43" s="30">
         <v>43800</v>
@@ -3276,10 +3291,10 @@
         <v>2</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G43" s="22" t="s">
         <v>20</v>
@@ -3288,13 +3303,13 @@
         <v>20</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J43" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K43" s="22" t="s">
-        <v>24</v>
+      <c r="K43" s="33">
+        <v>4</v>
       </c>
       <c r="L43" s="22">
         <v>0</v>
@@ -3302,16 +3317,14 @@
       <c r="M43" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N43" s="31" t="s">
-        <v>192</v>
-      </c>
+      <c r="N43" s="22"/>
     </row>
     <row r="44" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C44" s="30">
         <v>43800</v>
@@ -3332,34 +3345,36 @@
         <v>20</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J44" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K44" s="22">
-        <v>3</v>
+      <c r="K44" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="L44" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N44" s="22"/>
+      <c r="N44" s="31" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="45" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>197</v>
       </c>
       <c r="C45" s="30">
         <v>43800</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>175</v>
+        <v>2</v>
       </c>
       <c r="E45" s="25" t="s">
         <v>20</v>
@@ -3380,7 +3395,7 @@
         <v>23</v>
       </c>
       <c r="K45" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L45" s="22">
         <v>1</v>
@@ -3388,22 +3403,20 @@
       <c r="M45" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N45" s="22" t="s">
-        <v>200</v>
-      </c>
+      <c r="N45" s="22"/>
     </row>
     <row r="46" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="C46" s="48">
+        <v>198</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" s="30">
         <v>43800</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="E46" s="25" t="s">
         <v>20</v>
@@ -3418,13 +3431,13 @@
         <v>20</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J46" s="22" t="s">
         <v>23</v>
       </c>
       <c r="K46" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L46" s="22">
         <v>1</v>
@@ -3432,14 +3445,16 @@
       <c r="M46" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N46" s="51"/>
+      <c r="N46" s="22" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="47" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>210</v>
+        <v>205</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>206</v>
       </c>
       <c r="C47" s="48">
         <v>43800</v>
@@ -3448,13 +3463,13 @@
         <v>2</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H47" s="22" t="s">
         <v>20</v>
@@ -3469,42 +3484,40 @@
         <v>3</v>
       </c>
       <c r="L47" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N47" s="51" t="s">
-        <v>211</v>
-      </c>
+      <c r="N47" s="51"/>
     </row>
     <row r="48" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="C48" s="30">
+        <v>210</v>
+      </c>
+      <c r="C48" s="48">
         <v>43800</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F48" s="22" t="s">
         <v>23</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H48" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J48" s="22" t="s">
         <v>23</v>
@@ -3518,14 +3531,16 @@
       <c r="M48" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N48" s="22"/>
+      <c r="N48" s="51" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="49" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>215</v>
+        <v>212</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>213</v>
       </c>
       <c r="C49" s="30">
         <v>43800</v>
@@ -3537,7 +3552,7 @@
         <v>20</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G49" s="22" t="s">
         <v>20</v>
@@ -3546,13 +3561,13 @@
         <v>20</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J49" s="22" t="s">
         <v>23</v>
       </c>
       <c r="K49" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L49" s="22">
         <v>0</v>
@@ -3564,10 +3579,10 @@
     </row>
     <row r="50" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C50" s="30">
         <v>43800</v>
@@ -3588,16 +3603,16 @@
         <v>20</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J50" s="22" t="s">
         <v>23</v>
       </c>
       <c r="K50" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L50" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" s="22" t="s">
         <v>23</v>
@@ -3606,15 +3621,15 @@
     </row>
     <row r="51" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>106</v>
+        <v>216</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>217</v>
       </c>
       <c r="C51" s="30">
-        <v>43801</v>
-      </c>
-      <c r="D51" s="32" t="s">
+        <v>43800</v>
+      </c>
+      <c r="D51" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E51" s="25" t="s">
@@ -3630,15 +3645,15 @@
         <v>20</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J51" s="22" t="s">
         <v>23</v>
       </c>
       <c r="K51" s="22">
-        <v>3</v>
-      </c>
-      <c r="L51" s="33">
+        <v>2</v>
+      </c>
+      <c r="L51" s="22">
         <v>1</v>
       </c>
       <c r="M51" s="22" t="s">
@@ -3648,15 +3663,15 @@
     </row>
     <row r="52" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="37" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C52" s="30">
         <v>43801</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="32" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="25" t="s">
@@ -3680,25 +3695,23 @@
       <c r="K52" s="22">
         <v>3</v>
       </c>
-      <c r="L52" s="22">
+      <c r="L52" s="33">
         <v>1</v>
       </c>
       <c r="M52" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N52" s="31" t="s">
-        <v>116</v>
-      </c>
+      <c r="N52" s="22"/>
     </row>
     <row r="53" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="22" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="23">
-        <v>43805</v>
+        <v>115</v>
+      </c>
+      <c r="C53" s="30">
+        <v>43801</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>2</v>
@@ -3707,19 +3720,19 @@
         <v>20</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H53" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J53" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K53" s="22">
         <v>3</v>
@@ -3730,38 +3743,40 @@
       <c r="M53" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N53" s="22"/>
+      <c r="N53" s="31" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C54" s="30">
-        <v>43806</v>
+        <v>1</v>
+      </c>
+      <c r="C54" s="23">
+        <v>43805</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H54" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J54" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K54" s="22">
         <v>3</v>
@@ -3779,16 +3794,16 @@
         <v>123</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C55" s="30">
         <v>43806</v>
       </c>
-      <c r="D55" s="32" t="s">
+      <c r="D55" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F55" s="22" t="s">
         <v>20</v>
@@ -3814,37 +3829,35 @@
       <c r="M55" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N55" s="31" t="s">
-        <v>147</v>
-      </c>
+      <c r="N55" s="22"/>
     </row>
     <row r="56" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="22" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C56" s="30">
-        <v>43812</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>142</v>
+        <v>43806</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>2</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G56" s="22" t="s">
         <v>20</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="J56" s="22" t="s">
         <v>23</v>
@@ -3853,42 +3866,42 @@
         <v>3</v>
       </c>
       <c r="L56" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" s="22" t="s">
         <v>23</v>
       </c>
       <c r="N56" s="31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="23">
-        <v>43814</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>2</v>
+        <v>141</v>
+      </c>
+      <c r="C57" s="30">
+        <v>43812</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>142</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G57" s="22" t="s">
         <v>20</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="J57" s="22" t="s">
         <v>23</v>
@@ -3897,21 +3910,21 @@
         <v>3</v>
       </c>
       <c r="L57" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N57" s="22" t="s">
-        <v>75</v>
+      <c r="N57" s="31" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="38" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C58" s="52">
         <v>43814</v>
@@ -3920,7 +3933,7 @@
         <v>2</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F58" s="38" t="s">
         <v>20</v>
@@ -3929,10 +3942,10 @@
         <v>20</v>
       </c>
       <c r="H58" s="38" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J58" s="38" t="s">
         <v>23</v>
@@ -3946,23 +3959,25 @@
       <c r="M58" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="N58" s="41"/>
+      <c r="N58" s="41" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="59" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="B59" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="C59" s="30">
+        <v>63</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="23">
         <v>43814</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F59" s="22" t="s">
         <v>20</v>
@@ -3971,7 +3986,7 @@
         <v>20</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I59" s="22" t="s">
         <v>23</v>
@@ -3983,7 +3998,7 @@
         <v>3</v>
       </c>
       <c r="L59" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" s="22" t="s">
         <v>23</v>
@@ -3992,10 +4007,10 @@
     </row>
     <row r="60" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="38" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="B60" s="53" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="C60" s="54">
         <v>43814</v>
@@ -4016,16 +4031,16 @@
         <v>20</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J60" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="K60" s="38" t="s">
-        <v>24</v>
+      <c r="K60" s="38">
+        <v>3</v>
       </c>
       <c r="L60" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" s="38" t="s">
         <v>23</v>
@@ -4034,12 +4049,12 @@
     </row>
     <row r="61" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="C61" s="48">
+        <v>218</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" s="30">
         <v>43814</v>
       </c>
       <c r="D61" s="24" t="s">
@@ -4067,22 +4082,22 @@
         <v>24</v>
       </c>
       <c r="L61" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N61" s="51"/>
+      <c r="N61" s="22"/>
     </row>
     <row r="62" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="23">
-        <v>43815</v>
+        <v>223</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C62" s="48">
+        <v>43814</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>2</v>
@@ -4100,34 +4115,34 @@
         <v>20</v>
       </c>
       <c r="I62" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J62" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K62" s="22">
-        <v>3</v>
+      <c r="K62" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="L62" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N62" s="22"/>
+      <c r="N62" s="51"/>
     </row>
     <row r="63" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C63" s="48">
+        <v>50</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="23">
         <v>43815</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>175</v>
+        <v>2</v>
       </c>
       <c r="E63" s="25" t="s">
         <v>20</v>
@@ -4142,7 +4157,7 @@
         <v>20</v>
       </c>
       <c r="I63" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J63" s="22" t="s">
         <v>23</v>
@@ -4151,33 +4166,31 @@
         <v>3</v>
       </c>
       <c r="L63" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N63" s="49" t="s">
-        <v>196</v>
-      </c>
+      <c r="N63" s="22"/>
     </row>
     <row r="64" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="23">
-        <v>43834</v>
+        <v>194</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" s="48">
+        <v>43815</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="E64" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G64" s="22" t="s">
         <v>20</v>
@@ -4186,7 +4199,7 @@
         <v>20</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J64" s="22" t="s">
         <v>23</v>
@@ -4200,17 +4213,19 @@
       <c r="M64" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N64" s="22"/>
+      <c r="N64" s="49" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="65" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="22" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C65" s="30">
-        <v>43836</v>
+        <v>6</v>
+      </c>
+      <c r="C65" s="23">
+        <v>43834</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>2</v>
@@ -4219,7 +4234,7 @@
         <v>20</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G65" s="22" t="s">
         <v>20</v>
@@ -4228,7 +4243,7 @@
         <v>20</v>
       </c>
       <c r="I65" s="22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J65" s="22" t="s">
         <v>23</v>
@@ -4237,7 +4252,7 @@
         <v>3</v>
       </c>
       <c r="L65" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" s="22" t="s">
         <v>23</v>
@@ -4246,19 +4261,19 @@
     </row>
     <row r="66" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="22" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C66" s="23">
-        <v>43847</v>
+        <v>120</v>
+      </c>
+      <c r="C66" s="30">
+        <v>43836</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F66" s="22" t="s">
         <v>20</v>
@@ -4270,7 +4285,7 @@
         <v>20</v>
       </c>
       <c r="I66" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J66" s="22" t="s">
         <v>23</v>
@@ -4287,98 +4302,98 @@
       <c r="N66" s="22"/>
     </row>
     <row r="67" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="43" t="s">
+      <c r="A67" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="23">
+        <v>43847</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J67" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67" s="22">
+        <v>3</v>
+      </c>
+      <c r="L67" s="22">
+        <v>1</v>
+      </c>
+      <c r="M67" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N67" s="22"/>
+    </row>
+    <row r="68" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="43" t="s">
+      <c r="B68" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C67" s="44">
+      <c r="C68" s="44">
         <v>44043</v>
       </c>
-      <c r="D67" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F67" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H67" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="I67" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J67" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="K67" s="43">
-        <v>3</v>
-      </c>
-      <c r="L67" s="43">
+      <c r="D68" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68" s="43">
+        <v>3</v>
+      </c>
+      <c r="L68" s="43">
         <v>1</v>
       </c>
-      <c r="M67" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="N67" s="43"/>
-    </row>
-    <row r="68" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C68" s="23">
-        <v>44044</v>
-      </c>
-      <c r="D68" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F68" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H68" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="I68" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J68" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K68" s="22">
-        <v>3</v>
-      </c>
-      <c r="L68" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="M68" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N68" s="22"/>
+      <c r="M68" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="N68" s="43"/>
     </row>
     <row r="69" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="22" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>5</v>
+        <v>34</v>
+      </c>
+      <c r="C69" s="23">
+        <v>44044</v>
       </c>
       <c r="D69" s="24" t="s">
         <v>2</v>
@@ -4393,19 +4408,19 @@
         <v>20</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I69" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J69" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K69" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="L69" s="22">
-        <v>1</v>
+      <c r="K69" s="22">
+        <v>3</v>
+      </c>
+      <c r="L69" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="M69" s="22" t="s">
         <v>23</v>
@@ -4414,12 +4429,14 @@
     </row>
     <row r="70" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="22" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="22"/>
+        <v>4</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>5</v>
+      </c>
       <c r="D70" s="24" t="s">
         <v>2</v>
       </c>
@@ -4427,7 +4444,7 @@
         <v>20</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G70" s="22" t="s">
         <v>20</v>
@@ -4436,76 +4453,196 @@
         <v>20</v>
       </c>
       <c r="I70" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J70" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K70" s="22">
-        <v>3</v>
+      <c r="K70" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="L70" s="22">
         <v>1</v>
       </c>
       <c r="M70" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N70" s="22" t="s">
-        <v>73</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="N70" s="22"/>
     </row>
     <row r="71" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="22"/>
+      <c r="D71" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K71" s="22">
+        <v>3</v>
+      </c>
+      <c r="L71" s="22">
+        <v>1</v>
+      </c>
+      <c r="M71" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B72" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="C71" s="33"/>
-      <c r="D71" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F71" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I71" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J71" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K71" s="22">
-        <v>3</v>
-      </c>
-      <c r="L71" s="22">
+      <c r="C72" s="33"/>
+      <c r="D72" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J72" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K72" s="22">
+        <v>3</v>
+      </c>
+      <c r="L72" s="22">
         <v>0</v>
       </c>
-      <c r="M71" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N71" s="22"/>
+      <c r="M72" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N72" s="22"/>
+    </row>
+    <row r="73" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C73" s="17"/>
+      <c r="D73" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K73" s="22">
+        <v>3</v>
+      </c>
+      <c r="L73" s="22">
+        <v>0</v>
+      </c>
+      <c r="M73" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N73" s="51"/>
+    </row>
+    <row r="74" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C74" s="17"/>
+      <c r="D74" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K74" s="22">
+        <v>3</v>
+      </c>
+      <c r="L74" s="22">
+        <v>0</v>
+      </c>
+      <c r="M74" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N74" s="51"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N71">
-    <sortCondition ref="C2:C71"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N74">
+    <sortCondition ref="C2:C74"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D25" r:id="rId1" display="https://recruit.ucdavis.edu/JPF02950" xr:uid="{83E02472-223D-514A-82F7-94F8C5C76C6F}"/>
-    <hyperlink ref="D33" r:id="rId2" xr:uid="{A94B9440-F8F2-1D40-B6F8-BDDE35FB8D62}"/>
-    <hyperlink ref="D38" r:id="rId3" xr:uid="{4B367342-2FC3-E140-A9EC-CB0227AE528A}"/>
+    <hyperlink ref="D26" r:id="rId1" display="https://recruit.ucdavis.edu/JPF02950" xr:uid="{83E02472-223D-514A-82F7-94F8C5C76C6F}"/>
+    <hyperlink ref="D34" r:id="rId2" xr:uid="{A94B9440-F8F2-1D40-B6F8-BDDE35FB8D62}"/>
+    <hyperlink ref="D39" r:id="rId3" xr:uid="{4B367342-2FC3-E140-A9EC-CB0227AE528A}"/>
     <hyperlink ref="D20" r:id="rId4" display="https://www.vacancies.ed.ac.uk/pls/corehrrecruit/erq_jobspec_version_4.jobspec?p_id=050154" xr:uid="{200AE473-7A60-B148-BA2A-18A77C170360}"/>
     <hyperlink ref="D21" r:id="rId5" display="https://www.recruit.ox.ac.uk/pls/hrisliverecruit/erq_jobspec_version_4.jobspec?p_id=143481" xr:uid="{07A2CD43-8F6C-854C-9BA5-EE4023673833}"/>
-    <hyperlink ref="D56" r:id="rId6" xr:uid="{155296AC-9F8B-B042-9832-B901625AED63}"/>
-    <hyperlink ref="N63" r:id="rId7" xr:uid="{583F2481-3CD7-8046-A18C-8F9F21DC23E3}"/>
+    <hyperlink ref="D57" r:id="rId6" xr:uid="{155296AC-9F8B-B042-9832-B901625AED63}"/>
+    <hyperlink ref="N64" r:id="rId7" xr:uid="{583F2481-3CD7-8046-A18C-8F9F21DC23E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Postdocs19.xlsx
+++ b/Postdocs19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DJBruce/Application-Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED6BA87-962F-BB42-9775-5ABCC57619F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7345684A-9928-2446-9067-E0FC4D1EECB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="234">
   <si>
     <t xml:space="preserve">Arizona State University </t>
   </si>
@@ -722,6 +722,18 @@
   </si>
   <si>
     <t>Caltech-NTT</t>
+  </si>
+  <si>
+    <t>Requested 11/26/19</t>
+  </si>
+  <si>
+    <t>Submitted 11/26/19</t>
+  </si>
+  <si>
+    <t>UK-POSTDOC</t>
+  </si>
+  <si>
+    <t>http://ukjobs.uky.edu/postings/253841</t>
   </si>
 </sst>
 </file>
@@ -984,7 +996,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1144,6 +1156,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1466,11 +1481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C862073-6331-234F-B2D0-82C360D0D85F}">
-  <dimension ref="A1:O74"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4630,6 +4645,50 @@
         <v>23</v>
       </c>
       <c r="N74" s="51"/>
+    </row>
+    <row r="75" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" s="30">
+        <v>43800</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J75" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K75" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L75" s="22">
+        <v>1</v>
+      </c>
+      <c r="M75" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N75" s="55" t="s">
+        <v>233</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N74">
@@ -4654,7 +4713,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4753,17 +4812,17 @@
       <c r="C4" s="14">
         <v>43789</v>
       </c>
-      <c r="D4" s="50" t="s">
-        <v>201</v>
+      <c r="D4" s="16" t="s">
+        <v>231</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>155</v>
+      <c r="G4" s="21" t="s">
+        <v>230</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>153</v>

--- a/Postdocs19.xlsx
+++ b/Postdocs19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DJBruce/Application-Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7345684A-9928-2446-9067-E0FC4D1EECB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C892A3BD-E53E-624A-8E9C-5948BDC5DD1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="242">
   <si>
     <t xml:space="preserve">Arizona State University </t>
   </si>
@@ -734,6 +734,30 @@
   </si>
   <si>
     <t>http://ukjobs.uky.edu/postings/253841</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PureMathuWaterloo-PMPDF2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Helsinki </t>
+  </si>
+  <si>
+    <t>568-POSTDOC</t>
+  </si>
+  <si>
+    <t>University of Pittsburgh</t>
+  </si>
+  <si>
+    <t>Pitts-POSTDOC1</t>
+  </si>
+  <si>
+    <t>The Australian National University</t>
+  </si>
+  <si>
+    <t>ANU-FELLOW1</t>
+  </si>
+  <si>
+    <t>https://jobs.anu.edu.au/cw/en/job/534432/msi-fellow</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1020,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1152,14 +1176,17 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1481,11 +1508,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C862073-6331-234F-B2D0-82C360D0D85F}">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3678,16 +3705,16 @@
     </row>
     <row r="52" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="37" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="C52" s="30">
-        <v>43801</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>2</v>
+        <v>43800</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>175</v>
       </c>
       <c r="E52" s="25" t="s">
         <v>20</v>
@@ -3702,33 +3729,35 @@
         <v>20</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J52" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K52" s="22">
-        <v>3</v>
-      </c>
-      <c r="L52" s="33">
+        <v>20</v>
+      </c>
+      <c r="K52" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" s="22">
         <v>1</v>
       </c>
       <c r="M52" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N52" s="22"/>
+      <c r="N52" s="54" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="53" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="22" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C53" s="30">
         <v>43801</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="32" t="s">
         <v>2</v>
       </c>
       <c r="E53" s="25" t="s">
@@ -3752,25 +3781,23 @@
       <c r="K53" s="22">
         <v>3</v>
       </c>
-      <c r="L53" s="22">
+      <c r="L53" s="33">
         <v>1</v>
       </c>
       <c r="M53" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N53" s="31" t="s">
-        <v>116</v>
-      </c>
+      <c r="N53" s="22"/>
     </row>
     <row r="54" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="23">
-        <v>43805</v>
+        <v>115</v>
+      </c>
+      <c r="C54" s="30">
+        <v>43801</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>2</v>
@@ -3779,19 +3806,19 @@
         <v>20</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H54" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J54" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K54" s="22">
         <v>3</v>
@@ -3802,38 +3829,40 @@
       <c r="M54" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N54" s="22"/>
+      <c r="N54" s="31" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="22" t="s">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="30">
-        <v>43806</v>
+        <v>1</v>
+      </c>
+      <c r="C55" s="23">
+        <v>43805</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H55" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J55" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K55" s="22">
         <v>3</v>
@@ -3851,16 +3880,16 @@
         <v>123</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C56" s="30">
         <v>43806</v>
       </c>
-      <c r="D56" s="32" t="s">
+      <c r="D56" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F56" s="22" t="s">
         <v>20</v>
@@ -3886,37 +3915,35 @@
       <c r="M56" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N56" s="31" t="s">
-        <v>147</v>
-      </c>
+      <c r="N56" s="22"/>
     </row>
     <row r="57" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C57" s="30">
-        <v>43812</v>
-      </c>
-      <c r="D57" s="35" t="s">
-        <v>142</v>
+        <v>43806</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>2</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G57" s="22" t="s">
         <v>20</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="J57" s="22" t="s">
         <v>23</v>
@@ -3925,42 +3952,42 @@
         <v>3</v>
       </c>
       <c r="L57" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="22" t="s">
         <v>23</v>
       </c>
       <c r="N57" s="31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="38" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="52">
-        <v>43814</v>
-      </c>
-      <c r="D58" s="39" t="s">
-        <v>2</v>
+        <v>141</v>
+      </c>
+      <c r="C58" s="53">
+        <v>43812</v>
+      </c>
+      <c r="D58" s="55" t="s">
+        <v>142</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H58" s="38" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="J58" s="38" t="s">
         <v>23</v>
@@ -3969,21 +3996,21 @@
         <v>3</v>
       </c>
       <c r="L58" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="N58" s="41" t="s">
-        <v>75</v>
+      <c r="N58" s="56" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="22" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C59" s="23">
         <v>43814</v>
@@ -3992,7 +4019,7 @@
         <v>2</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F59" s="22" t="s">
         <v>20</v>
@@ -4001,10 +4028,10 @@
         <v>20</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I59" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J59" s="22" t="s">
         <v>23</v>
@@ -4018,23 +4045,25 @@
       <c r="M59" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N59" s="22"/>
+      <c r="N59" s="22" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="B60" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="54">
+        <v>63</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="52">
         <v>43814</v>
       </c>
       <c r="D60" s="39" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F60" s="38" t="s">
         <v>20</v>
@@ -4043,7 +4072,7 @@
         <v>20</v>
       </c>
       <c r="H60" s="38" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I60" s="38" t="s">
         <v>23</v>
@@ -4055,7 +4084,7 @@
         <v>3</v>
       </c>
       <c r="L60" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" s="38" t="s">
         <v>23</v>
@@ -4064,10 +4093,10 @@
     </row>
     <row r="61" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="22" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="C61" s="30">
         <v>43814</v>
@@ -4088,16 +4117,16 @@
         <v>20</v>
       </c>
       <c r="I61" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J61" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K61" s="22" t="s">
-        <v>24</v>
+      <c r="K61" s="22">
+        <v>3</v>
       </c>
       <c r="L61" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" s="22" t="s">
         <v>23</v>
@@ -4106,12 +4135,12 @@
     </row>
     <row r="62" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="C62" s="48">
+        <v>218</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C62" s="30">
         <v>43814</v>
       </c>
       <c r="D62" s="24" t="s">
@@ -4139,22 +4168,22 @@
         <v>24</v>
       </c>
       <c r="L62" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N62" s="51"/>
+      <c r="N62" s="22"/>
     </row>
     <row r="63" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63" s="23">
-        <v>43815</v>
+        <v>223</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" s="48">
+        <v>43814</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>2</v>
@@ -4172,34 +4201,34 @@
         <v>20</v>
       </c>
       <c r="I63" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J63" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K63" s="22">
-        <v>3</v>
+      <c r="K63" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="L63" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N63" s="22"/>
+      <c r="N63" s="51"/>
     </row>
     <row r="64" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C64" s="48">
+        <v>50</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="23">
         <v>43815</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>175</v>
+        <v>2</v>
       </c>
       <c r="E64" s="25" t="s">
         <v>20</v>
@@ -4214,7 +4243,7 @@
         <v>20</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J64" s="22" t="s">
         <v>23</v>
@@ -4223,33 +4252,31 @@
         <v>3</v>
       </c>
       <c r="L64" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N64" s="49" t="s">
-        <v>196</v>
-      </c>
+      <c r="N64" s="22"/>
     </row>
     <row r="65" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="23">
-        <v>43834</v>
+        <v>194</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" s="48">
+        <v>43815</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="E65" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G65" s="22" t="s">
         <v>20</v>
@@ -4258,7 +4285,7 @@
         <v>20</v>
       </c>
       <c r="I65" s="22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J65" s="22" t="s">
         <v>23</v>
@@ -4272,17 +4299,19 @@
       <c r="M65" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N65" s="22"/>
+      <c r="N65" s="49" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="66" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>120</v>
+        <v>182</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>234</v>
       </c>
       <c r="C66" s="30">
-        <v>43836</v>
+        <v>43832</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>2</v>
@@ -4291,7 +4320,7 @@
         <v>20</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G66" s="22" t="s">
         <v>20</v>
@@ -4300,7 +4329,7 @@
         <v>20</v>
       </c>
       <c r="I66" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J66" s="22" t="s">
         <v>23</v>
@@ -4318,22 +4347,22 @@
     </row>
     <row r="67" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="22" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C67" s="23">
-        <v>43847</v>
+        <v>43834</v>
       </c>
       <c r="D67" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G67" s="22" t="s">
         <v>20</v>
@@ -4342,7 +4371,7 @@
         <v>20</v>
       </c>
       <c r="I67" s="22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J67" s="22" t="s">
         <v>23</v>
@@ -4351,64 +4380,64 @@
         <v>3</v>
       </c>
       <c r="L67" s="22">
+        <v>0</v>
+      </c>
+      <c r="M67" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N67" s="22"/>
+    </row>
+    <row r="68" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="30">
+        <v>43836</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68" s="22">
+        <v>3</v>
+      </c>
+      <c r="L68" s="22">
         <v>1</v>
       </c>
-      <c r="M67" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N67" s="22"/>
-    </row>
-    <row r="68" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B68" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C68" s="44">
-        <v>44043</v>
-      </c>
-      <c r="D68" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F68" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H68" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="I68" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J68" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="K68" s="43">
-        <v>3</v>
-      </c>
-      <c r="L68" s="43">
-        <v>1</v>
-      </c>
-      <c r="M68" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="N68" s="43"/>
+      <c r="M68" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N68" s="22"/>
     </row>
     <row r="69" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="22" t="s">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" s="23">
-        <v>44044</v>
+        <v>238</v>
+      </c>
+      <c r="C69" s="30">
+        <v>43836</v>
       </c>
       <c r="D69" s="24" t="s">
         <v>2</v>
@@ -4417,25 +4446,25 @@
         <v>20</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G69" s="22" t="s">
         <v>20</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I69" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J69" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K69" s="22">
-        <v>3</v>
-      </c>
-      <c r="L69" s="22" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="K69" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L69" s="22">
+        <v>0</v>
       </c>
       <c r="M69" s="22" t="s">
         <v>23</v>
@@ -4444,37 +4473,37 @@
     </row>
     <row r="70" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="23">
+        <v>43847</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K70" s="22">
         <v>3</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F70" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I70" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J70" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K70" s="22" t="s">
-        <v>24</v>
       </c>
       <c r="L70" s="22">
         <v>1</v>
@@ -4486,20 +4515,22 @@
     </row>
     <row r="71" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="22" t="s">
-        <v>9</v>
+        <v>235</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="22"/>
+        <v>236</v>
+      </c>
+      <c r="C71" s="30">
+        <v>43890</v>
+      </c>
       <c r="D71" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G71" s="22" t="s">
         <v>20</v>
@@ -4508,72 +4539,74 @@
         <v>20</v>
       </c>
       <c r="I71" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J71" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K71" s="22">
+      <c r="K71" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L71" s="22">
+        <v>0</v>
+      </c>
+      <c r="M71" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N71" s="22"/>
+    </row>
+    <row r="72" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B72" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="44">
+        <v>44043</v>
+      </c>
+      <c r="D72" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K72" s="43">
         <v>3</v>
       </c>
-      <c r="L71" s="22">
+      <c r="L72" s="43">
         <v>1</v>
       </c>
-      <c r="M71" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N71" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C72" s="33"/>
-      <c r="D72" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F72" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I72" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J72" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K72" s="22">
-        <v>3</v>
-      </c>
-      <c r="L72" s="22">
-        <v>0</v>
-      </c>
-      <c r="M72" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N72" s="22"/>
+      <c r="M72" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="N72" s="43"/>
     </row>
     <row r="73" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="22" t="s">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="C73" s="17"/>
+        <v>34</v>
+      </c>
+      <c r="C73" s="23">
+        <v>44044</v>
+      </c>
       <c r="D73" s="24" t="s">
         <v>2</v>
       </c>
@@ -4581,13 +4614,13 @@
         <v>20</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G73" s="22" t="s">
         <v>20</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I73" s="22" t="s">
         <v>20</v>
@@ -4598,22 +4631,24 @@
       <c r="K73" s="22">
         <v>3</v>
       </c>
-      <c r="L73" s="22">
-        <v>0</v>
+      <c r="L73" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="M73" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N73" s="51"/>
+      <c r="N73" s="22"/>
     </row>
     <row r="74" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="22" t="s">
-        <v>227</v>
+        <v>3</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C74" s="17"/>
+        <v>4</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>5</v>
+      </c>
       <c r="D74" s="24" t="s">
         <v>2</v>
       </c>
@@ -4621,7 +4656,7 @@
         <v>20</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G74" s="22" t="s">
         <v>20</v>
@@ -4630,34 +4665,32 @@
         <v>20</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J74" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K74" s="22">
-        <v>3</v>
+      <c r="K74" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="L74" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N74" s="51"/>
+      <c r="N74" s="22"/>
     </row>
     <row r="75" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="22" t="s">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="C75" s="30">
-        <v>43800</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C75" s="22"/>
       <c r="D75" s="24" t="s">
-        <v>175</v>
+        <v>2</v>
       </c>
       <c r="E75" s="25" t="s">
         <v>20</v>
@@ -4672,27 +4705,189 @@
         <v>20</v>
       </c>
       <c r="I75" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J75" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K75" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="K75" s="22">
+        <v>3</v>
       </c>
       <c r="L75" s="22">
         <v>1</v>
       </c>
       <c r="M75" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N75" s="55" t="s">
-        <v>233</v>
+        <v>20</v>
+      </c>
+      <c r="N75" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76" s="33"/>
+      <c r="D76" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G76" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J76" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K76" s="22">
+        <v>3</v>
+      </c>
+      <c r="L76" s="22">
+        <v>0</v>
+      </c>
+      <c r="M76" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N76" s="22"/>
+    </row>
+    <row r="77" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C77" s="17"/>
+      <c r="D77" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K77" s="22">
+        <v>3</v>
+      </c>
+      <c r="L77" s="22">
+        <v>0</v>
+      </c>
+      <c r="M77" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N77" s="51"/>
+    </row>
+    <row r="78" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C78" s="17"/>
+      <c r="D78" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K78" s="22">
+        <v>3</v>
+      </c>
+      <c r="L78" s="22">
+        <v>0</v>
+      </c>
+      <c r="M78" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N78" s="51"/>
+    </row>
+    <row r="79" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" s="33"/>
+      <c r="D79" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E79" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J79" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K79" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L79" s="22">
+        <v>0</v>
+      </c>
+      <c r="M79" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N79" s="54" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N74">
-    <sortCondition ref="C2:C74"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N79">
+    <sortCondition ref="C2:C79"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D26" r:id="rId1" display="https://recruit.ucdavis.edu/JPF02950" xr:uid="{83E02472-223D-514A-82F7-94F8C5C76C6F}"/>
@@ -4700,8 +4895,8 @@
     <hyperlink ref="D39" r:id="rId3" xr:uid="{4B367342-2FC3-E140-A9EC-CB0227AE528A}"/>
     <hyperlink ref="D20" r:id="rId4" display="https://www.vacancies.ed.ac.uk/pls/corehrrecruit/erq_jobspec_version_4.jobspec?p_id=050154" xr:uid="{200AE473-7A60-B148-BA2A-18A77C170360}"/>
     <hyperlink ref="D21" r:id="rId5" display="https://www.recruit.ox.ac.uk/pls/hrisliverecruit/erq_jobspec_version_4.jobspec?p_id=143481" xr:uid="{07A2CD43-8F6C-854C-9BA5-EE4023673833}"/>
-    <hyperlink ref="D57" r:id="rId6" xr:uid="{155296AC-9F8B-B042-9832-B901625AED63}"/>
-    <hyperlink ref="N64" r:id="rId7" xr:uid="{583F2481-3CD7-8046-A18C-8F9F21DC23E3}"/>
+    <hyperlink ref="D58" r:id="rId6" xr:uid="{155296AC-9F8B-B042-9832-B901625AED63}"/>
+    <hyperlink ref="N65" r:id="rId7" xr:uid="{583F2481-3CD7-8046-A18C-8F9F21DC23E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Postdocs19.xlsx
+++ b/Postdocs19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DJBruce/Application-Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C892A3BD-E53E-624A-8E9C-5948BDC5DD1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0AD89D-6C63-8C4B-AC5A-FE95E83937FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="244">
   <si>
     <t xml:space="preserve">Arizona State University </t>
   </si>
@@ -758,6 +758,12 @@
   </si>
   <si>
     <t>https://jobs.anu.edu.au/cw/en/job/534432/msi-fellow</t>
+  </si>
+  <si>
+    <t>Massachusetts Institute of Technology</t>
+  </si>
+  <si>
+    <t>MIT-INS</t>
   </si>
 </sst>
 </file>
@@ -1182,11 +1188,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1508,11 +1514,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C862073-6331-234F-B2D0-82C360D0D85F}">
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3748,23 +3754,23 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="22" t="s">
-        <v>105</v>
+      <c r="A53" s="17" t="s">
+        <v>242</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" s="30">
-        <v>43801</v>
-      </c>
-      <c r="D53" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="C53" s="48">
+        <v>43800</v>
+      </c>
+      <c r="D53" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E53" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="G53" s="22" t="s">
         <v>20</v>
@@ -3773,7 +3779,7 @@
         <v>20</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J53" s="22" t="s">
         <v>23</v>
@@ -3781,25 +3787,25 @@
       <c r="K53" s="22">
         <v>3</v>
       </c>
-      <c r="L53" s="33">
-        <v>1</v>
+      <c r="L53" s="22">
+        <v>0</v>
       </c>
       <c r="M53" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N53" s="22"/>
+      <c r="N53" s="51"/>
     </row>
     <row r="54" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C54" s="30">
         <v>43801</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="32" t="s">
         <v>2</v>
       </c>
       <c r="E54" s="25" t="s">
@@ -3823,25 +3829,23 @@
       <c r="K54" s="22">
         <v>3</v>
       </c>
-      <c r="L54" s="22">
+      <c r="L54" s="33">
         <v>1</v>
       </c>
       <c r="M54" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N54" s="31" t="s">
-        <v>116</v>
-      </c>
+      <c r="N54" s="22"/>
     </row>
     <row r="55" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="22" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="23">
-        <v>43805</v>
+        <v>115</v>
+      </c>
+      <c r="C55" s="30">
+        <v>43801</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>2</v>
@@ -3850,19 +3854,19 @@
         <v>20</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H55" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J55" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K55" s="22">
         <v>3</v>
@@ -3873,38 +3877,40 @@
       <c r="M55" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N55" s="22"/>
+      <c r="N55" s="31" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="56" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="22" t="s">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C56" s="30">
-        <v>43806</v>
+        <v>1</v>
+      </c>
+      <c r="C56" s="23">
+        <v>43805</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H56" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J56" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K56" s="22">
         <v>3</v>
@@ -3922,16 +3928,16 @@
         <v>123</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C57" s="30">
         <v>43806</v>
       </c>
-      <c r="D57" s="32" t="s">
+      <c r="D57" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F57" s="22" t="s">
         <v>20</v>
@@ -3957,37 +3963,35 @@
       <c r="M57" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N57" s="31" t="s">
-        <v>147</v>
-      </c>
+      <c r="N57" s="22"/>
     </row>
     <row r="58" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="38" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C58" s="53">
-        <v>43812</v>
-      </c>
-      <c r="D58" s="55" t="s">
-        <v>142</v>
+        <v>43806</v>
+      </c>
+      <c r="D58" s="56" t="s">
+        <v>2</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H58" s="38" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="J58" s="38" t="s">
         <v>23</v>
@@ -3996,42 +4000,42 @@
         <v>3</v>
       </c>
       <c r="L58" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="N58" s="56" t="s">
-        <v>145</v>
+      <c r="N58" s="55" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="22" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="23">
-        <v>43814</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>2</v>
+        <v>141</v>
+      </c>
+      <c r="C59" s="30">
+        <v>43812</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>142</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G59" s="22" t="s">
         <v>20</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="I59" s="22" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="J59" s="22" t="s">
         <v>23</v>
@@ -4040,21 +4044,21 @@
         <v>3</v>
       </c>
       <c r="L59" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N59" s="22" t="s">
-        <v>75</v>
+      <c r="N59" s="31" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="38" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C60" s="52">
         <v>43814</v>
@@ -4063,7 +4067,7 @@
         <v>2</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F60" s="38" t="s">
         <v>20</v>
@@ -4072,10 +4076,10 @@
         <v>20</v>
       </c>
       <c r="H60" s="38" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J60" s="38" t="s">
         <v>23</v>
@@ -4089,23 +4093,25 @@
       <c r="M60" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="N60" s="41"/>
+      <c r="N60" s="41" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="B61" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="C61" s="30">
+        <v>63</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="23">
         <v>43814</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F61" s="22" t="s">
         <v>20</v>
@@ -4114,7 +4120,7 @@
         <v>20</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I61" s="22" t="s">
         <v>23</v>
@@ -4126,7 +4132,7 @@
         <v>3</v>
       </c>
       <c r="L61" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" s="22" t="s">
         <v>23</v>
@@ -4135,10 +4141,10 @@
     </row>
     <row r="62" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="22" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="C62" s="30">
         <v>43814</v>
@@ -4159,16 +4165,16 @@
         <v>20</v>
       </c>
       <c r="I62" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J62" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K62" s="22" t="s">
-        <v>24</v>
+      <c r="K62" s="22">
+        <v>3</v>
       </c>
       <c r="L62" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" s="22" t="s">
         <v>23</v>
@@ -4177,12 +4183,12 @@
     </row>
     <row r="63" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="C63" s="48">
+        <v>218</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C63" s="30">
         <v>43814</v>
       </c>
       <c r="D63" s="24" t="s">
@@ -4210,22 +4216,22 @@
         <v>24</v>
       </c>
       <c r="L63" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N63" s="51"/>
+      <c r="N63" s="22"/>
     </row>
     <row r="64" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64" s="23">
-        <v>43815</v>
+        <v>223</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C64" s="48">
+        <v>43814</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>2</v>
@@ -4243,34 +4249,34 @@
         <v>20</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J64" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K64" s="22">
-        <v>3</v>
+      <c r="K64" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="L64" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N64" s="22"/>
+      <c r="N64" s="51"/>
     </row>
     <row r="65" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C65" s="48">
+        <v>50</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="23">
         <v>43815</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>175</v>
+        <v>2</v>
       </c>
       <c r="E65" s="25" t="s">
         <v>20</v>
@@ -4285,7 +4291,7 @@
         <v>20</v>
       </c>
       <c r="I65" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J65" s="22" t="s">
         <v>23</v>
@@ -4294,33 +4300,31 @@
         <v>3</v>
       </c>
       <c r="L65" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N65" s="49" t="s">
-        <v>196</v>
-      </c>
+      <c r="N65" s="22"/>
     </row>
     <row r="66" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="B66" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="C66" s="30">
-        <v>43832</v>
+        <v>194</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" s="48">
+        <v>43815</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="E66" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G66" s="22" t="s">
         <v>20</v>
@@ -4329,7 +4333,7 @@
         <v>20</v>
       </c>
       <c r="I66" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J66" s="22" t="s">
         <v>23</v>
@@ -4338,22 +4342,24 @@
         <v>3</v>
       </c>
       <c r="L66" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N66" s="22"/>
+      <c r="N66" s="49" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="67" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="23">
-        <v>43834</v>
+        <v>182</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C67" s="30">
+        <v>43832</v>
       </c>
       <c r="D67" s="24" t="s">
         <v>2</v>
@@ -4371,7 +4377,7 @@
         <v>20</v>
       </c>
       <c r="I67" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J67" s="22" t="s">
         <v>23</v>
@@ -4380,7 +4386,7 @@
         <v>3</v>
       </c>
       <c r="L67" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" s="22" t="s">
         <v>23</v>
@@ -4389,13 +4395,13 @@
     </row>
     <row r="68" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C68" s="30">
-        <v>43836</v>
+        <v>6</v>
+      </c>
+      <c r="C68" s="23">
+        <v>43834</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>2</v>
@@ -4404,7 +4410,7 @@
         <v>20</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G68" s="22" t="s">
         <v>20</v>
@@ -4413,7 +4419,7 @@
         <v>20</v>
       </c>
       <c r="I68" s="22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J68" s="22" t="s">
         <v>23</v>
@@ -4422,7 +4428,7 @@
         <v>3</v>
       </c>
       <c r="L68" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" s="22" t="s">
         <v>23</v>
@@ -4431,10 +4437,10 @@
     </row>
     <row r="69" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="22" t="s">
-        <v>237</v>
+        <v>119</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>238</v>
+        <v>120</v>
       </c>
       <c r="C69" s="30">
         <v>43836</v>
@@ -4455,16 +4461,16 @@
         <v>20</v>
       </c>
       <c r="I69" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J69" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K69" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="K69" s="22">
+        <v>3</v>
       </c>
       <c r="L69" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" s="22" t="s">
         <v>23</v>
@@ -4473,19 +4479,19 @@
     </row>
     <row r="70" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="22" t="s">
-        <v>60</v>
+        <v>237</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" s="23">
-        <v>43847</v>
+        <v>238</v>
+      </c>
+      <c r="C70" s="30">
+        <v>43836</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F70" s="22" t="s">
         <v>20</v>
@@ -4500,13 +4506,13 @@
         <v>23</v>
       </c>
       <c r="J70" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K70" s="22">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="K70" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="L70" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70" s="22" t="s">
         <v>23</v>
@@ -4515,139 +4521,139 @@
     </row>
     <row r="71" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="23">
+        <v>43847</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J71" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K71" s="22">
+        <v>3</v>
+      </c>
+      <c r="L71" s="22">
+        <v>1</v>
+      </c>
+      <c r="M71" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N71" s="22"/>
+    </row>
+    <row r="72" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B72" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="C71" s="30">
+      <c r="C72" s="30">
         <v>43890</v>
       </c>
-      <c r="D71" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F71" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I71" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J71" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K71" s="22" t="s">
+      <c r="D72" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J72" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K72" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="L71" s="22">
+      <c r="L72" s="22">
         <v>0</v>
       </c>
-      <c r="M71" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N71" s="22"/>
-    </row>
-    <row r="72" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="43" t="s">
+      <c r="M72" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N72" s="22"/>
+    </row>
+    <row r="73" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B72" s="43" t="s">
+      <c r="B73" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="44">
+      <c r="C73" s="44">
         <v>44043</v>
       </c>
-      <c r="D72" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F72" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="I72" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J72" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="K72" s="43">
-        <v>3</v>
-      </c>
-      <c r="L72" s="43">
+      <c r="D73" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K73" s="43">
+        <v>3</v>
+      </c>
+      <c r="L73" s="43">
         <v>1</v>
       </c>
-      <c r="M72" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="N72" s="43"/>
-    </row>
-    <row r="73" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C73" s="23">
-        <v>44044</v>
-      </c>
-      <c r="D73" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E73" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F73" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="I73" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J73" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K73" s="22">
-        <v>3</v>
-      </c>
-      <c r="L73" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="M73" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N73" s="22"/>
+      <c r="M73" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="N73" s="43"/>
     </row>
     <row r="74" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="22" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>5</v>
+        <v>34</v>
+      </c>
+      <c r="C74" s="23">
+        <v>44044</v>
       </c>
       <c r="D74" s="24" t="s">
         <v>2</v>
@@ -4662,19 +4668,19 @@
         <v>20</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J74" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K74" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="L74" s="22">
-        <v>1</v>
+      <c r="K74" s="22">
+        <v>3</v>
+      </c>
+      <c r="L74" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="M74" s="22" t="s">
         <v>23</v>
@@ -4683,12 +4689,14 @@
     </row>
     <row r="75" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="22" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" s="22"/>
+        <v>4</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>5</v>
+      </c>
       <c r="D75" s="24" t="s">
         <v>2</v>
       </c>
@@ -4696,7 +4704,7 @@
         <v>20</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G75" s="22" t="s">
         <v>20</v>
@@ -4705,32 +4713,30 @@
         <v>20</v>
       </c>
       <c r="I75" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J75" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K75" s="22">
-        <v>3</v>
+      <c r="K75" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="L75" s="22">
         <v>1</v>
       </c>
       <c r="M75" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N75" s="22" t="s">
-        <v>73</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="N75" s="22"/>
     </row>
     <row r="76" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="22" t="s">
-        <v>185</v>
+        <v>9</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C76" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="C76" s="22"/>
       <c r="D76" s="24" t="s">
         <v>2</v>
       </c>
@@ -4738,7 +4744,7 @@
         <v>20</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G76" s="22" t="s">
         <v>20</v>
@@ -4747,7 +4753,7 @@
         <v>20</v>
       </c>
       <c r="I76" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J76" s="22" t="s">
         <v>23</v>
@@ -4756,21 +4762,23 @@
         <v>3</v>
       </c>
       <c r="L76" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N76" s="22"/>
+        <v>20</v>
+      </c>
+      <c r="N76" s="22" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="77" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="22" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="C77" s="17"/>
+        <v>188</v>
+      </c>
+      <c r="C77" s="33"/>
       <c r="D77" s="24" t="s">
         <v>2</v>
       </c>
@@ -4778,7 +4786,7 @@
         <v>20</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G77" s="22" t="s">
         <v>20</v>
@@ -4787,7 +4795,7 @@
         <v>20</v>
       </c>
       <c r="I77" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J77" s="22" t="s">
         <v>23</v>
@@ -4801,14 +4809,14 @@
       <c r="M77" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N77" s="51"/>
+      <c r="N77" s="22"/>
     </row>
     <row r="78" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="22" t="s">
         <v>227</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C78" s="17"/>
       <c r="D78" s="24" t="s">
@@ -4844,15 +4852,15 @@
       <c r="N78" s="51"/>
     </row>
     <row r="79" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="33" t="s">
-        <v>239</v>
+      <c r="A79" s="22" t="s">
+        <v>227</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="C79" s="33"/>
+        <v>229</v>
+      </c>
+      <c r="C79" s="17"/>
       <c r="D79" s="24" t="s">
-        <v>175</v>
+        <v>2</v>
       </c>
       <c r="E79" s="25" t="s">
         <v>20</v>
@@ -4867,13 +4875,13 @@
         <v>20</v>
       </c>
       <c r="I79" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J79" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K79" s="22" t="s">
-        <v>24</v>
+      <c r="K79" s="22">
+        <v>3</v>
       </c>
       <c r="L79" s="22">
         <v>0</v>
@@ -4881,13 +4889,53 @@
       <c r="M79" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N79" s="54" t="s">
+      <c r="N79" s="51"/>
+    </row>
+    <row r="80" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="C80" s="33"/>
+      <c r="D80" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G80" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J80" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K80" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L80" s="22">
+        <v>0</v>
+      </c>
+      <c r="M80" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N80" s="54" t="s">
         <v>241</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N79">
-    <sortCondition ref="C2:C79"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N80">
+    <sortCondition ref="C2:C80"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D26" r:id="rId1" display="https://recruit.ucdavis.edu/JPF02950" xr:uid="{83E02472-223D-514A-82F7-94F8C5C76C6F}"/>
@@ -4895,8 +4943,8 @@
     <hyperlink ref="D39" r:id="rId3" xr:uid="{4B367342-2FC3-E140-A9EC-CB0227AE528A}"/>
     <hyperlink ref="D20" r:id="rId4" display="https://www.vacancies.ed.ac.uk/pls/corehrrecruit/erq_jobspec_version_4.jobspec?p_id=050154" xr:uid="{200AE473-7A60-B148-BA2A-18A77C170360}"/>
     <hyperlink ref="D21" r:id="rId5" display="https://www.recruit.ox.ac.uk/pls/hrisliverecruit/erq_jobspec_version_4.jobspec?p_id=143481" xr:uid="{07A2CD43-8F6C-854C-9BA5-EE4023673833}"/>
-    <hyperlink ref="D58" r:id="rId6" xr:uid="{155296AC-9F8B-B042-9832-B901625AED63}"/>
-    <hyperlink ref="N65" r:id="rId7" xr:uid="{583F2481-3CD7-8046-A18C-8F9F21DC23E3}"/>
+    <hyperlink ref="D59" r:id="rId6" xr:uid="{155296AC-9F8B-B042-9832-B901625AED63}"/>
+    <hyperlink ref="N66" r:id="rId7" xr:uid="{583F2481-3CD7-8046-A18C-8F9F21DC23E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
